--- a/resources/public/template/TemCXLog.xlsx
+++ b/resources/public/template/TemCXLog.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\xampp\htdocs\hospital\resources\public\template\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{96167F33-3D0D-4D17-8BAC-7E3353689E39}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FA9F0651-1223-4819-B7BF-4F2D6D5CD7DA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-103" yWindow="-103" windowWidth="24892" windowHeight="14914" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -300,7 +300,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="25">
+  <cellXfs count="26">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
@@ -311,6 +311,42 @@
     <xf numFmtId="0" fontId="3" fillId="3" borderId="1" xfId="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="8" fillId="3" borderId="2" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="3" borderId="5" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="3" borderId="6" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="3" borderId="7" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="3" borderId="8" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="3" borderId="0" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="3" borderId="9" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="3" borderId="10" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="3" borderId="11" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="3" borderId="12" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="3" borderId="4" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="3" borderId="3" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="6" fillId="3" borderId="2" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
@@ -319,6 +355,12 @@
     </xf>
     <xf numFmtId="0" fontId="5" fillId="3" borderId="3" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="2" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="3" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="3" borderId="2" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
@@ -332,47 +374,8 @@
     <xf numFmtId="0" fontId="5" fillId="3" borderId="3" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="3" borderId="5" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="3" borderId="6" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="3" borderId="7" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="3" borderId="8" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="3" borderId="0" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="3" borderId="9" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="3" borderId="10" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="3" borderId="11" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="3" borderId="12" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="3" borderId="4" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="3" borderId="3" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="3" borderId="2" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="3" borderId="3" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="3" borderId="2" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
@@ -655,7 +658,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:W12"/>
+  <dimension ref="A1:W111"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
       <selection activeCell="E12" sqref="E12"/>
@@ -672,12 +675,12 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:23" ht="14.6" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A1" s="11" t="s">
+      <c r="A1" s="5" t="s">
         <v>10</v>
       </c>
-      <c r="B1" s="12"/>
-      <c r="C1" s="12"/>
-      <c r="D1" s="13"/>
+      <c r="B1" s="6"/>
+      <c r="C1" s="6"/>
+      <c r="D1" s="7"/>
       <c r="E1" s="2"/>
       <c r="F1" s="2"/>
       <c r="G1" s="2"/>
@@ -699,10 +702,10 @@
       <c r="W1" s="2"/>
     </row>
     <row r="2" spans="1:23" ht="14.6" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A2" s="14"/>
-      <c r="B2" s="15"/>
-      <c r="C2" s="15"/>
-      <c r="D2" s="16"/>
+      <c r="A2" s="8"/>
+      <c r="B2" s="9"/>
+      <c r="C2" s="9"/>
+      <c r="D2" s="10"/>
       <c r="E2" s="2"/>
       <c r="F2" s="2"/>
       <c r="G2" s="2"/>
@@ -724,10 +727,10 @@
       <c r="W2" s="2"/>
     </row>
     <row r="3" spans="1:23" ht="14.6" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A3" s="17"/>
-      <c r="B3" s="18"/>
-      <c r="C3" s="18"/>
-      <c r="D3" s="19"/>
+      <c r="A3" s="11"/>
+      <c r="B3" s="12"/>
+      <c r="C3" s="12"/>
+      <c r="D3" s="13"/>
       <c r="E3" s="2"/>
       <c r="F3" s="2"/>
       <c r="G3" s="2"/>
@@ -749,10 +752,10 @@
       <c r="W3" s="2"/>
     </row>
     <row r="4" spans="1:23" ht="29.15" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A4" s="24"/>
-      <c r="B4" s="20"/>
-      <c r="C4" s="20"/>
-      <c r="D4" s="21"/>
+      <c r="A4" s="4"/>
+      <c r="B4" s="14"/>
+      <c r="C4" s="14"/>
+      <c r="D4" s="15"/>
       <c r="E4" s="2"/>
       <c r="F4" s="2"/>
       <c r="G4" s="2"/>
@@ -774,12 +777,12 @@
       <c r="W4" s="2"/>
     </row>
     <row r="5" spans="1:23" ht="26.6" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A5" s="7" t="s">
+      <c r="A5" s="21" t="s">
         <v>3</v>
       </c>
-      <c r="B5" s="8"/>
-      <c r="C5" s="22"/>
-      <c r="D5" s="23"/>
+      <c r="B5" s="22"/>
+      <c r="C5" s="19"/>
+      <c r="D5" s="20"/>
       <c r="E5" s="2"/>
       <c r="F5" s="2"/>
       <c r="G5" s="2"/>
@@ -801,12 +804,12 @@
       <c r="W5" s="2"/>
     </row>
     <row r="6" spans="1:23" ht="28.75" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A6" s="7" t="s">
+      <c r="A6" s="21" t="s">
         <v>8</v>
       </c>
-      <c r="B6" s="8"/>
-      <c r="C6" s="22"/>
-      <c r="D6" s="23"/>
+      <c r="B6" s="22"/>
+      <c r="C6" s="19"/>
+      <c r="D6" s="20"/>
       <c r="E6" s="2"/>
       <c r="F6" s="2"/>
       <c r="G6" s="2"/>
@@ -828,12 +831,12 @@
       <c r="W6" s="2"/>
     </row>
     <row r="7" spans="1:23" ht="27.45" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A7" s="7" t="s">
+      <c r="A7" s="21" t="s">
         <v>4</v>
       </c>
-      <c r="B7" s="8"/>
-      <c r="C7" s="22"/>
-      <c r="D7" s="23"/>
+      <c r="B7" s="22"/>
+      <c r="C7" s="19"/>
+      <c r="D7" s="20"/>
       <c r="E7" s="2"/>
       <c r="F7" s="2"/>
       <c r="G7" s="2"/>
@@ -855,12 +858,12 @@
       <c r="W7" s="2"/>
     </row>
     <row r="8" spans="1:23" ht="25.3" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A8" s="9" t="s">
+      <c r="A8" s="23" t="s">
         <v>5</v>
       </c>
-      <c r="B8" s="10"/>
-      <c r="C8" s="22"/>
-      <c r="D8" s="23"/>
+      <c r="B8" s="24"/>
+      <c r="C8" s="19"/>
+      <c r="D8" s="20"/>
       <c r="E8" s="2"/>
       <c r="F8" s="2"/>
       <c r="G8" s="2"/>
@@ -882,12 +885,12 @@
       <c r="W8" s="2"/>
     </row>
     <row r="9" spans="1:23" ht="29.15" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A9" s="9" t="s">
+      <c r="A9" s="23" t="s">
         <v>6</v>
       </c>
-      <c r="B9" s="10"/>
-      <c r="C9" s="22"/>
-      <c r="D9" s="23"/>
+      <c r="B9" s="24"/>
+      <c r="C9" s="19"/>
+      <c r="D9" s="20"/>
       <c r="E9" s="2"/>
       <c r="F9" s="2"/>
       <c r="G9" s="2"/>
@@ -909,12 +912,12 @@
       <c r="W9" s="2"/>
     </row>
     <row r="10" spans="1:23" ht="31.75" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A10" s="9" t="s">
+      <c r="A10" s="23" t="s">
         <v>7</v>
       </c>
-      <c r="B10" s="10"/>
-      <c r="C10" s="22"/>
-      <c r="D10" s="23"/>
+      <c r="B10" s="24"/>
+      <c r="C10" s="19"/>
+      <c r="D10" s="20"/>
       <c r="E10" s="2"/>
       <c r="F10" s="2"/>
       <c r="G10" s="2"/>
@@ -936,12 +939,12 @@
       <c r="W10" s="2"/>
     </row>
     <row r="11" spans="1:23" ht="31.75" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A11" s="4" t="s">
+      <c r="A11" s="16" t="s">
         <v>9</v>
       </c>
-      <c r="B11" s="5"/>
-      <c r="C11" s="5"/>
-      <c r="D11" s="6"/>
+      <c r="B11" s="17"/>
+      <c r="C11" s="17"/>
+      <c r="D11" s="18"/>
       <c r="E11" s="2"/>
       <c r="F11" s="2"/>
       <c r="G11" s="2"/>
@@ -973,6 +976,402 @@
         <v>2</v>
       </c>
       <c r="D12" s="3"/>
+    </row>
+    <row r="13" spans="1:23" x14ac:dyDescent="0.4">
+      <c r="B13" s="25"/>
+      <c r="C13" s="25"/>
+    </row>
+    <row r="14" spans="1:23" x14ac:dyDescent="0.4">
+      <c r="B14" s="25"/>
+      <c r="C14" s="25"/>
+    </row>
+    <row r="15" spans="1:23" x14ac:dyDescent="0.4">
+      <c r="B15" s="25"/>
+      <c r="C15" s="25"/>
+    </row>
+    <row r="16" spans="1:23" x14ac:dyDescent="0.4">
+      <c r="B16" s="25"/>
+      <c r="C16" s="25"/>
+    </row>
+    <row r="17" spans="2:3" x14ac:dyDescent="0.4">
+      <c r="B17" s="25"/>
+      <c r="C17" s="25"/>
+    </row>
+    <row r="18" spans="2:3" x14ac:dyDescent="0.4">
+      <c r="B18" s="25"/>
+      <c r="C18" s="25"/>
+    </row>
+    <row r="19" spans="2:3" x14ac:dyDescent="0.4">
+      <c r="B19" s="25"/>
+      <c r="C19" s="25"/>
+    </row>
+    <row r="20" spans="2:3" x14ac:dyDescent="0.4">
+      <c r="B20" s="25"/>
+      <c r="C20" s="25"/>
+    </row>
+    <row r="21" spans="2:3" x14ac:dyDescent="0.4">
+      <c r="B21" s="25"/>
+      <c r="C21" s="25"/>
+    </row>
+    <row r="22" spans="2:3" x14ac:dyDescent="0.4">
+      <c r="B22" s="25"/>
+      <c r="C22" s="25"/>
+    </row>
+    <row r="23" spans="2:3" x14ac:dyDescent="0.4">
+      <c r="B23" s="25"/>
+      <c r="C23" s="25"/>
+    </row>
+    <row r="24" spans="2:3" x14ac:dyDescent="0.4">
+      <c r="B24" s="25"/>
+      <c r="C24" s="25"/>
+    </row>
+    <row r="25" spans="2:3" x14ac:dyDescent="0.4">
+      <c r="B25" s="25"/>
+      <c r="C25" s="25"/>
+    </row>
+    <row r="26" spans="2:3" x14ac:dyDescent="0.4">
+      <c r="B26" s="25"/>
+      <c r="C26" s="25"/>
+    </row>
+    <row r="27" spans="2:3" x14ac:dyDescent="0.4">
+      <c r="B27" s="25"/>
+      <c r="C27" s="25"/>
+    </row>
+    <row r="28" spans="2:3" x14ac:dyDescent="0.4">
+      <c r="B28" s="25"/>
+      <c r="C28" s="25"/>
+    </row>
+    <row r="29" spans="2:3" x14ac:dyDescent="0.4">
+      <c r="B29" s="25"/>
+      <c r="C29" s="25"/>
+    </row>
+    <row r="30" spans="2:3" x14ac:dyDescent="0.4">
+      <c r="B30" s="25"/>
+      <c r="C30" s="25"/>
+    </row>
+    <row r="31" spans="2:3" x14ac:dyDescent="0.4">
+      <c r="B31" s="25"/>
+      <c r="C31" s="25"/>
+    </row>
+    <row r="32" spans="2:3" x14ac:dyDescent="0.4">
+      <c r="B32" s="25"/>
+      <c r="C32" s="25"/>
+    </row>
+    <row r="33" spans="2:3" x14ac:dyDescent="0.4">
+      <c r="B33" s="25"/>
+      <c r="C33" s="25"/>
+    </row>
+    <row r="34" spans="2:3" x14ac:dyDescent="0.4">
+      <c r="B34" s="25"/>
+      <c r="C34" s="25"/>
+    </row>
+    <row r="35" spans="2:3" x14ac:dyDescent="0.4">
+      <c r="B35" s="25"/>
+      <c r="C35" s="25"/>
+    </row>
+    <row r="36" spans="2:3" x14ac:dyDescent="0.4">
+      <c r="B36" s="25"/>
+      <c r="C36" s="25"/>
+    </row>
+    <row r="37" spans="2:3" x14ac:dyDescent="0.4">
+      <c r="B37" s="25"/>
+      <c r="C37" s="25"/>
+    </row>
+    <row r="38" spans="2:3" x14ac:dyDescent="0.4">
+      <c r="B38" s="25"/>
+      <c r="C38" s="25"/>
+    </row>
+    <row r="39" spans="2:3" x14ac:dyDescent="0.4">
+      <c r="B39" s="25"/>
+      <c r="C39" s="25"/>
+    </row>
+    <row r="40" spans="2:3" x14ac:dyDescent="0.4">
+      <c r="B40" s="25"/>
+      <c r="C40" s="25"/>
+    </row>
+    <row r="41" spans="2:3" x14ac:dyDescent="0.4">
+      <c r="B41" s="25"/>
+      <c r="C41" s="25"/>
+    </row>
+    <row r="42" spans="2:3" x14ac:dyDescent="0.4">
+      <c r="B42" s="25"/>
+      <c r="C42" s="25"/>
+    </row>
+    <row r="43" spans="2:3" x14ac:dyDescent="0.4">
+      <c r="B43" s="25"/>
+      <c r="C43" s="25"/>
+    </row>
+    <row r="44" spans="2:3" x14ac:dyDescent="0.4">
+      <c r="B44" s="25"/>
+      <c r="C44" s="25"/>
+    </row>
+    <row r="45" spans="2:3" x14ac:dyDescent="0.4">
+      <c r="B45" s="25"/>
+      <c r="C45" s="25"/>
+    </row>
+    <row r="46" spans="2:3" x14ac:dyDescent="0.4">
+      <c r="B46" s="25"/>
+      <c r="C46" s="25"/>
+    </row>
+    <row r="47" spans="2:3" x14ac:dyDescent="0.4">
+      <c r="B47" s="25"/>
+      <c r="C47" s="25"/>
+    </row>
+    <row r="48" spans="2:3" x14ac:dyDescent="0.4">
+      <c r="B48" s="25"/>
+      <c r="C48" s="25"/>
+    </row>
+    <row r="49" spans="2:3" x14ac:dyDescent="0.4">
+      <c r="B49" s="25"/>
+      <c r="C49" s="25"/>
+    </row>
+    <row r="50" spans="2:3" x14ac:dyDescent="0.4">
+      <c r="B50" s="25"/>
+      <c r="C50" s="25"/>
+    </row>
+    <row r="51" spans="2:3" x14ac:dyDescent="0.4">
+      <c r="B51" s="25"/>
+      <c r="C51" s="25"/>
+    </row>
+    <row r="52" spans="2:3" x14ac:dyDescent="0.4">
+      <c r="B52" s="25"/>
+      <c r="C52" s="25"/>
+    </row>
+    <row r="53" spans="2:3" x14ac:dyDescent="0.4">
+      <c r="B53" s="25"/>
+      <c r="C53" s="25"/>
+    </row>
+    <row r="54" spans="2:3" x14ac:dyDescent="0.4">
+      <c r="B54" s="25"/>
+      <c r="C54" s="25"/>
+    </row>
+    <row r="55" spans="2:3" x14ac:dyDescent="0.4">
+      <c r="B55" s="25"/>
+      <c r="C55" s="25"/>
+    </row>
+    <row r="56" spans="2:3" x14ac:dyDescent="0.4">
+      <c r="B56" s="25"/>
+      <c r="C56" s="25"/>
+    </row>
+    <row r="57" spans="2:3" x14ac:dyDescent="0.4">
+      <c r="B57" s="25"/>
+      <c r="C57" s="25"/>
+    </row>
+    <row r="58" spans="2:3" x14ac:dyDescent="0.4">
+      <c r="B58" s="25"/>
+      <c r="C58" s="25"/>
+    </row>
+    <row r="59" spans="2:3" x14ac:dyDescent="0.4">
+      <c r="B59" s="25"/>
+      <c r="C59" s="25"/>
+    </row>
+    <row r="60" spans="2:3" x14ac:dyDescent="0.4">
+      <c r="B60" s="25"/>
+      <c r="C60" s="25"/>
+    </row>
+    <row r="61" spans="2:3" x14ac:dyDescent="0.4">
+      <c r="B61" s="25"/>
+      <c r="C61" s="25"/>
+    </row>
+    <row r="62" spans="2:3" x14ac:dyDescent="0.4">
+      <c r="B62" s="25"/>
+      <c r="C62" s="25"/>
+    </row>
+    <row r="63" spans="2:3" x14ac:dyDescent="0.4">
+      <c r="B63" s="25"/>
+      <c r="C63" s="25"/>
+    </row>
+    <row r="64" spans="2:3" x14ac:dyDescent="0.4">
+      <c r="B64" s="25"/>
+      <c r="C64" s="25"/>
+    </row>
+    <row r="65" spans="2:3" x14ac:dyDescent="0.4">
+      <c r="B65" s="25"/>
+      <c r="C65" s="25"/>
+    </row>
+    <row r="66" spans="2:3" x14ac:dyDescent="0.4">
+      <c r="B66" s="25"/>
+      <c r="C66" s="25"/>
+    </row>
+    <row r="67" spans="2:3" x14ac:dyDescent="0.4">
+      <c r="B67" s="25"/>
+      <c r="C67" s="25"/>
+    </row>
+    <row r="68" spans="2:3" x14ac:dyDescent="0.4">
+      <c r="B68" s="25"/>
+      <c r="C68" s="25"/>
+    </row>
+    <row r="69" spans="2:3" x14ac:dyDescent="0.4">
+      <c r="B69" s="25"/>
+      <c r="C69" s="25"/>
+    </row>
+    <row r="70" spans="2:3" x14ac:dyDescent="0.4">
+      <c r="B70" s="25"/>
+      <c r="C70" s="25"/>
+    </row>
+    <row r="71" spans="2:3" x14ac:dyDescent="0.4">
+      <c r="B71" s="25"/>
+      <c r="C71" s="25"/>
+    </row>
+    <row r="72" spans="2:3" x14ac:dyDescent="0.4">
+      <c r="B72" s="25"/>
+      <c r="C72" s="25"/>
+    </row>
+    <row r="73" spans="2:3" x14ac:dyDescent="0.4">
+      <c r="B73" s="25"/>
+      <c r="C73" s="25"/>
+    </row>
+    <row r="74" spans="2:3" x14ac:dyDescent="0.4">
+      <c r="B74" s="25"/>
+      <c r="C74" s="25"/>
+    </row>
+    <row r="75" spans="2:3" x14ac:dyDescent="0.4">
+      <c r="B75" s="25"/>
+      <c r="C75" s="25"/>
+    </row>
+    <row r="76" spans="2:3" x14ac:dyDescent="0.4">
+      <c r="B76" s="25"/>
+      <c r="C76" s="25"/>
+    </row>
+    <row r="77" spans="2:3" x14ac:dyDescent="0.4">
+      <c r="B77" s="25"/>
+      <c r="C77" s="25"/>
+    </row>
+    <row r="78" spans="2:3" x14ac:dyDescent="0.4">
+      <c r="B78" s="25"/>
+      <c r="C78" s="25"/>
+    </row>
+    <row r="79" spans="2:3" x14ac:dyDescent="0.4">
+      <c r="B79" s="25"/>
+      <c r="C79" s="25"/>
+    </row>
+    <row r="80" spans="2:3" x14ac:dyDescent="0.4">
+      <c r="B80" s="25"/>
+      <c r="C80" s="25"/>
+    </row>
+    <row r="81" spans="2:3" x14ac:dyDescent="0.4">
+      <c r="B81" s="25"/>
+      <c r="C81" s="25"/>
+    </row>
+    <row r="82" spans="2:3" x14ac:dyDescent="0.4">
+      <c r="B82" s="25"/>
+      <c r="C82" s="25"/>
+    </row>
+    <row r="83" spans="2:3" x14ac:dyDescent="0.4">
+      <c r="B83" s="25"/>
+      <c r="C83" s="25"/>
+    </row>
+    <row r="84" spans="2:3" x14ac:dyDescent="0.4">
+      <c r="B84" s="25"/>
+      <c r="C84" s="25"/>
+    </row>
+    <row r="85" spans="2:3" x14ac:dyDescent="0.4">
+      <c r="B85" s="25"/>
+      <c r="C85" s="25"/>
+    </row>
+    <row r="86" spans="2:3" x14ac:dyDescent="0.4">
+      <c r="B86" s="25"/>
+      <c r="C86" s="25"/>
+    </row>
+    <row r="87" spans="2:3" x14ac:dyDescent="0.4">
+      <c r="B87" s="25"/>
+      <c r="C87" s="25"/>
+    </row>
+    <row r="88" spans="2:3" x14ac:dyDescent="0.4">
+      <c r="B88" s="25"/>
+      <c r="C88" s="25"/>
+    </row>
+    <row r="89" spans="2:3" x14ac:dyDescent="0.4">
+      <c r="B89" s="25"/>
+      <c r="C89" s="25"/>
+    </row>
+    <row r="90" spans="2:3" x14ac:dyDescent="0.4">
+      <c r="B90" s="25"/>
+      <c r="C90" s="25"/>
+    </row>
+    <row r="91" spans="2:3" x14ac:dyDescent="0.4">
+      <c r="B91" s="25"/>
+      <c r="C91" s="25"/>
+    </row>
+    <row r="92" spans="2:3" x14ac:dyDescent="0.4">
+      <c r="B92" s="25"/>
+      <c r="C92" s="25"/>
+    </row>
+    <row r="93" spans="2:3" x14ac:dyDescent="0.4">
+      <c r="B93" s="25"/>
+      <c r="C93" s="25"/>
+    </row>
+    <row r="94" spans="2:3" x14ac:dyDescent="0.4">
+      <c r="B94" s="25"/>
+      <c r="C94" s="25"/>
+    </row>
+    <row r="95" spans="2:3" x14ac:dyDescent="0.4">
+      <c r="B95" s="25"/>
+      <c r="C95" s="25"/>
+    </row>
+    <row r="96" spans="2:3" x14ac:dyDescent="0.4">
+      <c r="B96" s="25"/>
+      <c r="C96" s="25"/>
+    </row>
+    <row r="97" spans="2:3" x14ac:dyDescent="0.4">
+      <c r="B97" s="25"/>
+      <c r="C97" s="25"/>
+    </row>
+    <row r="98" spans="2:3" x14ac:dyDescent="0.4">
+      <c r="B98" s="25"/>
+      <c r="C98" s="25"/>
+    </row>
+    <row r="99" spans="2:3" x14ac:dyDescent="0.4">
+      <c r="B99" s="25"/>
+      <c r="C99" s="25"/>
+    </row>
+    <row r="100" spans="2:3" x14ac:dyDescent="0.4">
+      <c r="B100" s="25"/>
+      <c r="C100" s="25"/>
+    </row>
+    <row r="101" spans="2:3" x14ac:dyDescent="0.4">
+      <c r="B101" s="25"/>
+      <c r="C101" s="25"/>
+    </row>
+    <row r="102" spans="2:3" x14ac:dyDescent="0.4">
+      <c r="B102" s="25"/>
+      <c r="C102" s="25"/>
+    </row>
+    <row r="103" spans="2:3" x14ac:dyDescent="0.4">
+      <c r="B103" s="25"/>
+      <c r="C103" s="25"/>
+    </row>
+    <row r="104" spans="2:3" x14ac:dyDescent="0.4">
+      <c r="B104" s="25"/>
+      <c r="C104" s="25"/>
+    </row>
+    <row r="105" spans="2:3" x14ac:dyDescent="0.4">
+      <c r="B105" s="25"/>
+      <c r="C105" s="25"/>
+    </row>
+    <row r="106" spans="2:3" x14ac:dyDescent="0.4">
+      <c r="B106" s="25"/>
+      <c r="C106" s="25"/>
+    </row>
+    <row r="107" spans="2:3" x14ac:dyDescent="0.4">
+      <c r="B107" s="25"/>
+      <c r="C107" s="25"/>
+    </row>
+    <row r="108" spans="2:3" x14ac:dyDescent="0.4">
+      <c r="B108" s="25"/>
+      <c r="C108" s="25"/>
+    </row>
+    <row r="109" spans="2:3" x14ac:dyDescent="0.4">
+      <c r="B109" s="25"/>
+      <c r="C109" s="25"/>
+    </row>
+    <row r="110" spans="2:3" x14ac:dyDescent="0.4">
+      <c r="B110" s="25"/>
+      <c r="C110" s="25"/>
+    </row>
+    <row r="111" spans="2:3" x14ac:dyDescent="0.4">
+      <c r="B111" s="25"/>
+      <c r="C111" s="25"/>
     </row>
   </sheetData>
   <mergeCells count="15">

--- a/resources/public/template/TemCXLog.xlsx
+++ b/resources/public/template/TemCXLog.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\xampp\htdocs\hospital\resources\public\template\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FA9F0651-1223-4819-B7BF-4F2D6D5CD7DA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F6B3E3F6-C44B-47A6-BC48-C52728D5588E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-103" yWindow="-103" windowWidth="24892" windowHeight="14914" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -311,8 +311,8 @@
     <xf numFmtId="0" fontId="3" fillId="3" borderId="1" xfId="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="3" borderId="2" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="7" fillId="3" borderId="5" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
@@ -374,8 +374,8 @@
     <xf numFmtId="0" fontId="5" fillId="3" borderId="3" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    <xf numFmtId="0" fontId="8" fillId="3" borderId="2" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
@@ -661,7 +661,7 @@
   <dimension ref="A1:W111"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="E12" sqref="E12"/>
+      <selection activeCell="E5" sqref="E5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.15234375" defaultRowHeight="14.6" x14ac:dyDescent="0.4"/>
@@ -752,7 +752,7 @@
       <c r="W3" s="2"/>
     </row>
     <row r="4" spans="1:23" ht="29.15" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A4" s="4"/>
+      <c r="A4" s="25"/>
       <c r="B4" s="14"/>
       <c r="C4" s="14"/>
       <c r="D4" s="15"/>
@@ -978,405 +978,404 @@
       <c r="D12" s="3"/>
     </row>
     <row r="13" spans="1:23" x14ac:dyDescent="0.4">
-      <c r="B13" s="25"/>
-      <c r="C13" s="25"/>
+      <c r="B13" s="4"/>
+      <c r="C13" s="4"/>
     </row>
     <row r="14" spans="1:23" x14ac:dyDescent="0.4">
-      <c r="B14" s="25"/>
-      <c r="C14" s="25"/>
+      <c r="B14" s="4"/>
+      <c r="C14" s="4"/>
     </row>
     <row r="15" spans="1:23" x14ac:dyDescent="0.4">
-      <c r="B15" s="25"/>
-      <c r="C15" s="25"/>
+      <c r="B15" s="4"/>
+      <c r="C15" s="4"/>
     </row>
     <row r="16" spans="1:23" x14ac:dyDescent="0.4">
-      <c r="B16" s="25"/>
-      <c r="C16" s="25"/>
+      <c r="B16" s="4"/>
+      <c r="C16" s="4"/>
     </row>
     <row r="17" spans="2:3" x14ac:dyDescent="0.4">
-      <c r="B17" s="25"/>
-      <c r="C17" s="25"/>
+      <c r="B17" s="4"/>
+      <c r="C17" s="4"/>
     </row>
     <row r="18" spans="2:3" x14ac:dyDescent="0.4">
-      <c r="B18" s="25"/>
-      <c r="C18" s="25"/>
+      <c r="B18" s="4"/>
+      <c r="C18" s="4"/>
     </row>
     <row r="19" spans="2:3" x14ac:dyDescent="0.4">
-      <c r="B19" s="25"/>
-      <c r="C19" s="25"/>
+      <c r="B19" s="4"/>
+      <c r="C19" s="4"/>
     </row>
     <row r="20" spans="2:3" x14ac:dyDescent="0.4">
-      <c r="B20" s="25"/>
-      <c r="C20" s="25"/>
+      <c r="B20" s="4"/>
+      <c r="C20" s="4"/>
     </row>
     <row r="21" spans="2:3" x14ac:dyDescent="0.4">
-      <c r="B21" s="25"/>
-      <c r="C21" s="25"/>
+      <c r="B21" s="4"/>
+      <c r="C21" s="4"/>
     </row>
     <row r="22" spans="2:3" x14ac:dyDescent="0.4">
-      <c r="B22" s="25"/>
-      <c r="C22" s="25"/>
+      <c r="B22" s="4"/>
+      <c r="C22" s="4"/>
     </row>
     <row r="23" spans="2:3" x14ac:dyDescent="0.4">
-      <c r="B23" s="25"/>
-      <c r="C23" s="25"/>
+      <c r="B23" s="4"/>
+      <c r="C23" s="4"/>
     </row>
     <row r="24" spans="2:3" x14ac:dyDescent="0.4">
-      <c r="B24" s="25"/>
-      <c r="C24" s="25"/>
+      <c r="B24" s="4"/>
+      <c r="C24" s="4"/>
     </row>
     <row r="25" spans="2:3" x14ac:dyDescent="0.4">
-      <c r="B25" s="25"/>
-      <c r="C25" s="25"/>
+      <c r="B25" s="4"/>
+      <c r="C25" s="4"/>
     </row>
     <row r="26" spans="2:3" x14ac:dyDescent="0.4">
-      <c r="B26" s="25"/>
-      <c r="C26" s="25"/>
+      <c r="B26" s="4"/>
+      <c r="C26" s="4"/>
     </row>
     <row r="27" spans="2:3" x14ac:dyDescent="0.4">
-      <c r="B27" s="25"/>
-      <c r="C27" s="25"/>
+      <c r="B27" s="4"/>
+      <c r="C27" s="4"/>
     </row>
     <row r="28" spans="2:3" x14ac:dyDescent="0.4">
-      <c r="B28" s="25"/>
-      <c r="C28" s="25"/>
+      <c r="B28" s="4"/>
+      <c r="C28" s="4"/>
     </row>
     <row r="29" spans="2:3" x14ac:dyDescent="0.4">
-      <c r="B29" s="25"/>
-      <c r="C29" s="25"/>
+      <c r="B29" s="4"/>
+      <c r="C29" s="4"/>
     </row>
     <row r="30" spans="2:3" x14ac:dyDescent="0.4">
-      <c r="B30" s="25"/>
-      <c r="C30" s="25"/>
+      <c r="B30" s="4"/>
+      <c r="C30" s="4"/>
     </row>
     <row r="31" spans="2:3" x14ac:dyDescent="0.4">
-      <c r="B31" s="25"/>
-      <c r="C31" s="25"/>
+      <c r="B31" s="4"/>
+      <c r="C31" s="4"/>
     </row>
     <row r="32" spans="2:3" x14ac:dyDescent="0.4">
-      <c r="B32" s="25"/>
-      <c r="C32" s="25"/>
+      <c r="B32" s="4"/>
+      <c r="C32" s="4"/>
     </row>
     <row r="33" spans="2:3" x14ac:dyDescent="0.4">
-      <c r="B33" s="25"/>
-      <c r="C33" s="25"/>
+      <c r="B33" s="4"/>
+      <c r="C33" s="4"/>
     </row>
     <row r="34" spans="2:3" x14ac:dyDescent="0.4">
-      <c r="B34" s="25"/>
-      <c r="C34" s="25"/>
+      <c r="B34" s="4"/>
+      <c r="C34" s="4"/>
     </row>
     <row r="35" spans="2:3" x14ac:dyDescent="0.4">
-      <c r="B35" s="25"/>
-      <c r="C35" s="25"/>
+      <c r="B35" s="4"/>
+      <c r="C35" s="4"/>
     </row>
     <row r="36" spans="2:3" x14ac:dyDescent="0.4">
-      <c r="B36" s="25"/>
-      <c r="C36" s="25"/>
+      <c r="B36" s="4"/>
+      <c r="C36" s="4"/>
     </row>
     <row r="37" spans="2:3" x14ac:dyDescent="0.4">
-      <c r="B37" s="25"/>
-      <c r="C37" s="25"/>
+      <c r="B37" s="4"/>
+      <c r="C37" s="4"/>
     </row>
     <row r="38" spans="2:3" x14ac:dyDescent="0.4">
-      <c r="B38" s="25"/>
-      <c r="C38" s="25"/>
+      <c r="B38" s="4"/>
+      <c r="C38" s="4"/>
     </row>
     <row r="39" spans="2:3" x14ac:dyDescent="0.4">
-      <c r="B39" s="25"/>
-      <c r="C39" s="25"/>
+      <c r="B39" s="4"/>
+      <c r="C39" s="4"/>
     </row>
     <row r="40" spans="2:3" x14ac:dyDescent="0.4">
-      <c r="B40" s="25"/>
-      <c r="C40" s="25"/>
+      <c r="B40" s="4"/>
+      <c r="C40" s="4"/>
     </row>
     <row r="41" spans="2:3" x14ac:dyDescent="0.4">
-      <c r="B41" s="25"/>
-      <c r="C41" s="25"/>
+      <c r="B41" s="4"/>
+      <c r="C41" s="4"/>
     </row>
     <row r="42" spans="2:3" x14ac:dyDescent="0.4">
-      <c r="B42" s="25"/>
-      <c r="C42" s="25"/>
+      <c r="B42" s="4"/>
+      <c r="C42" s="4"/>
     </row>
     <row r="43" spans="2:3" x14ac:dyDescent="0.4">
-      <c r="B43" s="25"/>
-      <c r="C43" s="25"/>
+      <c r="B43" s="4"/>
+      <c r="C43" s="4"/>
     </row>
     <row r="44" spans="2:3" x14ac:dyDescent="0.4">
-      <c r="B44" s="25"/>
-      <c r="C44" s="25"/>
+      <c r="B44" s="4"/>
+      <c r="C44" s="4"/>
     </row>
     <row r="45" spans="2:3" x14ac:dyDescent="0.4">
-      <c r="B45" s="25"/>
-      <c r="C45" s="25"/>
+      <c r="B45" s="4"/>
+      <c r="C45" s="4"/>
     </row>
     <row r="46" spans="2:3" x14ac:dyDescent="0.4">
-      <c r="B46" s="25"/>
-      <c r="C46" s="25"/>
+      <c r="B46" s="4"/>
+      <c r="C46" s="4"/>
     </row>
     <row r="47" spans="2:3" x14ac:dyDescent="0.4">
-      <c r="B47" s="25"/>
-      <c r="C47" s="25"/>
+      <c r="B47" s="4"/>
+      <c r="C47" s="4"/>
     </row>
     <row r="48" spans="2:3" x14ac:dyDescent="0.4">
-      <c r="B48" s="25"/>
-      <c r="C48" s="25"/>
+      <c r="B48" s="4"/>
+      <c r="C48" s="4"/>
     </row>
     <row r="49" spans="2:3" x14ac:dyDescent="0.4">
-      <c r="B49" s="25"/>
-      <c r="C49" s="25"/>
+      <c r="B49" s="4"/>
+      <c r="C49" s="4"/>
     </row>
     <row r="50" spans="2:3" x14ac:dyDescent="0.4">
-      <c r="B50" s="25"/>
-      <c r="C50" s="25"/>
+      <c r="B50" s="4"/>
+      <c r="C50" s="4"/>
     </row>
     <row r="51" spans="2:3" x14ac:dyDescent="0.4">
-      <c r="B51" s="25"/>
-      <c r="C51" s="25"/>
+      <c r="B51" s="4"/>
+      <c r="C51" s="4"/>
     </row>
     <row r="52" spans="2:3" x14ac:dyDescent="0.4">
-      <c r="B52" s="25"/>
-      <c r="C52" s="25"/>
+      <c r="B52" s="4"/>
+      <c r="C52" s="4"/>
     </row>
     <row r="53" spans="2:3" x14ac:dyDescent="0.4">
-      <c r="B53" s="25"/>
-      <c r="C53" s="25"/>
+      <c r="B53" s="4"/>
+      <c r="C53" s="4"/>
     </row>
     <row r="54" spans="2:3" x14ac:dyDescent="0.4">
-      <c r="B54" s="25"/>
-      <c r="C54" s="25"/>
+      <c r="B54" s="4"/>
+      <c r="C54" s="4"/>
     </row>
     <row r="55" spans="2:3" x14ac:dyDescent="0.4">
-      <c r="B55" s="25"/>
-      <c r="C55" s="25"/>
+      <c r="B55" s="4"/>
+      <c r="C55" s="4"/>
     </row>
     <row r="56" spans="2:3" x14ac:dyDescent="0.4">
-      <c r="B56" s="25"/>
-      <c r="C56" s="25"/>
+      <c r="B56" s="4"/>
+      <c r="C56" s="4"/>
     </row>
     <row r="57" spans="2:3" x14ac:dyDescent="0.4">
-      <c r="B57" s="25"/>
-      <c r="C57" s="25"/>
+      <c r="B57" s="4"/>
+      <c r="C57" s="4"/>
     </row>
     <row r="58" spans="2:3" x14ac:dyDescent="0.4">
-      <c r="B58" s="25"/>
-      <c r="C58" s="25"/>
+      <c r="B58" s="4"/>
+      <c r="C58" s="4"/>
     </row>
     <row r="59" spans="2:3" x14ac:dyDescent="0.4">
-      <c r="B59" s="25"/>
-      <c r="C59" s="25"/>
+      <c r="B59" s="4"/>
+      <c r="C59" s="4"/>
     </row>
     <row r="60" spans="2:3" x14ac:dyDescent="0.4">
-      <c r="B60" s="25"/>
-      <c r="C60" s="25"/>
+      <c r="B60" s="4"/>
+      <c r="C60" s="4"/>
     </row>
     <row r="61" spans="2:3" x14ac:dyDescent="0.4">
-      <c r="B61" s="25"/>
-      <c r="C61" s="25"/>
+      <c r="B61" s="4"/>
+      <c r="C61" s="4"/>
     </row>
     <row r="62" spans="2:3" x14ac:dyDescent="0.4">
-      <c r="B62" s="25"/>
-      <c r="C62" s="25"/>
+      <c r="B62" s="4"/>
+      <c r="C62" s="4"/>
     </row>
     <row r="63" spans="2:3" x14ac:dyDescent="0.4">
-      <c r="B63" s="25"/>
-      <c r="C63" s="25"/>
+      <c r="B63" s="4"/>
+      <c r="C63" s="4"/>
     </row>
     <row r="64" spans="2:3" x14ac:dyDescent="0.4">
-      <c r="B64" s="25"/>
-      <c r="C64" s="25"/>
+      <c r="B64" s="4"/>
+      <c r="C64" s="4"/>
     </row>
     <row r="65" spans="2:3" x14ac:dyDescent="0.4">
-      <c r="B65" s="25"/>
-      <c r="C65" s="25"/>
+      <c r="B65" s="4"/>
+      <c r="C65" s="4"/>
     </row>
     <row r="66" spans="2:3" x14ac:dyDescent="0.4">
-      <c r="B66" s="25"/>
-      <c r="C66" s="25"/>
+      <c r="B66" s="4"/>
+      <c r="C66" s="4"/>
     </row>
     <row r="67" spans="2:3" x14ac:dyDescent="0.4">
-      <c r="B67" s="25"/>
-      <c r="C67" s="25"/>
+      <c r="B67" s="4"/>
+      <c r="C67" s="4"/>
     </row>
     <row r="68" spans="2:3" x14ac:dyDescent="0.4">
-      <c r="B68" s="25"/>
-      <c r="C68" s="25"/>
+      <c r="B68" s="4"/>
+      <c r="C68" s="4"/>
     </row>
     <row r="69" spans="2:3" x14ac:dyDescent="0.4">
-      <c r="B69" s="25"/>
-      <c r="C69" s="25"/>
+      <c r="B69" s="4"/>
+      <c r="C69" s="4"/>
     </row>
     <row r="70" spans="2:3" x14ac:dyDescent="0.4">
-      <c r="B70" s="25"/>
-      <c r="C70" s="25"/>
+      <c r="B70" s="4"/>
+      <c r="C70" s="4"/>
     </row>
     <row r="71" spans="2:3" x14ac:dyDescent="0.4">
-      <c r="B71" s="25"/>
-      <c r="C71" s="25"/>
+      <c r="B71" s="4"/>
+      <c r="C71" s="4"/>
     </row>
     <row r="72" spans="2:3" x14ac:dyDescent="0.4">
-      <c r="B72" s="25"/>
-      <c r="C72" s="25"/>
+      <c r="B72" s="4"/>
+      <c r="C72" s="4"/>
     </row>
     <row r="73" spans="2:3" x14ac:dyDescent="0.4">
-      <c r="B73" s="25"/>
-      <c r="C73" s="25"/>
+      <c r="B73" s="4"/>
+      <c r="C73" s="4"/>
     </row>
     <row r="74" spans="2:3" x14ac:dyDescent="0.4">
-      <c r="B74" s="25"/>
-      <c r="C74" s="25"/>
+      <c r="B74" s="4"/>
+      <c r="C74" s="4"/>
     </row>
     <row r="75" spans="2:3" x14ac:dyDescent="0.4">
-      <c r="B75" s="25"/>
-      <c r="C75" s="25"/>
+      <c r="B75" s="4"/>
+      <c r="C75" s="4"/>
     </row>
     <row r="76" spans="2:3" x14ac:dyDescent="0.4">
-      <c r="B76" s="25"/>
-      <c r="C76" s="25"/>
+      <c r="B76" s="4"/>
+      <c r="C76" s="4"/>
     </row>
     <row r="77" spans="2:3" x14ac:dyDescent="0.4">
-      <c r="B77" s="25"/>
-      <c r="C77" s="25"/>
+      <c r="B77" s="4"/>
+      <c r="C77" s="4"/>
     </row>
     <row r="78" spans="2:3" x14ac:dyDescent="0.4">
-      <c r="B78" s="25"/>
-      <c r="C78" s="25"/>
+      <c r="B78" s="4"/>
+      <c r="C78" s="4"/>
     </row>
     <row r="79" spans="2:3" x14ac:dyDescent="0.4">
-      <c r="B79" s="25"/>
-      <c r="C79" s="25"/>
+      <c r="B79" s="4"/>
+      <c r="C79" s="4"/>
     </row>
     <row r="80" spans="2:3" x14ac:dyDescent="0.4">
-      <c r="B80" s="25"/>
-      <c r="C80" s="25"/>
+      <c r="B80" s="4"/>
+      <c r="C80" s="4"/>
     </row>
     <row r="81" spans="2:3" x14ac:dyDescent="0.4">
-      <c r="B81" s="25"/>
-      <c r="C81" s="25"/>
+      <c r="B81" s="4"/>
+      <c r="C81" s="4"/>
     </row>
     <row r="82" spans="2:3" x14ac:dyDescent="0.4">
-      <c r="B82" s="25"/>
-      <c r="C82" s="25"/>
+      <c r="B82" s="4"/>
+      <c r="C82" s="4"/>
     </row>
     <row r="83" spans="2:3" x14ac:dyDescent="0.4">
-      <c r="B83" s="25"/>
-      <c r="C83" s="25"/>
+      <c r="B83" s="4"/>
+      <c r="C83" s="4"/>
     </row>
     <row r="84" spans="2:3" x14ac:dyDescent="0.4">
-      <c r="B84" s="25"/>
-      <c r="C84" s="25"/>
+      <c r="B84" s="4"/>
+      <c r="C84" s="4"/>
     </row>
     <row r="85" spans="2:3" x14ac:dyDescent="0.4">
-      <c r="B85" s="25"/>
-      <c r="C85" s="25"/>
+      <c r="B85" s="4"/>
+      <c r="C85" s="4"/>
     </row>
     <row r="86" spans="2:3" x14ac:dyDescent="0.4">
-      <c r="B86" s="25"/>
-      <c r="C86" s="25"/>
+      <c r="B86" s="4"/>
+      <c r="C86" s="4"/>
     </row>
     <row r="87" spans="2:3" x14ac:dyDescent="0.4">
-      <c r="B87" s="25"/>
-      <c r="C87" s="25"/>
+      <c r="B87" s="4"/>
+      <c r="C87" s="4"/>
     </row>
     <row r="88" spans="2:3" x14ac:dyDescent="0.4">
-      <c r="B88" s="25"/>
-      <c r="C88" s="25"/>
+      <c r="B88" s="4"/>
+      <c r="C88" s="4"/>
     </row>
     <row r="89" spans="2:3" x14ac:dyDescent="0.4">
-      <c r="B89" s="25"/>
-      <c r="C89" s="25"/>
+      <c r="B89" s="4"/>
+      <c r="C89" s="4"/>
     </row>
     <row r="90" spans="2:3" x14ac:dyDescent="0.4">
-      <c r="B90" s="25"/>
-      <c r="C90" s="25"/>
+      <c r="B90" s="4"/>
+      <c r="C90" s="4"/>
     </row>
     <row r="91" spans="2:3" x14ac:dyDescent="0.4">
-      <c r="B91" s="25"/>
-      <c r="C91" s="25"/>
+      <c r="B91" s="4"/>
+      <c r="C91" s="4"/>
     </row>
     <row r="92" spans="2:3" x14ac:dyDescent="0.4">
-      <c r="B92" s="25"/>
-      <c r="C92" s="25"/>
+      <c r="B92" s="4"/>
+      <c r="C92" s="4"/>
     </row>
     <row r="93" spans="2:3" x14ac:dyDescent="0.4">
-      <c r="B93" s="25"/>
-      <c r="C93" s="25"/>
+      <c r="B93" s="4"/>
+      <c r="C93" s="4"/>
     </row>
     <row r="94" spans="2:3" x14ac:dyDescent="0.4">
-      <c r="B94" s="25"/>
-      <c r="C94" s="25"/>
+      <c r="B94" s="4"/>
+      <c r="C94" s="4"/>
     </row>
     <row r="95" spans="2:3" x14ac:dyDescent="0.4">
-      <c r="B95" s="25"/>
-      <c r="C95" s="25"/>
+      <c r="B95" s="4"/>
+      <c r="C95" s="4"/>
     </row>
     <row r="96" spans="2:3" x14ac:dyDescent="0.4">
-      <c r="B96" s="25"/>
-      <c r="C96" s="25"/>
+      <c r="B96" s="4"/>
+      <c r="C96" s="4"/>
     </row>
     <row r="97" spans="2:3" x14ac:dyDescent="0.4">
-      <c r="B97" s="25"/>
-      <c r="C97" s="25"/>
+      <c r="B97" s="4"/>
+      <c r="C97" s="4"/>
     </row>
     <row r="98" spans="2:3" x14ac:dyDescent="0.4">
-      <c r="B98" s="25"/>
-      <c r="C98" s="25"/>
+      <c r="B98" s="4"/>
+      <c r="C98" s="4"/>
     </row>
     <row r="99" spans="2:3" x14ac:dyDescent="0.4">
-      <c r="B99" s="25"/>
-      <c r="C99" s="25"/>
+      <c r="B99" s="4"/>
+      <c r="C99" s="4"/>
     </row>
     <row r="100" spans="2:3" x14ac:dyDescent="0.4">
-      <c r="B100" s="25"/>
-      <c r="C100" s="25"/>
+      <c r="B100" s="4"/>
+      <c r="C100" s="4"/>
     </row>
     <row r="101" spans="2:3" x14ac:dyDescent="0.4">
-      <c r="B101" s="25"/>
-      <c r="C101" s="25"/>
+      <c r="B101" s="4"/>
+      <c r="C101" s="4"/>
     </row>
     <row r="102" spans="2:3" x14ac:dyDescent="0.4">
-      <c r="B102" s="25"/>
-      <c r="C102" s="25"/>
+      <c r="B102" s="4"/>
+      <c r="C102" s="4"/>
     </row>
     <row r="103" spans="2:3" x14ac:dyDescent="0.4">
-      <c r="B103" s="25"/>
-      <c r="C103" s="25"/>
+      <c r="B103" s="4"/>
+      <c r="C103" s="4"/>
     </row>
     <row r="104" spans="2:3" x14ac:dyDescent="0.4">
-      <c r="B104" s="25"/>
-      <c r="C104" s="25"/>
+      <c r="B104" s="4"/>
+      <c r="C104" s="4"/>
     </row>
     <row r="105" spans="2:3" x14ac:dyDescent="0.4">
-      <c r="B105" s="25"/>
-      <c r="C105" s="25"/>
+      <c r="B105" s="4"/>
+      <c r="C105" s="4"/>
     </row>
     <row r="106" spans="2:3" x14ac:dyDescent="0.4">
-      <c r="B106" s="25"/>
-      <c r="C106" s="25"/>
+      <c r="B106" s="4"/>
+      <c r="C106" s="4"/>
     </row>
     <row r="107" spans="2:3" x14ac:dyDescent="0.4">
-      <c r="B107" s="25"/>
-      <c r="C107" s="25"/>
+      <c r="B107" s="4"/>
+      <c r="C107" s="4"/>
     </row>
     <row r="108" spans="2:3" x14ac:dyDescent="0.4">
-      <c r="B108" s="25"/>
-      <c r="C108" s="25"/>
+      <c r="B108" s="4"/>
+      <c r="C108" s="4"/>
     </row>
     <row r="109" spans="2:3" x14ac:dyDescent="0.4">
-      <c r="B109" s="25"/>
-      <c r="C109" s="25"/>
+      <c r="B109" s="4"/>
+      <c r="C109" s="4"/>
     </row>
     <row r="110" spans="2:3" x14ac:dyDescent="0.4">
-      <c r="B110" s="25"/>
-      <c r="C110" s="25"/>
+      <c r="B110" s="4"/>
+      <c r="C110" s="4"/>
     </row>
     <row r="111" spans="2:3" x14ac:dyDescent="0.4">
-      <c r="B111" s="25"/>
-      <c r="C111" s="25"/>
+      <c r="B111" s="4"/>
+      <c r="C111" s="4"/>
     </row>
   </sheetData>
   <mergeCells count="15">
     <mergeCell ref="A1:D3"/>
-    <mergeCell ref="B4:D4"/>
     <mergeCell ref="A11:D11"/>
     <mergeCell ref="C9:D9"/>
     <mergeCell ref="A5:B5"/>
@@ -1390,6 +1389,7 @@
     <mergeCell ref="C8:D8"/>
     <mergeCell ref="C10:D10"/>
     <mergeCell ref="A9:B9"/>
+    <mergeCell ref="A4:D4"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>

--- a/resources/public/template/TemCXLog.xlsx
+++ b/resources/public/template/TemCXLog.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\xampp\htdocs\hospital\resources\public\template\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F6B3E3F6-C44B-47A6-BC48-C52728D5588E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5F887E8C-9853-4AE8-9314-B4E5CC445308}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-103" yWindow="-103" windowWidth="24892" windowHeight="14914" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -48,16 +48,16 @@
     <t>Mã bác sĩ:</t>
   </si>
   <si>
-    <t>Ngày lấy máu:</t>
-  </si>
-  <si>
-    <t>Ngày sinh:</t>
-  </si>
-  <si>
     <t>Bảng chỉ số xét nghiệm</t>
   </si>
   <si>
     <t>Thông tin bệnh nhân</t>
+  </si>
+  <si>
+    <t>Năm sinh:</t>
+  </si>
+  <si>
+    <t>Ngày lấy máu - địa chỉ:</t>
   </si>
 </sst>
 </file>
@@ -341,12 +341,6 @@
     <xf numFmtId="0" fontId="7" fillId="3" borderId="12" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="3" borderId="4" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="3" borderId="3" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="6" fillId="3" borderId="2" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
@@ -375,6 +369,12 @@
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="8" fillId="3" borderId="2" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="3" borderId="4" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="3" borderId="3" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
@@ -661,7 +661,7 @@
   <dimension ref="A1:W111"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="E5" sqref="E5"/>
+      <selection activeCell="A4" sqref="A4:D4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.15234375" defaultRowHeight="14.6" x14ac:dyDescent="0.4"/>
@@ -676,7 +676,7 @@
   <sheetData>
     <row r="1" spans="1:23" ht="14.6" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A1" s="5" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="B1" s="6"/>
       <c r="C1" s="6"/>
@@ -752,10 +752,10 @@
       <c r="W3" s="2"/>
     </row>
     <row r="4" spans="1:23" ht="29.15" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A4" s="25"/>
-      <c r="B4" s="14"/>
-      <c r="C4" s="14"/>
-      <c r="D4" s="15"/>
+      <c r="A4" s="23"/>
+      <c r="B4" s="24"/>
+      <c r="C4" s="24"/>
+      <c r="D4" s="25"/>
       <c r="E4" s="2"/>
       <c r="F4" s="2"/>
       <c r="G4" s="2"/>
@@ -777,12 +777,12 @@
       <c r="W4" s="2"/>
     </row>
     <row r="5" spans="1:23" ht="26.6" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A5" s="21" t="s">
+      <c r="A5" s="19" t="s">
         <v>3</v>
       </c>
-      <c r="B5" s="22"/>
-      <c r="C5" s="19"/>
-      <c r="D5" s="20"/>
+      <c r="B5" s="20"/>
+      <c r="C5" s="17"/>
+      <c r="D5" s="18"/>
       <c r="E5" s="2"/>
       <c r="F5" s="2"/>
       <c r="G5" s="2"/>
@@ -804,12 +804,12 @@
       <c r="W5" s="2"/>
     </row>
     <row r="6" spans="1:23" ht="28.75" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A6" s="21" t="s">
-        <v>8</v>
+      <c r="A6" s="19" t="s">
+        <v>9</v>
       </c>
-      <c r="B6" s="22"/>
-      <c r="C6" s="19"/>
-      <c r="D6" s="20"/>
+      <c r="B6" s="20"/>
+      <c r="C6" s="17"/>
+      <c r="D6" s="18"/>
       <c r="E6" s="2"/>
       <c r="F6" s="2"/>
       <c r="G6" s="2"/>
@@ -831,12 +831,12 @@
       <c r="W6" s="2"/>
     </row>
     <row r="7" spans="1:23" ht="27.45" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A7" s="21" t="s">
+      <c r="A7" s="19" t="s">
         <v>4</v>
       </c>
-      <c r="B7" s="22"/>
-      <c r="C7" s="19"/>
-      <c r="D7" s="20"/>
+      <c r="B7" s="20"/>
+      <c r="C7" s="17"/>
+      <c r="D7" s="18"/>
       <c r="E7" s="2"/>
       <c r="F7" s="2"/>
       <c r="G7" s="2"/>
@@ -858,12 +858,12 @@
       <c r="W7" s="2"/>
     </row>
     <row r="8" spans="1:23" ht="25.3" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A8" s="23" t="s">
+      <c r="A8" s="21" t="s">
         <v>5</v>
       </c>
-      <c r="B8" s="24"/>
-      <c r="C8" s="19"/>
-      <c r="D8" s="20"/>
+      <c r="B8" s="22"/>
+      <c r="C8" s="17"/>
+      <c r="D8" s="18"/>
       <c r="E8" s="2"/>
       <c r="F8" s="2"/>
       <c r="G8" s="2"/>
@@ -885,12 +885,12 @@
       <c r="W8" s="2"/>
     </row>
     <row r="9" spans="1:23" ht="29.15" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A9" s="23" t="s">
+      <c r="A9" s="21" t="s">
         <v>6</v>
       </c>
-      <c r="B9" s="24"/>
-      <c r="C9" s="19"/>
-      <c r="D9" s="20"/>
+      <c r="B9" s="22"/>
+      <c r="C9" s="17"/>
+      <c r="D9" s="18"/>
       <c r="E9" s="2"/>
       <c r="F9" s="2"/>
       <c r="G9" s="2"/>
@@ -912,12 +912,12 @@
       <c r="W9" s="2"/>
     </row>
     <row r="10" spans="1:23" ht="31.75" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A10" s="23" t="s">
-        <v>7</v>
+      <c r="A10" s="21" t="s">
+        <v>10</v>
       </c>
-      <c r="B10" s="24"/>
-      <c r="C10" s="19"/>
-      <c r="D10" s="20"/>
+      <c r="B10" s="22"/>
+      <c r="C10" s="17"/>
+      <c r="D10" s="18"/>
       <c r="E10" s="2"/>
       <c r="F10" s="2"/>
       <c r="G10" s="2"/>
@@ -939,12 +939,12 @@
       <c r="W10" s="2"/>
     </row>
     <row r="11" spans="1:23" ht="31.75" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A11" s="16" t="s">
-        <v>9</v>
+      <c r="A11" s="14" t="s">
+        <v>7</v>
       </c>
-      <c r="B11" s="17"/>
-      <c r="C11" s="17"/>
-      <c r="D11" s="18"/>
+      <c r="B11" s="15"/>
+      <c r="C11" s="15"/>
+      <c r="D11" s="16"/>
       <c r="E11" s="2"/>
       <c r="F11" s="2"/>
       <c r="G11" s="2"/>

--- a/resources/public/template/TemCXLog.xlsx
+++ b/resources/public/template/TemCXLog.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\xampp\htdocs\hospital\resources\public\template\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5F887E8C-9853-4AE8-9314-B4E5CC445308}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F5CAE659-D39D-43C4-A9EE-2765AF8EC405}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-103" yWindow="-103" windowWidth="24892" windowHeight="14914" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -661,15 +661,15 @@
   <dimension ref="A1:W111"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="A4" sqref="A4:D4"/>
+      <selection activeCell="F7" sqref="F7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.15234375" defaultRowHeight="14.6" x14ac:dyDescent="0.4"/>
   <cols>
-    <col min="1" max="1" width="8.3046875" style="1" customWidth="1"/>
-    <col min="2" max="2" width="22.84375" style="1" customWidth="1"/>
-    <col min="3" max="3" width="47.765625" style="1" customWidth="1"/>
-    <col min="4" max="4" width="32.15234375" style="1" customWidth="1"/>
+    <col min="1" max="1" width="7.3046875" style="1" customWidth="1"/>
+    <col min="2" max="2" width="19.3828125" style="1" customWidth="1"/>
+    <col min="3" max="3" width="30.765625" style="1" customWidth="1"/>
+    <col min="4" max="4" width="0.61328125" style="1" customWidth="1"/>
     <col min="5" max="5" width="34" style="1" customWidth="1"/>
     <col min="6" max="16384" width="9.15234375" style="1"/>
   </cols>

--- a/resources/public/template/TemCXLog.xlsx
+++ b/resources/public/template/TemCXLog.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\xampp\htdocs\hospital\resources\public\template\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F5CAE659-D39D-43C4-A9EE-2765AF8EC405}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{64B10C52-1E42-417C-9FFF-184F09D2C0FC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-103" yWindow="-103" windowWidth="24892" windowHeight="14914" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -64,7 +64,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="9" x14ac:knownFonts="1">
+  <fonts count="12" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -89,14 +89,7 @@
     </font>
     <font>
       <b/>
-      <sz val="11"/>
-      <name val="Calibri"/>
-      <family val="2"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <i/>
-      <sz val="11"/>
+      <sz val="22"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
@@ -104,7 +97,22 @@
     <font>
       <b/>
       <i/>
-      <sz val="11"/>
+      <sz val="22"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="28"/>
+      <color rgb="FF00B050"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="22"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
@@ -112,7 +120,7 @@
     <font>
       <b/>
       <i/>
-      <sz val="11"/>
+      <sz val="24"/>
       <color rgb="FFFF0000"/>
       <name val="Calibri"/>
       <family val="2"/>
@@ -120,8 +128,23 @@
     </font>
     <font>
       <b/>
-      <sz val="16"/>
-      <color rgb="FF00B050"/>
+      <i/>
+      <sz val="24"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="22"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="22"/>
+      <color theme="1"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
@@ -129,7 +152,7 @@
     <font>
       <b/>
       <i/>
-      <sz val="11"/>
+      <sz val="18"/>
       <color rgb="FF00B050"/>
       <name val="Calibri"/>
       <family val="2"/>
@@ -300,7 +323,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="26">
+  <cellXfs count="29">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
@@ -308,47 +331,14 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="1" xfId="1" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="3" borderId="5" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="3" borderId="6" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="3" borderId="7" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="3" borderId="8" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="3" borderId="0" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="3" borderId="9" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="3" borderId="10" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="3" borderId="11" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="3" borderId="12" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="3" borderId="2" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="3" borderId="4" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="3" borderId="3" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="2" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="3" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="3" borderId="2" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
@@ -356,25 +346,67 @@
     <xf numFmtId="0" fontId="4" fillId="3" borderId="3" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="2" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="5" fillId="3" borderId="5" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="3" borderId="6" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="3" borderId="7" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="3" borderId="8" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="3" borderId="0" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="3" borderId="9" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="3" borderId="10" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="3" borderId="11" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="3" borderId="12" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="3" borderId="2" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="3" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="6" fillId="3" borderId="3" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="3" borderId="2" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="7" fillId="3" borderId="2" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="3" borderId="4" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="3" borderId="3" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="1" xfId="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="3" borderId="3" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="3" borderId="2" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="3" borderId="4" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="3" borderId="3" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="11" fillId="3" borderId="2" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="3" borderId="4" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="3" borderId="3" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
@@ -661,26 +693,26 @@
   <dimension ref="A1:W111"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="F7" sqref="F7"/>
+      <selection activeCell="C5" sqref="C5:D5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.15234375" defaultRowHeight="14.6" x14ac:dyDescent="0.4"/>
   <cols>
-    <col min="1" max="1" width="7.3046875" style="1" customWidth="1"/>
-    <col min="2" max="2" width="19.3828125" style="1" customWidth="1"/>
-    <col min="3" max="3" width="30.765625" style="1" customWidth="1"/>
+    <col min="1" max="1" width="9.3828125" style="1" customWidth="1"/>
+    <col min="2" max="2" width="56.765625" style="1" customWidth="1"/>
+    <col min="3" max="3" width="141.69140625" style="1" customWidth="1"/>
     <col min="4" max="4" width="0.61328125" style="1" customWidth="1"/>
     <col min="5" max="5" width="34" style="1" customWidth="1"/>
     <col min="6" max="16384" width="9.15234375" style="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:23" ht="14.6" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A1" s="5" t="s">
+      <c r="A1" s="8" t="s">
         <v>8</v>
       </c>
-      <c r="B1" s="6"/>
-      <c r="C1" s="6"/>
-      <c r="D1" s="7"/>
+      <c r="B1" s="9"/>
+      <c r="C1" s="9"/>
+      <c r="D1" s="10"/>
       <c r="E1" s="2"/>
       <c r="F1" s="2"/>
       <c r="G1" s="2"/>
@@ -702,10 +734,10 @@
       <c r="W1" s="2"/>
     </row>
     <row r="2" spans="1:23" ht="14.6" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A2" s="8"/>
-      <c r="B2" s="9"/>
-      <c r="C2" s="9"/>
-      <c r="D2" s="10"/>
+      <c r="A2" s="11"/>
+      <c r="B2" s="12"/>
+      <c r="C2" s="12"/>
+      <c r="D2" s="13"/>
       <c r="E2" s="2"/>
       <c r="F2" s="2"/>
       <c r="G2" s="2"/>
@@ -727,10 +759,10 @@
       <c r="W2" s="2"/>
     </row>
     <row r="3" spans="1:23" ht="14.6" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A3" s="11"/>
-      <c r="B3" s="12"/>
-      <c r="C3" s="12"/>
-      <c r="D3" s="13"/>
+      <c r="A3" s="14"/>
+      <c r="B3" s="15"/>
+      <c r="C3" s="15"/>
+      <c r="D3" s="16"/>
       <c r="E3" s="2"/>
       <c r="F3" s="2"/>
       <c r="G3" s="2"/>
@@ -752,10 +784,10 @@
       <c r="W3" s="2"/>
     </row>
     <row r="4" spans="1:23" ht="29.15" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A4" s="23"/>
-      <c r="B4" s="24"/>
-      <c r="C4" s="24"/>
-      <c r="D4" s="25"/>
+      <c r="A4" s="26"/>
+      <c r="B4" s="27"/>
+      <c r="C4" s="27"/>
+      <c r="D4" s="28"/>
       <c r="E4" s="2"/>
       <c r="F4" s="2"/>
       <c r="G4" s="2"/>
@@ -776,11 +808,11 @@
       <c r="V4" s="2"/>
       <c r="W4" s="2"/>
     </row>
-    <row r="5" spans="1:23" ht="26.6" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A5" s="19" t="s">
+    <row r="5" spans="1:23" ht="42.9" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="A5" s="4" t="s">
         <v>3</v>
       </c>
-      <c r="B5" s="20"/>
+      <c r="B5" s="5"/>
       <c r="C5" s="17"/>
       <c r="D5" s="18"/>
       <c r="E5" s="2"/>
@@ -803,11 +835,11 @@
       <c r="V5" s="2"/>
       <c r="W5" s="2"/>
     </row>
-    <row r="6" spans="1:23" ht="28.75" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A6" s="19" t="s">
+    <row r="6" spans="1:23" ht="52.3" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="A6" s="4" t="s">
         <v>9</v>
       </c>
-      <c r="B6" s="20"/>
+      <c r="B6" s="5"/>
       <c r="C6" s="17"/>
       <c r="D6" s="18"/>
       <c r="E6" s="2"/>
@@ -830,11 +862,11 @@
       <c r="V6" s="2"/>
       <c r="W6" s="2"/>
     </row>
-    <row r="7" spans="1:23" ht="27.45" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A7" s="19" t="s">
+    <row r="7" spans="1:23" ht="53.6" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="A7" s="4" t="s">
         <v>4</v>
       </c>
-      <c r="B7" s="20"/>
+      <c r="B7" s="5"/>
       <c r="C7" s="17"/>
       <c r="D7" s="18"/>
       <c r="E7" s="2"/>
@@ -857,11 +889,11 @@
       <c r="V7" s="2"/>
       <c r="W7" s="2"/>
     </row>
-    <row r="8" spans="1:23" ht="25.3" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A8" s="21" t="s">
+    <row r="8" spans="1:23" ht="53.6" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="A8" s="6" t="s">
         <v>5</v>
       </c>
-      <c r="B8" s="22"/>
+      <c r="B8" s="7"/>
       <c r="C8" s="17"/>
       <c r="D8" s="18"/>
       <c r="E8" s="2"/>
@@ -884,11 +916,11 @@
       <c r="V8" s="2"/>
       <c r="W8" s="2"/>
     </row>
-    <row r="9" spans="1:23" ht="29.15" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A9" s="21" t="s">
+    <row r="9" spans="1:23" ht="66" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="A9" s="6" t="s">
         <v>6</v>
       </c>
-      <c r="B9" s="22"/>
+      <c r="B9" s="7"/>
       <c r="C9" s="17"/>
       <c r="D9" s="18"/>
       <c r="E9" s="2"/>
@@ -911,11 +943,11 @@
       <c r="V9" s="2"/>
       <c r="W9" s="2"/>
     </row>
-    <row r="10" spans="1:23" ht="31.75" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A10" s="21" t="s">
+    <row r="10" spans="1:23" ht="66.45" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="A10" s="6" t="s">
         <v>10</v>
       </c>
-      <c r="B10" s="22"/>
+      <c r="B10" s="7"/>
       <c r="C10" s="17"/>
       <c r="D10" s="18"/>
       <c r="E10" s="2"/>
@@ -938,13 +970,13 @@
       <c r="V10" s="2"/>
       <c r="W10" s="2"/>
     </row>
-    <row r="11" spans="1:23" ht="31.75" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A11" s="14" t="s">
+    <row r="11" spans="1:23" ht="63.45" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="A11" s="19" t="s">
         <v>7</v>
       </c>
-      <c r="B11" s="15"/>
-      <c r="C11" s="15"/>
-      <c r="D11" s="16"/>
+      <c r="B11" s="20"/>
+      <c r="C11" s="20"/>
+      <c r="D11" s="21"/>
       <c r="E11" s="2"/>
       <c r="F11" s="2"/>
       <c r="G11" s="2"/>
@@ -965,413 +997,413 @@
       <c r="V11" s="2"/>
       <c r="W11" s="2"/>
     </row>
-    <row r="12" spans="1:23" s="2" customFormat="1" ht="42" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A12" s="3" t="s">
+    <row r="12" spans="1:23" s="23" customFormat="1" ht="42" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="A12" s="22" t="s">
         <v>0</v>
       </c>
-      <c r="B12" s="3" t="s">
+      <c r="B12" s="22" t="s">
         <v>1</v>
       </c>
-      <c r="C12" s="3" t="s">
+      <c r="C12" s="22" t="s">
         <v>2</v>
       </c>
-      <c r="D12" s="3"/>
-    </row>
-    <row r="13" spans="1:23" x14ac:dyDescent="0.4">
-      <c r="B13" s="4"/>
-      <c r="C13" s="4"/>
-    </row>
-    <row r="14" spans="1:23" x14ac:dyDescent="0.4">
-      <c r="B14" s="4"/>
-      <c r="C14" s="4"/>
-    </row>
-    <row r="15" spans="1:23" x14ac:dyDescent="0.4">
-      <c r="B15" s="4"/>
-      <c r="C15" s="4"/>
-    </row>
-    <row r="16" spans="1:23" x14ac:dyDescent="0.4">
-      <c r="B16" s="4"/>
-      <c r="C16" s="4"/>
-    </row>
-    <row r="17" spans="2:3" x14ac:dyDescent="0.4">
-      <c r="B17" s="4"/>
-      <c r="C17" s="4"/>
-    </row>
-    <row r="18" spans="2:3" x14ac:dyDescent="0.4">
-      <c r="B18" s="4"/>
-      <c r="C18" s="4"/>
-    </row>
-    <row r="19" spans="2:3" x14ac:dyDescent="0.4">
-      <c r="B19" s="4"/>
-      <c r="C19" s="4"/>
-    </row>
-    <row r="20" spans="2:3" x14ac:dyDescent="0.4">
-      <c r="B20" s="4"/>
-      <c r="C20" s="4"/>
-    </row>
-    <row r="21" spans="2:3" x14ac:dyDescent="0.4">
-      <c r="B21" s="4"/>
-      <c r="C21" s="4"/>
-    </row>
-    <row r="22" spans="2:3" x14ac:dyDescent="0.4">
-      <c r="B22" s="4"/>
-      <c r="C22" s="4"/>
-    </row>
-    <row r="23" spans="2:3" x14ac:dyDescent="0.4">
-      <c r="B23" s="4"/>
-      <c r="C23" s="4"/>
-    </row>
-    <row r="24" spans="2:3" x14ac:dyDescent="0.4">
-      <c r="B24" s="4"/>
-      <c r="C24" s="4"/>
-    </row>
-    <row r="25" spans="2:3" x14ac:dyDescent="0.4">
-      <c r="B25" s="4"/>
-      <c r="C25" s="4"/>
-    </row>
-    <row r="26" spans="2:3" x14ac:dyDescent="0.4">
-      <c r="B26" s="4"/>
-      <c r="C26" s="4"/>
-    </row>
-    <row r="27" spans="2:3" x14ac:dyDescent="0.4">
-      <c r="B27" s="4"/>
-      <c r="C27" s="4"/>
-    </row>
-    <row r="28" spans="2:3" x14ac:dyDescent="0.4">
-      <c r="B28" s="4"/>
-      <c r="C28" s="4"/>
-    </row>
-    <row r="29" spans="2:3" x14ac:dyDescent="0.4">
-      <c r="B29" s="4"/>
-      <c r="C29" s="4"/>
-    </row>
-    <row r="30" spans="2:3" x14ac:dyDescent="0.4">
-      <c r="B30" s="4"/>
-      <c r="C30" s="4"/>
-    </row>
-    <row r="31" spans="2:3" x14ac:dyDescent="0.4">
-      <c r="B31" s="4"/>
-      <c r="C31" s="4"/>
-    </row>
-    <row r="32" spans="2:3" x14ac:dyDescent="0.4">
-      <c r="B32" s="4"/>
-      <c r="C32" s="4"/>
-    </row>
-    <row r="33" spans="2:3" x14ac:dyDescent="0.4">
-      <c r="B33" s="4"/>
-      <c r="C33" s="4"/>
-    </row>
-    <row r="34" spans="2:3" x14ac:dyDescent="0.4">
-      <c r="B34" s="4"/>
-      <c r="C34" s="4"/>
-    </row>
-    <row r="35" spans="2:3" x14ac:dyDescent="0.4">
-      <c r="B35" s="4"/>
-      <c r="C35" s="4"/>
-    </row>
-    <row r="36" spans="2:3" x14ac:dyDescent="0.4">
-      <c r="B36" s="4"/>
-      <c r="C36" s="4"/>
-    </row>
-    <row r="37" spans="2:3" x14ac:dyDescent="0.4">
-      <c r="B37" s="4"/>
-      <c r="C37" s="4"/>
-    </row>
-    <row r="38" spans="2:3" x14ac:dyDescent="0.4">
-      <c r="B38" s="4"/>
-      <c r="C38" s="4"/>
-    </row>
-    <row r="39" spans="2:3" x14ac:dyDescent="0.4">
-      <c r="B39" s="4"/>
-      <c r="C39" s="4"/>
-    </row>
-    <row r="40" spans="2:3" x14ac:dyDescent="0.4">
-      <c r="B40" s="4"/>
-      <c r="C40" s="4"/>
-    </row>
-    <row r="41" spans="2:3" x14ac:dyDescent="0.4">
-      <c r="B41" s="4"/>
-      <c r="C41" s="4"/>
-    </row>
-    <row r="42" spans="2:3" x14ac:dyDescent="0.4">
-      <c r="B42" s="4"/>
-      <c r="C42" s="4"/>
-    </row>
-    <row r="43" spans="2:3" x14ac:dyDescent="0.4">
-      <c r="B43" s="4"/>
-      <c r="C43" s="4"/>
-    </row>
-    <row r="44" spans="2:3" x14ac:dyDescent="0.4">
-      <c r="B44" s="4"/>
-      <c r="C44" s="4"/>
-    </row>
-    <row r="45" spans="2:3" x14ac:dyDescent="0.4">
-      <c r="B45" s="4"/>
-      <c r="C45" s="4"/>
-    </row>
-    <row r="46" spans="2:3" x14ac:dyDescent="0.4">
-      <c r="B46" s="4"/>
-      <c r="C46" s="4"/>
-    </row>
-    <row r="47" spans="2:3" x14ac:dyDescent="0.4">
-      <c r="B47" s="4"/>
-      <c r="C47" s="4"/>
-    </row>
-    <row r="48" spans="2:3" x14ac:dyDescent="0.4">
-      <c r="B48" s="4"/>
-      <c r="C48" s="4"/>
-    </row>
-    <row r="49" spans="2:3" x14ac:dyDescent="0.4">
-      <c r="B49" s="4"/>
-      <c r="C49" s="4"/>
-    </row>
-    <row r="50" spans="2:3" x14ac:dyDescent="0.4">
-      <c r="B50" s="4"/>
-      <c r="C50" s="4"/>
-    </row>
-    <row r="51" spans="2:3" x14ac:dyDescent="0.4">
-      <c r="B51" s="4"/>
-      <c r="C51" s="4"/>
-    </row>
-    <row r="52" spans="2:3" x14ac:dyDescent="0.4">
-      <c r="B52" s="4"/>
-      <c r="C52" s="4"/>
-    </row>
-    <row r="53" spans="2:3" x14ac:dyDescent="0.4">
-      <c r="B53" s="4"/>
-      <c r="C53" s="4"/>
-    </row>
-    <row r="54" spans="2:3" x14ac:dyDescent="0.4">
-      <c r="B54" s="4"/>
-      <c r="C54" s="4"/>
-    </row>
-    <row r="55" spans="2:3" x14ac:dyDescent="0.4">
-      <c r="B55" s="4"/>
-      <c r="C55" s="4"/>
-    </row>
-    <row r="56" spans="2:3" x14ac:dyDescent="0.4">
-      <c r="B56" s="4"/>
-      <c r="C56" s="4"/>
-    </row>
-    <row r="57" spans="2:3" x14ac:dyDescent="0.4">
-      <c r="B57" s="4"/>
-      <c r="C57" s="4"/>
-    </row>
-    <row r="58" spans="2:3" x14ac:dyDescent="0.4">
-      <c r="B58" s="4"/>
-      <c r="C58" s="4"/>
-    </row>
-    <row r="59" spans="2:3" x14ac:dyDescent="0.4">
-      <c r="B59" s="4"/>
-      <c r="C59" s="4"/>
-    </row>
-    <row r="60" spans="2:3" x14ac:dyDescent="0.4">
-      <c r="B60" s="4"/>
-      <c r="C60" s="4"/>
-    </row>
-    <row r="61" spans="2:3" x14ac:dyDescent="0.4">
-      <c r="B61" s="4"/>
-      <c r="C61" s="4"/>
-    </row>
-    <row r="62" spans="2:3" x14ac:dyDescent="0.4">
-      <c r="B62" s="4"/>
-      <c r="C62" s="4"/>
-    </row>
-    <row r="63" spans="2:3" x14ac:dyDescent="0.4">
-      <c r="B63" s="4"/>
-      <c r="C63" s="4"/>
-    </row>
-    <row r="64" spans="2:3" x14ac:dyDescent="0.4">
-      <c r="B64" s="4"/>
-      <c r="C64" s="4"/>
-    </row>
-    <row r="65" spans="2:3" x14ac:dyDescent="0.4">
-      <c r="B65" s="4"/>
-      <c r="C65" s="4"/>
-    </row>
-    <row r="66" spans="2:3" x14ac:dyDescent="0.4">
-      <c r="B66" s="4"/>
-      <c r="C66" s="4"/>
-    </row>
-    <row r="67" spans="2:3" x14ac:dyDescent="0.4">
-      <c r="B67" s="4"/>
-      <c r="C67" s="4"/>
-    </row>
-    <row r="68" spans="2:3" x14ac:dyDescent="0.4">
-      <c r="B68" s="4"/>
-      <c r="C68" s="4"/>
-    </row>
-    <row r="69" spans="2:3" x14ac:dyDescent="0.4">
-      <c r="B69" s="4"/>
-      <c r="C69" s="4"/>
-    </row>
-    <row r="70" spans="2:3" x14ac:dyDescent="0.4">
-      <c r="B70" s="4"/>
-      <c r="C70" s="4"/>
-    </row>
-    <row r="71" spans="2:3" x14ac:dyDescent="0.4">
-      <c r="B71" s="4"/>
-      <c r="C71" s="4"/>
-    </row>
-    <row r="72" spans="2:3" x14ac:dyDescent="0.4">
-      <c r="B72" s="4"/>
-      <c r="C72" s="4"/>
-    </row>
-    <row r="73" spans="2:3" x14ac:dyDescent="0.4">
-      <c r="B73" s="4"/>
-      <c r="C73" s="4"/>
-    </row>
-    <row r="74" spans="2:3" x14ac:dyDescent="0.4">
-      <c r="B74" s="4"/>
-      <c r="C74" s="4"/>
-    </row>
-    <row r="75" spans="2:3" x14ac:dyDescent="0.4">
-      <c r="B75" s="4"/>
-      <c r="C75" s="4"/>
-    </row>
-    <row r="76" spans="2:3" x14ac:dyDescent="0.4">
-      <c r="B76" s="4"/>
-      <c r="C76" s="4"/>
-    </row>
-    <row r="77" spans="2:3" x14ac:dyDescent="0.4">
-      <c r="B77" s="4"/>
-      <c r="C77" s="4"/>
-    </row>
-    <row r="78" spans="2:3" x14ac:dyDescent="0.4">
-      <c r="B78" s="4"/>
-      <c r="C78" s="4"/>
+      <c r="D12" s="22"/>
+    </row>
+    <row r="13" spans="1:23" s="24" customFormat="1" ht="36.9" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="B13" s="25"/>
+      <c r="C13" s="25"/>
+    </row>
+    <row r="14" spans="1:23" s="24" customFormat="1" ht="43.3" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="B14" s="25"/>
+      <c r="C14" s="25"/>
+    </row>
+    <row r="15" spans="1:23" s="24" customFormat="1" ht="40.75" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="B15" s="25"/>
+      <c r="C15" s="25"/>
+    </row>
+    <row r="16" spans="1:23" s="24" customFormat="1" ht="47.6" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="B16" s="25"/>
+      <c r="C16" s="25"/>
+    </row>
+    <row r="17" spans="2:3" s="24" customFormat="1" ht="40.299999999999997" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="B17" s="25"/>
+      <c r="C17" s="25"/>
+    </row>
+    <row r="18" spans="2:3" s="24" customFormat="1" ht="44.15" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="B18" s="25"/>
+      <c r="C18" s="25"/>
+    </row>
+    <row r="19" spans="2:3" s="24" customFormat="1" ht="42" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="B19" s="25"/>
+      <c r="C19" s="25"/>
+    </row>
+    <row r="20" spans="2:3" s="24" customFormat="1" ht="39" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="B20" s="25"/>
+      <c r="C20" s="25"/>
+    </row>
+    <row r="21" spans="2:3" s="24" customFormat="1" ht="54.45" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="B21" s="25"/>
+      <c r="C21" s="25"/>
+    </row>
+    <row r="22" spans="2:3" s="24" customFormat="1" ht="52.3" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="B22" s="25"/>
+      <c r="C22" s="25"/>
+    </row>
+    <row r="23" spans="2:3" s="24" customFormat="1" ht="39.450000000000003" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="B23" s="25"/>
+      <c r="C23" s="25"/>
+    </row>
+    <row r="24" spans="2:3" s="24" customFormat="1" ht="42" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="B24" s="25"/>
+      <c r="C24" s="25"/>
+    </row>
+    <row r="25" spans="2:3" s="24" customFormat="1" ht="46.75" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="B25" s="25"/>
+      <c r="C25" s="25"/>
+    </row>
+    <row r="26" spans="2:3" s="24" customFormat="1" ht="45.9" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="B26" s="25"/>
+      <c r="C26" s="25"/>
+    </row>
+    <row r="27" spans="2:3" s="24" customFormat="1" ht="53.6" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="B27" s="25"/>
+      <c r="C27" s="25"/>
+    </row>
+    <row r="28" spans="2:3" s="24" customFormat="1" ht="44.6" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="B28" s="25"/>
+      <c r="C28" s="25"/>
+    </row>
+    <row r="29" spans="2:3" s="24" customFormat="1" ht="45.45" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="B29" s="25"/>
+      <c r="C29" s="25"/>
+    </row>
+    <row r="30" spans="2:3" s="24" customFormat="1" ht="48.45" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="B30" s="25"/>
+      <c r="C30" s="25"/>
+    </row>
+    <row r="31" spans="2:3" s="24" customFormat="1" ht="41.15" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="B31" s="25"/>
+      <c r="C31" s="25"/>
+    </row>
+    <row r="32" spans="2:3" s="24" customFormat="1" ht="41.6" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="B32" s="25"/>
+      <c r="C32" s="25"/>
+    </row>
+    <row r="33" spans="2:3" s="24" customFormat="1" ht="42.9" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="B33" s="25"/>
+      <c r="C33" s="25"/>
+    </row>
+    <row r="34" spans="2:3" s="24" customFormat="1" ht="35.6" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="B34" s="25"/>
+      <c r="C34" s="25"/>
+    </row>
+    <row r="35" spans="2:3" s="24" customFormat="1" ht="39" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="B35" s="25"/>
+      <c r="C35" s="25"/>
+    </row>
+    <row r="36" spans="2:3" s="24" customFormat="1" ht="43.75" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="B36" s="25"/>
+      <c r="C36" s="25"/>
+    </row>
+    <row r="37" spans="2:3" s="24" customFormat="1" ht="44.15" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="B37" s="25"/>
+      <c r="C37" s="25"/>
+    </row>
+    <row r="38" spans="2:3" s="24" customFormat="1" ht="48.45" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="B38" s="25"/>
+      <c r="C38" s="25"/>
+    </row>
+    <row r="39" spans="2:3" s="24" customFormat="1" ht="36" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="B39" s="25"/>
+      <c r="C39" s="25"/>
+    </row>
+    <row r="40" spans="2:3" s="24" customFormat="1" ht="41.6" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="B40" s="25"/>
+      <c r="C40" s="25"/>
+    </row>
+    <row r="41" spans="2:3" s="24" customFormat="1" ht="43.3" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="B41" s="25"/>
+      <c r="C41" s="25"/>
+    </row>
+    <row r="42" spans="2:3" s="24" customFormat="1" ht="45" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="B42" s="25"/>
+      <c r="C42" s="25"/>
+    </row>
+    <row r="43" spans="2:3" s="24" customFormat="1" ht="41.6" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="B43" s="25"/>
+      <c r="C43" s="25"/>
+    </row>
+    <row r="44" spans="2:3" s="24" customFormat="1" ht="43.3" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="B44" s="25"/>
+      <c r="C44" s="25"/>
+    </row>
+    <row r="45" spans="2:3" s="24" customFormat="1" ht="39.9" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="B45" s="25"/>
+      <c r="C45" s="25"/>
+    </row>
+    <row r="46" spans="2:3" s="24" customFormat="1" ht="38.6" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="B46" s="25"/>
+      <c r="C46" s="25"/>
+    </row>
+    <row r="47" spans="2:3" s="24" customFormat="1" ht="41.15" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="B47" s="25"/>
+      <c r="C47" s="25"/>
+    </row>
+    <row r="48" spans="2:3" s="24" customFormat="1" ht="41.6" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="B48" s="25"/>
+      <c r="C48" s="25"/>
+    </row>
+    <row r="49" spans="2:3" s="24" customFormat="1" ht="11.6" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="B49" s="25"/>
+      <c r="C49" s="25"/>
+    </row>
+    <row r="50" spans="2:3" s="24" customFormat="1" ht="11.6" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="B50" s="25"/>
+      <c r="C50" s="25"/>
+    </row>
+    <row r="51" spans="2:3" s="24" customFormat="1" ht="11.6" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="B51" s="25"/>
+      <c r="C51" s="25"/>
+    </row>
+    <row r="52" spans="2:3" s="24" customFormat="1" ht="11.6" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="B52" s="25"/>
+      <c r="C52" s="25"/>
+    </row>
+    <row r="53" spans="2:3" s="24" customFormat="1" ht="11.6" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="B53" s="25"/>
+      <c r="C53" s="25"/>
+    </row>
+    <row r="54" spans="2:3" s="24" customFormat="1" ht="11.6" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="B54" s="25"/>
+      <c r="C54" s="25"/>
+    </row>
+    <row r="55" spans="2:3" s="24" customFormat="1" ht="11.6" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="B55" s="25"/>
+      <c r="C55" s="25"/>
+    </row>
+    <row r="56" spans="2:3" s="24" customFormat="1" ht="11.6" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="B56" s="25"/>
+      <c r="C56" s="25"/>
+    </row>
+    <row r="57" spans="2:3" s="24" customFormat="1" ht="11.6" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="B57" s="25"/>
+      <c r="C57" s="25"/>
+    </row>
+    <row r="58" spans="2:3" s="24" customFormat="1" ht="11.6" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="B58" s="25"/>
+      <c r="C58" s="25"/>
+    </row>
+    <row r="59" spans="2:3" s="24" customFormat="1" ht="11.6" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="B59" s="25"/>
+      <c r="C59" s="25"/>
+    </row>
+    <row r="60" spans="2:3" s="24" customFormat="1" ht="11.6" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="B60" s="25"/>
+      <c r="C60" s="25"/>
+    </row>
+    <row r="61" spans="2:3" s="24" customFormat="1" ht="11.6" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="B61" s="25"/>
+      <c r="C61" s="25"/>
+    </row>
+    <row r="62" spans="2:3" s="24" customFormat="1" ht="11.6" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="B62" s="25"/>
+      <c r="C62" s="25"/>
+    </row>
+    <row r="63" spans="2:3" s="24" customFormat="1" ht="11.6" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="B63" s="25"/>
+      <c r="C63" s="25"/>
+    </row>
+    <row r="64" spans="2:3" ht="11.6" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="B64" s="3"/>
+      <c r="C64" s="3"/>
+    </row>
+    <row r="65" spans="2:3" ht="11.6" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="B65" s="3"/>
+      <c r="C65" s="3"/>
+    </row>
+    <row r="66" spans="2:3" ht="11.6" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="B66" s="3"/>
+      <c r="C66" s="3"/>
+    </row>
+    <row r="67" spans="2:3" ht="11.6" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="B67" s="3"/>
+      <c r="C67" s="3"/>
+    </row>
+    <row r="68" spans="2:3" ht="11.6" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="B68" s="3"/>
+      <c r="C68" s="3"/>
+    </row>
+    <row r="69" spans="2:3" ht="11.6" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="B69" s="3"/>
+      <c r="C69" s="3"/>
+    </row>
+    <row r="70" spans="2:3" ht="11.6" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="B70" s="3"/>
+      <c r="C70" s="3"/>
+    </row>
+    <row r="71" spans="2:3" ht="11.6" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="B71" s="3"/>
+      <c r="C71" s="3"/>
+    </row>
+    <row r="72" spans="2:3" ht="11.6" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="B72" s="3"/>
+      <c r="C72" s="3"/>
+    </row>
+    <row r="73" spans="2:3" ht="11.6" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="B73" s="3"/>
+      <c r="C73" s="3"/>
+    </row>
+    <row r="74" spans="2:3" ht="11.6" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="B74" s="3"/>
+      <c r="C74" s="3"/>
+    </row>
+    <row r="75" spans="2:3" ht="11.6" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="B75" s="3"/>
+      <c r="C75" s="3"/>
+    </row>
+    <row r="76" spans="2:3" ht="11.6" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="B76" s="3"/>
+      <c r="C76" s="3"/>
+    </row>
+    <row r="77" spans="2:3" ht="11.6" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="B77" s="3"/>
+      <c r="C77" s="3"/>
+    </row>
+    <row r="78" spans="2:3" ht="11.6" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="B78" s="3"/>
+      <c r="C78" s="3"/>
     </row>
     <row r="79" spans="2:3" x14ac:dyDescent="0.4">
-      <c r="B79" s="4"/>
-      <c r="C79" s="4"/>
+      <c r="B79" s="3"/>
+      <c r="C79" s="3"/>
     </row>
     <row r="80" spans="2:3" x14ac:dyDescent="0.4">
-      <c r="B80" s="4"/>
-      <c r="C80" s="4"/>
+      <c r="B80" s="3"/>
+      <c r="C80" s="3"/>
     </row>
     <row r="81" spans="2:3" x14ac:dyDescent="0.4">
-      <c r="B81" s="4"/>
-      <c r="C81" s="4"/>
+      <c r="B81" s="3"/>
+      <c r="C81" s="3"/>
     </row>
     <row r="82" spans="2:3" x14ac:dyDescent="0.4">
-      <c r="B82" s="4"/>
-      <c r="C82" s="4"/>
+      <c r="B82" s="3"/>
+      <c r="C82" s="3"/>
     </row>
     <row r="83" spans="2:3" x14ac:dyDescent="0.4">
-      <c r="B83" s="4"/>
-      <c r="C83" s="4"/>
+      <c r="B83" s="3"/>
+      <c r="C83" s="3"/>
     </row>
     <row r="84" spans="2:3" x14ac:dyDescent="0.4">
-      <c r="B84" s="4"/>
-      <c r="C84" s="4"/>
+      <c r="B84" s="3"/>
+      <c r="C84" s="3"/>
     </row>
     <row r="85" spans="2:3" x14ac:dyDescent="0.4">
-      <c r="B85" s="4"/>
-      <c r="C85" s="4"/>
+      <c r="B85" s="3"/>
+      <c r="C85" s="3"/>
     </row>
     <row r="86" spans="2:3" x14ac:dyDescent="0.4">
-      <c r="B86" s="4"/>
-      <c r="C86" s="4"/>
+      <c r="B86" s="3"/>
+      <c r="C86" s="3"/>
     </row>
     <row r="87" spans="2:3" x14ac:dyDescent="0.4">
-      <c r="B87" s="4"/>
-      <c r="C87" s="4"/>
+      <c r="B87" s="3"/>
+      <c r="C87" s="3"/>
     </row>
     <row r="88" spans="2:3" x14ac:dyDescent="0.4">
-      <c r="B88" s="4"/>
-      <c r="C88" s="4"/>
+      <c r="B88" s="3"/>
+      <c r="C88" s="3"/>
     </row>
     <row r="89" spans="2:3" x14ac:dyDescent="0.4">
-      <c r="B89" s="4"/>
-      <c r="C89" s="4"/>
+      <c r="B89" s="3"/>
+      <c r="C89" s="3"/>
     </row>
     <row r="90" spans="2:3" x14ac:dyDescent="0.4">
-      <c r="B90" s="4"/>
-      <c r="C90" s="4"/>
+      <c r="B90" s="3"/>
+      <c r="C90" s="3"/>
     </row>
     <row r="91" spans="2:3" x14ac:dyDescent="0.4">
-      <c r="B91" s="4"/>
-      <c r="C91" s="4"/>
+      <c r="B91" s="3"/>
+      <c r="C91" s="3"/>
     </row>
     <row r="92" spans="2:3" x14ac:dyDescent="0.4">
-      <c r="B92" s="4"/>
-      <c r="C92" s="4"/>
+      <c r="B92" s="3"/>
+      <c r="C92" s="3"/>
     </row>
     <row r="93" spans="2:3" x14ac:dyDescent="0.4">
-      <c r="B93" s="4"/>
-      <c r="C93" s="4"/>
+      <c r="B93" s="3"/>
+      <c r="C93" s="3"/>
     </row>
     <row r="94" spans="2:3" x14ac:dyDescent="0.4">
-      <c r="B94" s="4"/>
-      <c r="C94" s="4"/>
+      <c r="B94" s="3"/>
+      <c r="C94" s="3"/>
     </row>
     <row r="95" spans="2:3" x14ac:dyDescent="0.4">
-      <c r="B95" s="4"/>
-      <c r="C95" s="4"/>
+      <c r="B95" s="3"/>
+      <c r="C95" s="3"/>
     </row>
     <row r="96" spans="2:3" x14ac:dyDescent="0.4">
-      <c r="B96" s="4"/>
-      <c r="C96" s="4"/>
+      <c r="B96" s="3"/>
+      <c r="C96" s="3"/>
     </row>
     <row r="97" spans="2:3" x14ac:dyDescent="0.4">
-      <c r="B97" s="4"/>
-      <c r="C97" s="4"/>
+      <c r="B97" s="3"/>
+      <c r="C97" s="3"/>
     </row>
     <row r="98" spans="2:3" x14ac:dyDescent="0.4">
-      <c r="B98" s="4"/>
-      <c r="C98" s="4"/>
+      <c r="B98" s="3"/>
+      <c r="C98" s="3"/>
     </row>
     <row r="99" spans="2:3" x14ac:dyDescent="0.4">
-      <c r="B99" s="4"/>
-      <c r="C99" s="4"/>
+      <c r="B99" s="3"/>
+      <c r="C99" s="3"/>
     </row>
     <row r="100" spans="2:3" x14ac:dyDescent="0.4">
-      <c r="B100" s="4"/>
-      <c r="C100" s="4"/>
+      <c r="B100" s="3"/>
+      <c r="C100" s="3"/>
     </row>
     <row r="101" spans="2:3" x14ac:dyDescent="0.4">
-      <c r="B101" s="4"/>
-      <c r="C101" s="4"/>
+      <c r="B101" s="3"/>
+      <c r="C101" s="3"/>
     </row>
     <row r="102" spans="2:3" x14ac:dyDescent="0.4">
-      <c r="B102" s="4"/>
-      <c r="C102" s="4"/>
+      <c r="B102" s="3"/>
+      <c r="C102" s="3"/>
     </row>
     <row r="103" spans="2:3" x14ac:dyDescent="0.4">
-      <c r="B103" s="4"/>
-      <c r="C103" s="4"/>
+      <c r="B103" s="3"/>
+      <c r="C103" s="3"/>
     </row>
     <row r="104" spans="2:3" x14ac:dyDescent="0.4">
-      <c r="B104" s="4"/>
-      <c r="C104" s="4"/>
+      <c r="B104" s="3"/>
+      <c r="C104" s="3"/>
     </row>
     <row r="105" spans="2:3" x14ac:dyDescent="0.4">
-      <c r="B105" s="4"/>
-      <c r="C105" s="4"/>
+      <c r="B105" s="3"/>
+      <c r="C105" s="3"/>
     </row>
     <row r="106" spans="2:3" x14ac:dyDescent="0.4">
-      <c r="B106" s="4"/>
-      <c r="C106" s="4"/>
+      <c r="B106" s="3"/>
+      <c r="C106" s="3"/>
     </row>
     <row r="107" spans="2:3" x14ac:dyDescent="0.4">
-      <c r="B107" s="4"/>
-      <c r="C107" s="4"/>
+      <c r="B107" s="3"/>
+      <c r="C107" s="3"/>
     </row>
     <row r="108" spans="2:3" x14ac:dyDescent="0.4">
-      <c r="B108" s="4"/>
-      <c r="C108" s="4"/>
+      <c r="B108" s="3"/>
+      <c r="C108" s="3"/>
     </row>
     <row r="109" spans="2:3" x14ac:dyDescent="0.4">
-      <c r="B109" s="4"/>
-      <c r="C109" s="4"/>
+      <c r="B109" s="3"/>
+      <c r="C109" s="3"/>
     </row>
     <row r="110" spans="2:3" x14ac:dyDescent="0.4">
-      <c r="B110" s="4"/>
-      <c r="C110" s="4"/>
+      <c r="B110" s="3"/>
+      <c r="C110" s="3"/>
     </row>
     <row r="111" spans="2:3" x14ac:dyDescent="0.4">
-      <c r="B111" s="4"/>
-      <c r="C111" s="4"/>
+      <c r="B111" s="3"/>
+      <c r="C111" s="3"/>
     </row>
   </sheetData>
   <mergeCells count="15">

--- a/resources/public/template/TemCXLog.xlsx
+++ b/resources/public/template/TemCXLog.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\xampp\htdocs\hospital\resources\public\template\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{64B10C52-1E42-417C-9FFF-184F09D2C0FC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{023AFBE7-D044-4F16-887B-BBCBC6A70888}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-103" yWindow="-103" windowWidth="24892" windowHeight="14914" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -334,6 +334,60 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="1" xfId="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="3" borderId="5" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="3" borderId="6" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="3" borderId="7" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="3" borderId="8" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="3" borderId="0" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="3" borderId="9" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="3" borderId="10" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="3" borderId="11" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="3" borderId="12" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="3" borderId="2" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="3" borderId="4" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="3" borderId="3" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="3" borderId="2" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="3" borderId="3" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="3" fillId="3" borderId="2" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
@@ -344,60 +398,6 @@
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="3" borderId="3" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="3" borderId="5" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="3" borderId="6" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="3" borderId="7" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="3" borderId="8" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="3" borderId="0" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="3" borderId="9" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="3" borderId="10" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="3" borderId="11" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="3" borderId="12" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="3" borderId="2" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="3" borderId="3" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="3" borderId="2" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="3" borderId="4" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="3" borderId="3" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="1" xfId="1" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="11" fillId="3" borderId="2" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -693,14 +693,14 @@
   <dimension ref="A1:W111"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="C5" sqref="C5:D5"/>
+      <selection activeCell="E7" sqref="E7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.15234375" defaultRowHeight="14.6" x14ac:dyDescent="0.4"/>
   <cols>
     <col min="1" max="1" width="9.3828125" style="1" customWidth="1"/>
     <col min="2" max="2" width="56.765625" style="1" customWidth="1"/>
-    <col min="3" max="3" width="141.69140625" style="1" customWidth="1"/>
+    <col min="3" max="3" width="70.765625" style="1" customWidth="1"/>
     <col min="4" max="4" width="0.61328125" style="1" customWidth="1"/>
     <col min="5" max="5" width="34" style="1" customWidth="1"/>
     <col min="6" max="16384" width="9.15234375" style="1"/>
@@ -809,12 +809,12 @@
       <c r="W4" s="2"/>
     </row>
     <row r="5" spans="1:23" ht="42.9" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A5" s="4" t="s">
+      <c r="A5" s="22" t="s">
         <v>3</v>
       </c>
-      <c r="B5" s="5"/>
-      <c r="C5" s="17"/>
-      <c r="D5" s="18"/>
+      <c r="B5" s="23"/>
+      <c r="C5" s="20"/>
+      <c r="D5" s="21"/>
       <c r="E5" s="2"/>
       <c r="F5" s="2"/>
       <c r="G5" s="2"/>
@@ -836,12 +836,12 @@
       <c r="W5" s="2"/>
     </row>
     <row r="6" spans="1:23" ht="52.3" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A6" s="4" t="s">
+      <c r="A6" s="22" t="s">
         <v>9</v>
       </c>
-      <c r="B6" s="5"/>
-      <c r="C6" s="17"/>
-      <c r="D6" s="18"/>
+      <c r="B6" s="23"/>
+      <c r="C6" s="20"/>
+      <c r="D6" s="21"/>
       <c r="E6" s="2"/>
       <c r="F6" s="2"/>
       <c r="G6" s="2"/>
@@ -863,12 +863,12 @@
       <c r="W6" s="2"/>
     </row>
     <row r="7" spans="1:23" ht="53.6" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A7" s="4" t="s">
+      <c r="A7" s="22" t="s">
         <v>4</v>
       </c>
-      <c r="B7" s="5"/>
-      <c r="C7" s="17"/>
-      <c r="D7" s="18"/>
+      <c r="B7" s="23"/>
+      <c r="C7" s="20"/>
+      <c r="D7" s="21"/>
       <c r="E7" s="2"/>
       <c r="F7" s="2"/>
       <c r="G7" s="2"/>
@@ -890,12 +890,12 @@
       <c r="W7" s="2"/>
     </row>
     <row r="8" spans="1:23" ht="53.6" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A8" s="6" t="s">
+      <c r="A8" s="24" t="s">
         <v>5</v>
       </c>
-      <c r="B8" s="7"/>
-      <c r="C8" s="17"/>
-      <c r="D8" s="18"/>
+      <c r="B8" s="25"/>
+      <c r="C8" s="20"/>
+      <c r="D8" s="21"/>
       <c r="E8" s="2"/>
       <c r="F8" s="2"/>
       <c r="G8" s="2"/>
@@ -917,12 +917,12 @@
       <c r="W8" s="2"/>
     </row>
     <row r="9" spans="1:23" ht="66" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A9" s="6" t="s">
+      <c r="A9" s="24" t="s">
         <v>6</v>
       </c>
-      <c r="B9" s="7"/>
-      <c r="C9" s="17"/>
-      <c r="D9" s="18"/>
+      <c r="B9" s="25"/>
+      <c r="C9" s="20"/>
+      <c r="D9" s="21"/>
       <c r="E9" s="2"/>
       <c r="F9" s="2"/>
       <c r="G9" s="2"/>
@@ -944,12 +944,12 @@
       <c r="W9" s="2"/>
     </row>
     <row r="10" spans="1:23" ht="66.45" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A10" s="6" t="s">
+      <c r="A10" s="24" t="s">
         <v>10</v>
       </c>
-      <c r="B10" s="7"/>
-      <c r="C10" s="17"/>
-      <c r="D10" s="18"/>
+      <c r="B10" s="25"/>
+      <c r="C10" s="20"/>
+      <c r="D10" s="21"/>
       <c r="E10" s="2"/>
       <c r="F10" s="2"/>
       <c r="G10" s="2"/>
@@ -971,12 +971,12 @@
       <c r="W10" s="2"/>
     </row>
     <row r="11" spans="1:23" ht="63.45" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A11" s="19" t="s">
+      <c r="A11" s="17" t="s">
         <v>7</v>
       </c>
-      <c r="B11" s="20"/>
-      <c r="C11" s="20"/>
-      <c r="D11" s="21"/>
+      <c r="B11" s="18"/>
+      <c r="C11" s="18"/>
+      <c r="D11" s="19"/>
       <c r="E11" s="2"/>
       <c r="F11" s="2"/>
       <c r="G11" s="2"/>
@@ -997,221 +997,221 @@
       <c r="V11" s="2"/>
       <c r="W11" s="2"/>
     </row>
-    <row r="12" spans="1:23" s="23" customFormat="1" ht="42" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A12" s="22" t="s">
+    <row r="12" spans="1:23" s="5" customFormat="1" ht="42" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="A12" s="4" t="s">
         <v>0</v>
       </c>
-      <c r="B12" s="22" t="s">
+      <c r="B12" s="4" t="s">
         <v>1</v>
       </c>
-      <c r="C12" s="22" t="s">
+      <c r="C12" s="4" t="s">
         <v>2</v>
       </c>
-      <c r="D12" s="22"/>
-    </row>
-    <row r="13" spans="1:23" s="24" customFormat="1" ht="36.9" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="B13" s="25"/>
-      <c r="C13" s="25"/>
-    </row>
-    <row r="14" spans="1:23" s="24" customFormat="1" ht="43.3" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="B14" s="25"/>
-      <c r="C14" s="25"/>
-    </row>
-    <row r="15" spans="1:23" s="24" customFormat="1" ht="40.75" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="B15" s="25"/>
-      <c r="C15" s="25"/>
-    </row>
-    <row r="16" spans="1:23" s="24" customFormat="1" ht="47.6" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="B16" s="25"/>
-      <c r="C16" s="25"/>
-    </row>
-    <row r="17" spans="2:3" s="24" customFormat="1" ht="40.299999999999997" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="B17" s="25"/>
-      <c r="C17" s="25"/>
-    </row>
-    <row r="18" spans="2:3" s="24" customFormat="1" ht="44.15" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="B18" s="25"/>
-      <c r="C18" s="25"/>
-    </row>
-    <row r="19" spans="2:3" s="24" customFormat="1" ht="42" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="B19" s="25"/>
-      <c r="C19" s="25"/>
-    </row>
-    <row r="20" spans="2:3" s="24" customFormat="1" ht="39" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="B20" s="25"/>
-      <c r="C20" s="25"/>
-    </row>
-    <row r="21" spans="2:3" s="24" customFormat="1" ht="54.45" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="B21" s="25"/>
-      <c r="C21" s="25"/>
-    </row>
-    <row r="22" spans="2:3" s="24" customFormat="1" ht="52.3" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="B22" s="25"/>
-      <c r="C22" s="25"/>
-    </row>
-    <row r="23" spans="2:3" s="24" customFormat="1" ht="39.450000000000003" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="B23" s="25"/>
-      <c r="C23" s="25"/>
-    </row>
-    <row r="24" spans="2:3" s="24" customFormat="1" ht="42" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="B24" s="25"/>
-      <c r="C24" s="25"/>
-    </row>
-    <row r="25" spans="2:3" s="24" customFormat="1" ht="46.75" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="B25" s="25"/>
-      <c r="C25" s="25"/>
-    </row>
-    <row r="26" spans="2:3" s="24" customFormat="1" ht="45.9" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="B26" s="25"/>
-      <c r="C26" s="25"/>
-    </row>
-    <row r="27" spans="2:3" s="24" customFormat="1" ht="53.6" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="B27" s="25"/>
-      <c r="C27" s="25"/>
-    </row>
-    <row r="28" spans="2:3" s="24" customFormat="1" ht="44.6" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="B28" s="25"/>
-      <c r="C28" s="25"/>
-    </row>
-    <row r="29" spans="2:3" s="24" customFormat="1" ht="45.45" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="B29" s="25"/>
-      <c r="C29" s="25"/>
-    </row>
-    <row r="30" spans="2:3" s="24" customFormat="1" ht="48.45" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="B30" s="25"/>
-      <c r="C30" s="25"/>
-    </row>
-    <row r="31" spans="2:3" s="24" customFormat="1" ht="41.15" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="B31" s="25"/>
-      <c r="C31" s="25"/>
-    </row>
-    <row r="32" spans="2:3" s="24" customFormat="1" ht="41.6" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="B32" s="25"/>
-      <c r="C32" s="25"/>
-    </row>
-    <row r="33" spans="2:3" s="24" customFormat="1" ht="42.9" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="B33" s="25"/>
-      <c r="C33" s="25"/>
-    </row>
-    <row r="34" spans="2:3" s="24" customFormat="1" ht="35.6" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="B34" s="25"/>
-      <c r="C34" s="25"/>
-    </row>
-    <row r="35" spans="2:3" s="24" customFormat="1" ht="39" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="B35" s="25"/>
-      <c r="C35" s="25"/>
-    </row>
-    <row r="36" spans="2:3" s="24" customFormat="1" ht="43.75" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="B36" s="25"/>
-      <c r="C36" s="25"/>
-    </row>
-    <row r="37" spans="2:3" s="24" customFormat="1" ht="44.15" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="B37" s="25"/>
-      <c r="C37" s="25"/>
-    </row>
-    <row r="38" spans="2:3" s="24" customFormat="1" ht="48.45" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="B38" s="25"/>
-      <c r="C38" s="25"/>
-    </row>
-    <row r="39" spans="2:3" s="24" customFormat="1" ht="36" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="B39" s="25"/>
-      <c r="C39" s="25"/>
-    </row>
-    <row r="40" spans="2:3" s="24" customFormat="1" ht="41.6" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="B40" s="25"/>
-      <c r="C40" s="25"/>
-    </row>
-    <row r="41" spans="2:3" s="24" customFormat="1" ht="43.3" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="B41" s="25"/>
-      <c r="C41" s="25"/>
-    </row>
-    <row r="42" spans="2:3" s="24" customFormat="1" ht="45" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="B42" s="25"/>
-      <c r="C42" s="25"/>
-    </row>
-    <row r="43" spans="2:3" s="24" customFormat="1" ht="41.6" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="B43" s="25"/>
-      <c r="C43" s="25"/>
-    </row>
-    <row r="44" spans="2:3" s="24" customFormat="1" ht="43.3" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="B44" s="25"/>
-      <c r="C44" s="25"/>
-    </row>
-    <row r="45" spans="2:3" s="24" customFormat="1" ht="39.9" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="B45" s="25"/>
-      <c r="C45" s="25"/>
-    </row>
-    <row r="46" spans="2:3" s="24" customFormat="1" ht="38.6" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="B46" s="25"/>
-      <c r="C46" s="25"/>
-    </row>
-    <row r="47" spans="2:3" s="24" customFormat="1" ht="41.15" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="B47" s="25"/>
-      <c r="C47" s="25"/>
-    </row>
-    <row r="48" spans="2:3" s="24" customFormat="1" ht="41.6" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="B48" s="25"/>
-      <c r="C48" s="25"/>
-    </row>
-    <row r="49" spans="2:3" s="24" customFormat="1" ht="11.6" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="B49" s="25"/>
-      <c r="C49" s="25"/>
-    </row>
-    <row r="50" spans="2:3" s="24" customFormat="1" ht="11.6" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="B50" s="25"/>
-      <c r="C50" s="25"/>
-    </row>
-    <row r="51" spans="2:3" s="24" customFormat="1" ht="11.6" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="B51" s="25"/>
-      <c r="C51" s="25"/>
-    </row>
-    <row r="52" spans="2:3" s="24" customFormat="1" ht="11.6" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="B52" s="25"/>
-      <c r="C52" s="25"/>
-    </row>
-    <row r="53" spans="2:3" s="24" customFormat="1" ht="11.6" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="B53" s="25"/>
-      <c r="C53" s="25"/>
-    </row>
-    <row r="54" spans="2:3" s="24" customFormat="1" ht="11.6" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="B54" s="25"/>
-      <c r="C54" s="25"/>
-    </row>
-    <row r="55" spans="2:3" s="24" customFormat="1" ht="11.6" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="B55" s="25"/>
-      <c r="C55" s="25"/>
-    </row>
-    <row r="56" spans="2:3" s="24" customFormat="1" ht="11.6" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="B56" s="25"/>
-      <c r="C56" s="25"/>
-    </row>
-    <row r="57" spans="2:3" s="24" customFormat="1" ht="11.6" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="B57" s="25"/>
-      <c r="C57" s="25"/>
-    </row>
-    <row r="58" spans="2:3" s="24" customFormat="1" ht="11.6" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="B58" s="25"/>
-      <c r="C58" s="25"/>
-    </row>
-    <row r="59" spans="2:3" s="24" customFormat="1" ht="11.6" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="B59" s="25"/>
-      <c r="C59" s="25"/>
-    </row>
-    <row r="60" spans="2:3" s="24" customFormat="1" ht="11.6" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="B60" s="25"/>
-      <c r="C60" s="25"/>
-    </row>
-    <row r="61" spans="2:3" s="24" customFormat="1" ht="11.6" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="B61" s="25"/>
-      <c r="C61" s="25"/>
-    </row>
-    <row r="62" spans="2:3" s="24" customFormat="1" ht="11.6" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="B62" s="25"/>
-      <c r="C62" s="25"/>
-    </row>
-    <row r="63" spans="2:3" s="24" customFormat="1" ht="11.6" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="B63" s="25"/>
-      <c r="C63" s="25"/>
+      <c r="D12" s="4"/>
+    </row>
+    <row r="13" spans="1:23" s="6" customFormat="1" ht="36.9" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="B13" s="7"/>
+      <c r="C13" s="7"/>
+    </row>
+    <row r="14" spans="1:23" s="6" customFormat="1" ht="43.3" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="B14" s="7"/>
+      <c r="C14" s="7"/>
+    </row>
+    <row r="15" spans="1:23" s="6" customFormat="1" ht="40.75" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="B15" s="7"/>
+      <c r="C15" s="7"/>
+    </row>
+    <row r="16" spans="1:23" s="6" customFormat="1" ht="47.6" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="B16" s="7"/>
+      <c r="C16" s="7"/>
+    </row>
+    <row r="17" spans="2:3" s="6" customFormat="1" ht="40.299999999999997" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="B17" s="7"/>
+      <c r="C17" s="7"/>
+    </row>
+    <row r="18" spans="2:3" s="6" customFormat="1" ht="44.15" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="B18" s="7"/>
+      <c r="C18" s="7"/>
+    </row>
+    <row r="19" spans="2:3" s="6" customFormat="1" ht="42" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="B19" s="7"/>
+      <c r="C19" s="7"/>
+    </row>
+    <row r="20" spans="2:3" s="6" customFormat="1" ht="39" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="B20" s="7"/>
+      <c r="C20" s="7"/>
+    </row>
+    <row r="21" spans="2:3" s="6" customFormat="1" ht="54.45" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="B21" s="7"/>
+      <c r="C21" s="7"/>
+    </row>
+    <row r="22" spans="2:3" s="6" customFormat="1" ht="52.3" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="B22" s="7"/>
+      <c r="C22" s="7"/>
+    </row>
+    <row r="23" spans="2:3" s="6" customFormat="1" ht="39.450000000000003" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="B23" s="7"/>
+      <c r="C23" s="7"/>
+    </row>
+    <row r="24" spans="2:3" s="6" customFormat="1" ht="42" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="B24" s="7"/>
+      <c r="C24" s="7"/>
+    </row>
+    <row r="25" spans="2:3" s="6" customFormat="1" ht="46.75" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="B25" s="7"/>
+      <c r="C25" s="7"/>
+    </row>
+    <row r="26" spans="2:3" s="6" customFormat="1" ht="45.9" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="B26" s="7"/>
+      <c r="C26" s="7"/>
+    </row>
+    <row r="27" spans="2:3" s="6" customFormat="1" ht="53.6" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="B27" s="7"/>
+      <c r="C27" s="7"/>
+    </row>
+    <row r="28" spans="2:3" s="6" customFormat="1" ht="44.6" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="B28" s="7"/>
+      <c r="C28" s="7"/>
+    </row>
+    <row r="29" spans="2:3" s="6" customFormat="1" ht="45.45" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="B29" s="7"/>
+      <c r="C29" s="7"/>
+    </row>
+    <row r="30" spans="2:3" s="6" customFormat="1" ht="48.45" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="B30" s="7"/>
+      <c r="C30" s="7"/>
+    </row>
+    <row r="31" spans="2:3" s="6" customFormat="1" ht="41.15" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="B31" s="7"/>
+      <c r="C31" s="7"/>
+    </row>
+    <row r="32" spans="2:3" s="6" customFormat="1" ht="41.6" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="B32" s="7"/>
+      <c r="C32" s="7"/>
+    </row>
+    <row r="33" spans="2:3" s="6" customFormat="1" ht="42.9" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="B33" s="7"/>
+      <c r="C33" s="7"/>
+    </row>
+    <row r="34" spans="2:3" s="6" customFormat="1" ht="35.6" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="B34" s="7"/>
+      <c r="C34" s="7"/>
+    </row>
+    <row r="35" spans="2:3" s="6" customFormat="1" ht="39" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="B35" s="7"/>
+      <c r="C35" s="7"/>
+    </row>
+    <row r="36" spans="2:3" s="6" customFormat="1" ht="43.75" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="B36" s="7"/>
+      <c r="C36" s="7"/>
+    </row>
+    <row r="37" spans="2:3" s="6" customFormat="1" ht="44.15" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="B37" s="7"/>
+      <c r="C37" s="7"/>
+    </row>
+    <row r="38" spans="2:3" s="6" customFormat="1" ht="48.45" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="B38" s="7"/>
+      <c r="C38" s="7"/>
+    </row>
+    <row r="39" spans="2:3" s="6" customFormat="1" ht="36" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="B39" s="7"/>
+      <c r="C39" s="7"/>
+    </row>
+    <row r="40" spans="2:3" s="6" customFormat="1" ht="41.6" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="B40" s="7"/>
+      <c r="C40" s="7"/>
+    </row>
+    <row r="41" spans="2:3" s="6" customFormat="1" ht="43.3" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="B41" s="7"/>
+      <c r="C41" s="7"/>
+    </row>
+    <row r="42" spans="2:3" s="6" customFormat="1" ht="45" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="B42" s="7"/>
+      <c r="C42" s="7"/>
+    </row>
+    <row r="43" spans="2:3" s="6" customFormat="1" ht="41.6" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="B43" s="7"/>
+      <c r="C43" s="7"/>
+    </row>
+    <row r="44" spans="2:3" s="6" customFormat="1" ht="43.3" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="B44" s="7"/>
+      <c r="C44" s="7"/>
+    </row>
+    <row r="45" spans="2:3" s="6" customFormat="1" ht="39.9" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="B45" s="7"/>
+      <c r="C45" s="7"/>
+    </row>
+    <row r="46" spans="2:3" s="6" customFormat="1" ht="38.6" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="B46" s="7"/>
+      <c r="C46" s="7"/>
+    </row>
+    <row r="47" spans="2:3" s="6" customFormat="1" ht="41.15" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="B47" s="7"/>
+      <c r="C47" s="7"/>
+    </row>
+    <row r="48" spans="2:3" s="6" customFormat="1" ht="41.6" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="B48" s="7"/>
+      <c r="C48" s="7"/>
+    </row>
+    <row r="49" spans="2:3" s="6" customFormat="1" ht="11.6" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="B49" s="7"/>
+      <c r="C49" s="7"/>
+    </row>
+    <row r="50" spans="2:3" s="6" customFormat="1" ht="11.6" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="B50" s="7"/>
+      <c r="C50" s="7"/>
+    </row>
+    <row r="51" spans="2:3" s="6" customFormat="1" ht="11.6" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="B51" s="7"/>
+      <c r="C51" s="7"/>
+    </row>
+    <row r="52" spans="2:3" s="6" customFormat="1" ht="11.6" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="B52" s="7"/>
+      <c r="C52" s="7"/>
+    </row>
+    <row r="53" spans="2:3" s="6" customFormat="1" ht="11.6" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="B53" s="7"/>
+      <c r="C53" s="7"/>
+    </row>
+    <row r="54" spans="2:3" s="6" customFormat="1" ht="11.6" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="B54" s="7"/>
+      <c r="C54" s="7"/>
+    </row>
+    <row r="55" spans="2:3" s="6" customFormat="1" ht="11.6" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="B55" s="7"/>
+      <c r="C55" s="7"/>
+    </row>
+    <row r="56" spans="2:3" s="6" customFormat="1" ht="11.6" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="B56" s="7"/>
+      <c r="C56" s="7"/>
+    </row>
+    <row r="57" spans="2:3" s="6" customFormat="1" ht="11.6" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="B57" s="7"/>
+      <c r="C57" s="7"/>
+    </row>
+    <row r="58" spans="2:3" s="6" customFormat="1" ht="11.6" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="B58" s="7"/>
+      <c r="C58" s="7"/>
+    </row>
+    <row r="59" spans="2:3" s="6" customFormat="1" ht="11.6" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="B59" s="7"/>
+      <c r="C59" s="7"/>
+    </row>
+    <row r="60" spans="2:3" s="6" customFormat="1" ht="11.6" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="B60" s="7"/>
+      <c r="C60" s="7"/>
+    </row>
+    <row r="61" spans="2:3" s="6" customFormat="1" ht="11.6" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="B61" s="7"/>
+      <c r="C61" s="7"/>
+    </row>
+    <row r="62" spans="2:3" s="6" customFormat="1" ht="11.6" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="B62" s="7"/>
+      <c r="C62" s="7"/>
+    </row>
+    <row r="63" spans="2:3" s="6" customFormat="1" ht="11.6" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="B63" s="7"/>
+      <c r="C63" s="7"/>
     </row>
     <row r="64" spans="2:3" ht="11.6" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B64" s="3"/>

--- a/resources/public/template/TemCXLog.xlsx
+++ b/resources/public/template/TemCXLog.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\xampp\htdocs\hospital\resources\public\template\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{023AFBE7-D044-4F16-887B-BBCBC6A70888}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BA4459D2-47E9-48CE-9A65-B5D8EE0C8367}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-103" yWindow="-103" windowWidth="24892" windowHeight="14914" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -692,15 +692,15 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:W111"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="E7" sqref="E7"/>
+    <sheetView tabSelected="1" topLeftCell="A5" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="C7" sqref="C7:D7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.15234375" defaultRowHeight="14.6" x14ac:dyDescent="0.4"/>
   <cols>
     <col min="1" max="1" width="9.3828125" style="1" customWidth="1"/>
     <col min="2" max="2" width="56.765625" style="1" customWidth="1"/>
-    <col min="3" max="3" width="70.765625" style="1" customWidth="1"/>
+    <col min="3" max="3" width="100.53515625" style="1" customWidth="1"/>
     <col min="4" max="4" width="0.61328125" style="1" customWidth="1"/>
     <col min="5" max="5" width="34" style="1" customWidth="1"/>
     <col min="6" max="16384" width="9.15234375" style="1"/>

--- a/resources/public/template/TemCXLog.xlsx
+++ b/resources/public/template/TemCXLog.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\xampp\htdocs\hospital\resources\public\template\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BA4459D2-47E9-48CE-9A65-B5D8EE0C8367}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4439DF05-1363-4FEF-8223-F010C0E649BA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-103" yWindow="-103" windowWidth="24892" windowHeight="14914" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -692,18 +692,20 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:W111"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A5" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="C7" sqref="C7:D7"/>
+    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="C6" sqref="C6:D6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.15234375" defaultRowHeight="14.6" x14ac:dyDescent="0.4"/>
   <cols>
     <col min="1" max="1" width="9.3828125" style="1" customWidth="1"/>
     <col min="2" max="2" width="56.765625" style="1" customWidth="1"/>
-    <col min="3" max="3" width="100.53515625" style="1" customWidth="1"/>
+    <col min="3" max="3" width="103.53515625" style="1" customWidth="1"/>
     <col min="4" max="4" width="0.61328125" style="1" customWidth="1"/>
     <col min="5" max="5" width="34" style="1" customWidth="1"/>
-    <col min="6" max="16384" width="9.15234375" style="1"/>
+    <col min="6" max="6" width="9.15234375" style="1"/>
+    <col min="7" max="7" width="9.15234375" style="1" customWidth="1"/>
+    <col min="8" max="16384" width="9.15234375" style="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:23" ht="14.6" customHeight="1" x14ac:dyDescent="0.4">

--- a/resources/public/template/TemCXLog.xlsx
+++ b/resources/public/template/TemCXLog.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\xampp\htdocs\hospital\resources\public\template\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4439DF05-1363-4FEF-8223-F010C0E649BA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7030AF01-07DA-4011-8526-2393FB6113B3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-103" yWindow="-103" windowWidth="24892" windowHeight="14914" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -323,7 +323,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="29">
+  <cellXfs count="28">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
@@ -346,47 +346,44 @@
     <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="3" borderId="5" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="3" borderId="6" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="3" borderId="7" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="3" borderId="8" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="3" borderId="0" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="3" borderId="9" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="3" borderId="10" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="3" borderId="11" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="3" borderId="12" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="3" borderId="2" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="3" borderId="4" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="3" borderId="3" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="3" borderId="2" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="6" fillId="3" borderId="3" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="3" borderId="5" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="3" borderId="6" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="3" borderId="7" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="3" borderId="8" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="3" borderId="0" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="3" borderId="9" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="3" borderId="10" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="3" borderId="11" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="3" borderId="12" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="3" borderId="2" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="3" borderId="4" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="3" borderId="3" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="3" borderId="2" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
@@ -690,31 +687,30 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:W111"/>
+  <dimension ref="A1:V111"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="C6" sqref="C6:D6"/>
+      <selection activeCell="C7" sqref="C7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.15234375" defaultRowHeight="14.6" x14ac:dyDescent="0.4"/>
   <cols>
     <col min="1" max="1" width="9.3828125" style="1" customWidth="1"/>
     <col min="2" max="2" width="56.765625" style="1" customWidth="1"/>
-    <col min="3" max="3" width="103.53515625" style="1" customWidth="1"/>
-    <col min="4" max="4" width="0.61328125" style="1" customWidth="1"/>
-    <col min="5" max="5" width="34" style="1" customWidth="1"/>
-    <col min="6" max="6" width="9.15234375" style="1"/>
-    <col min="7" max="7" width="9.15234375" style="1" customWidth="1"/>
-    <col min="8" max="16384" width="9.15234375" style="1"/>
+    <col min="3" max="3" width="103.69140625" style="1" customWidth="1"/>
+    <col min="4" max="4" width="34" style="1" customWidth="1"/>
+    <col min="5" max="5" width="9.15234375" style="1"/>
+    <col min="6" max="6" width="9.15234375" style="1" customWidth="1"/>
+    <col min="7" max="16384" width="9.15234375" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:23" ht="14.6" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A1" s="8" t="s">
+    <row r="1" spans="1:22" ht="14.6" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="A1" s="9" t="s">
         <v>8</v>
       </c>
-      <c r="B1" s="9"/>
-      <c r="C1" s="9"/>
-      <c r="D1" s="10"/>
+      <c r="B1" s="10"/>
+      <c r="C1" s="11"/>
+      <c r="D1" s="2"/>
       <c r="E1" s="2"/>
       <c r="F1" s="2"/>
       <c r="G1" s="2"/>
@@ -733,13 +729,12 @@
       <c r="T1" s="2"/>
       <c r="U1" s="2"/>
       <c r="V1" s="2"/>
-      <c r="W1" s="2"/>
-    </row>
-    <row r="2" spans="1:23" ht="14.6" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A2" s="11"/>
-      <c r="B2" s="12"/>
-      <c r="C2" s="12"/>
-      <c r="D2" s="13"/>
+    </row>
+    <row r="2" spans="1:22" ht="14.6" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="A2" s="12"/>
+      <c r="B2" s="13"/>
+      <c r="C2" s="14"/>
+      <c r="D2" s="2"/>
       <c r="E2" s="2"/>
       <c r="F2" s="2"/>
       <c r="G2" s="2"/>
@@ -758,13 +753,12 @@
       <c r="T2" s="2"/>
       <c r="U2" s="2"/>
       <c r="V2" s="2"/>
-      <c r="W2" s="2"/>
-    </row>
-    <row r="3" spans="1:23" ht="14.6" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A3" s="14"/>
-      <c r="B3" s="15"/>
-      <c r="C3" s="15"/>
-      <c r="D3" s="16"/>
+    </row>
+    <row r="3" spans="1:22" ht="14.6" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="A3" s="15"/>
+      <c r="B3" s="16"/>
+      <c r="C3" s="17"/>
+      <c r="D3" s="2"/>
       <c r="E3" s="2"/>
       <c r="F3" s="2"/>
       <c r="G3" s="2"/>
@@ -783,13 +777,12 @@
       <c r="T3" s="2"/>
       <c r="U3" s="2"/>
       <c r="V3" s="2"/>
-      <c r="W3" s="2"/>
-    </row>
-    <row r="4" spans="1:23" ht="29.15" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A4" s="26"/>
-      <c r="B4" s="27"/>
+    </row>
+    <row r="4" spans="1:22" ht="29.15" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="A4" s="25"/>
+      <c r="B4" s="26"/>
       <c r="C4" s="27"/>
-      <c r="D4" s="28"/>
+      <c r="D4" s="2"/>
       <c r="E4" s="2"/>
       <c r="F4" s="2"/>
       <c r="G4" s="2"/>
@@ -808,15 +801,14 @@
       <c r="T4" s="2"/>
       <c r="U4" s="2"/>
       <c r="V4" s="2"/>
-      <c r="W4" s="2"/>
-    </row>
-    <row r="5" spans="1:23" ht="42.9" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A5" s="22" t="s">
+    </row>
+    <row r="5" spans="1:22" ht="42.9" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="A5" s="21" t="s">
         <v>3</v>
       </c>
-      <c r="B5" s="23"/>
-      <c r="C5" s="20"/>
-      <c r="D5" s="21"/>
+      <c r="B5" s="22"/>
+      <c r="C5" s="8"/>
+      <c r="D5" s="2"/>
       <c r="E5" s="2"/>
       <c r="F5" s="2"/>
       <c r="G5" s="2"/>
@@ -835,15 +827,14 @@
       <c r="T5" s="2"/>
       <c r="U5" s="2"/>
       <c r="V5" s="2"/>
-      <c r="W5" s="2"/>
-    </row>
-    <row r="6" spans="1:23" ht="52.3" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A6" s="22" t="s">
+    </row>
+    <row r="6" spans="1:22" ht="52.3" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="A6" s="21" t="s">
         <v>9</v>
       </c>
-      <c r="B6" s="23"/>
-      <c r="C6" s="20"/>
-      <c r="D6" s="21"/>
+      <c r="B6" s="22"/>
+      <c r="C6" s="8"/>
+      <c r="D6" s="2"/>
       <c r="E6" s="2"/>
       <c r="F6" s="2"/>
       <c r="G6" s="2"/>
@@ -862,15 +853,14 @@
       <c r="T6" s="2"/>
       <c r="U6" s="2"/>
       <c r="V6" s="2"/>
-      <c r="W6" s="2"/>
-    </row>
-    <row r="7" spans="1:23" ht="53.6" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A7" s="22" t="s">
+    </row>
+    <row r="7" spans="1:22" ht="53.6" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="A7" s="21" t="s">
         <v>4</v>
       </c>
-      <c r="B7" s="23"/>
-      <c r="C7" s="20"/>
-      <c r="D7" s="21"/>
+      <c r="B7" s="22"/>
+      <c r="C7" s="8"/>
+      <c r="D7" s="2"/>
       <c r="E7" s="2"/>
       <c r="F7" s="2"/>
       <c r="G7" s="2"/>
@@ -889,15 +879,14 @@
       <c r="T7" s="2"/>
       <c r="U7" s="2"/>
       <c r="V7" s="2"/>
-      <c r="W7" s="2"/>
-    </row>
-    <row r="8" spans="1:23" ht="53.6" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A8" s="24" t="s">
+    </row>
+    <row r="8" spans="1:22" ht="53.6" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="A8" s="23" t="s">
         <v>5</v>
       </c>
-      <c r="B8" s="25"/>
-      <c r="C8" s="20"/>
-      <c r="D8" s="21"/>
+      <c r="B8" s="24"/>
+      <c r="C8" s="8"/>
+      <c r="D8" s="2"/>
       <c r="E8" s="2"/>
       <c r="F8" s="2"/>
       <c r="G8" s="2"/>
@@ -916,15 +905,14 @@
       <c r="T8" s="2"/>
       <c r="U8" s="2"/>
       <c r="V8" s="2"/>
-      <c r="W8" s="2"/>
-    </row>
-    <row r="9" spans="1:23" ht="66" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A9" s="24" t="s">
+    </row>
+    <row r="9" spans="1:22" ht="66" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="A9" s="23" t="s">
         <v>6</v>
       </c>
-      <c r="B9" s="25"/>
-      <c r="C9" s="20"/>
-      <c r="D9" s="21"/>
+      <c r="B9" s="24"/>
+      <c r="C9" s="8"/>
+      <c r="D9" s="2"/>
       <c r="E9" s="2"/>
       <c r="F9" s="2"/>
       <c r="G9" s="2"/>
@@ -943,15 +931,14 @@
       <c r="T9" s="2"/>
       <c r="U9" s="2"/>
       <c r="V9" s="2"/>
-      <c r="W9" s="2"/>
-    </row>
-    <row r="10" spans="1:23" ht="66.45" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A10" s="24" t="s">
+    </row>
+    <row r="10" spans="1:22" ht="66.45" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="A10" s="23" t="s">
         <v>10</v>
       </c>
-      <c r="B10" s="25"/>
-      <c r="C10" s="20"/>
-      <c r="D10" s="21"/>
+      <c r="B10" s="24"/>
+      <c r="C10" s="8"/>
+      <c r="D10" s="2"/>
       <c r="E10" s="2"/>
       <c r="F10" s="2"/>
       <c r="G10" s="2"/>
@@ -970,15 +957,14 @@
       <c r="T10" s="2"/>
       <c r="U10" s="2"/>
       <c r="V10" s="2"/>
-      <c r="W10" s="2"/>
-    </row>
-    <row r="11" spans="1:23" ht="63.45" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A11" s="17" t="s">
+    </row>
+    <row r="11" spans="1:22" ht="63.45" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="A11" s="18" t="s">
         <v>7</v>
       </c>
-      <c r="B11" s="18"/>
-      <c r="C11" s="18"/>
-      <c r="D11" s="19"/>
+      <c r="B11" s="19"/>
+      <c r="C11" s="20"/>
+      <c r="D11" s="2"/>
       <c r="E11" s="2"/>
       <c r="F11" s="2"/>
       <c r="G11" s="2"/>
@@ -997,9 +983,8 @@
       <c r="T11" s="2"/>
       <c r="U11" s="2"/>
       <c r="V11" s="2"/>
-      <c r="W11" s="2"/>
-    </row>
-    <row r="12" spans="1:23" s="5" customFormat="1" ht="42" customHeight="1" x14ac:dyDescent="0.4">
+    </row>
+    <row r="12" spans="1:22" s="5" customFormat="1" ht="42" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A12" s="4" t="s">
         <v>0</v>
       </c>
@@ -1009,421 +994,315 @@
       <c r="C12" s="4" t="s">
         <v>2</v>
       </c>
-      <c r="D12" s="4"/>
-    </row>
-    <row r="13" spans="1:23" s="6" customFormat="1" ht="36.9" customHeight="1" x14ac:dyDescent="0.4">
+    </row>
+    <row r="13" spans="1:22" s="6" customFormat="1" ht="36.9" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B13" s="7"/>
-      <c r="C13" s="7"/>
-    </row>
-    <row r="14" spans="1:23" s="6" customFormat="1" ht="43.3" customHeight="1" x14ac:dyDescent="0.4">
+    </row>
+    <row r="14" spans="1:22" s="6" customFormat="1" ht="43.3" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B14" s="7"/>
-      <c r="C14" s="7"/>
-    </row>
-    <row r="15" spans="1:23" s="6" customFormat="1" ht="40.75" customHeight="1" x14ac:dyDescent="0.4">
+    </row>
+    <row r="15" spans="1:22" s="6" customFormat="1" ht="40.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B15" s="7"/>
-      <c r="C15" s="7"/>
-    </row>
-    <row r="16" spans="1:23" s="6" customFormat="1" ht="47.6" customHeight="1" x14ac:dyDescent="0.4">
+    </row>
+    <row r="16" spans="1:22" s="6" customFormat="1" ht="47.6" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B16" s="7"/>
-      <c r="C16" s="7"/>
-    </row>
-    <row r="17" spans="2:3" s="6" customFormat="1" ht="40.299999999999997" customHeight="1" x14ac:dyDescent="0.4">
+    </row>
+    <row r="17" spans="2:2" s="6" customFormat="1" ht="40.299999999999997" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B17" s="7"/>
-      <c r="C17" s="7"/>
-    </row>
-    <row r="18" spans="2:3" s="6" customFormat="1" ht="44.15" customHeight="1" x14ac:dyDescent="0.4">
+    </row>
+    <row r="18" spans="2:2" s="6" customFormat="1" ht="44.15" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B18" s="7"/>
-      <c r="C18" s="7"/>
-    </row>
-    <row r="19" spans="2:3" s="6" customFormat="1" ht="42" customHeight="1" x14ac:dyDescent="0.4">
+    </row>
+    <row r="19" spans="2:2" s="6" customFormat="1" ht="42" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B19" s="7"/>
-      <c r="C19" s="7"/>
-    </row>
-    <row r="20" spans="2:3" s="6" customFormat="1" ht="39" customHeight="1" x14ac:dyDescent="0.4">
+    </row>
+    <row r="20" spans="2:2" s="6" customFormat="1" ht="39" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B20" s="7"/>
-      <c r="C20" s="7"/>
-    </row>
-    <row r="21" spans="2:3" s="6" customFormat="1" ht="54.45" customHeight="1" x14ac:dyDescent="0.4">
+    </row>
+    <row r="21" spans="2:2" s="6" customFormat="1" ht="54.45" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B21" s="7"/>
-      <c r="C21" s="7"/>
-    </row>
-    <row r="22" spans="2:3" s="6" customFormat="1" ht="52.3" customHeight="1" x14ac:dyDescent="0.4">
+    </row>
+    <row r="22" spans="2:2" s="6" customFormat="1" ht="52.3" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B22" s="7"/>
-      <c r="C22" s="7"/>
-    </row>
-    <row r="23" spans="2:3" s="6" customFormat="1" ht="39.450000000000003" customHeight="1" x14ac:dyDescent="0.4">
+    </row>
+    <row r="23" spans="2:2" s="6" customFormat="1" ht="39.450000000000003" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B23" s="7"/>
-      <c r="C23" s="7"/>
-    </row>
-    <row r="24" spans="2:3" s="6" customFormat="1" ht="42" customHeight="1" x14ac:dyDescent="0.4">
+    </row>
+    <row r="24" spans="2:2" s="6" customFormat="1" ht="42" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B24" s="7"/>
-      <c r="C24" s="7"/>
-    </row>
-    <row r="25" spans="2:3" s="6" customFormat="1" ht="46.75" customHeight="1" x14ac:dyDescent="0.4">
+    </row>
+    <row r="25" spans="2:2" s="6" customFormat="1" ht="46.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B25" s="7"/>
-      <c r="C25" s="7"/>
-    </row>
-    <row r="26" spans="2:3" s="6" customFormat="1" ht="45.9" customHeight="1" x14ac:dyDescent="0.4">
+    </row>
+    <row r="26" spans="2:2" s="6" customFormat="1" ht="45.9" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B26" s="7"/>
-      <c r="C26" s="7"/>
-    </row>
-    <row r="27" spans="2:3" s="6" customFormat="1" ht="53.6" customHeight="1" x14ac:dyDescent="0.4">
+    </row>
+    <row r="27" spans="2:2" s="6" customFormat="1" ht="53.6" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B27" s="7"/>
-      <c r="C27" s="7"/>
-    </row>
-    <row r="28" spans="2:3" s="6" customFormat="1" ht="44.6" customHeight="1" x14ac:dyDescent="0.4">
+    </row>
+    <row r="28" spans="2:2" s="6" customFormat="1" ht="44.6" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B28" s="7"/>
-      <c r="C28" s="7"/>
-    </row>
-    <row r="29" spans="2:3" s="6" customFormat="1" ht="45.45" customHeight="1" x14ac:dyDescent="0.4">
+    </row>
+    <row r="29" spans="2:2" s="6" customFormat="1" ht="45.45" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B29" s="7"/>
-      <c r="C29" s="7"/>
-    </row>
-    <row r="30" spans="2:3" s="6" customFormat="1" ht="48.45" customHeight="1" x14ac:dyDescent="0.4">
+    </row>
+    <row r="30" spans="2:2" s="6" customFormat="1" ht="48.45" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B30" s="7"/>
-      <c r="C30" s="7"/>
-    </row>
-    <row r="31" spans="2:3" s="6" customFormat="1" ht="41.15" customHeight="1" x14ac:dyDescent="0.4">
+    </row>
+    <row r="31" spans="2:2" s="6" customFormat="1" ht="41.15" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B31" s="7"/>
-      <c r="C31" s="7"/>
-    </row>
-    <row r="32" spans="2:3" s="6" customFormat="1" ht="41.6" customHeight="1" x14ac:dyDescent="0.4">
+    </row>
+    <row r="32" spans="2:2" s="6" customFormat="1" ht="41.6" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B32" s="7"/>
-      <c r="C32" s="7"/>
-    </row>
-    <row r="33" spans="2:3" s="6" customFormat="1" ht="42.9" customHeight="1" x14ac:dyDescent="0.4">
+    </row>
+    <row r="33" spans="2:2" s="6" customFormat="1" ht="42.9" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B33" s="7"/>
-      <c r="C33" s="7"/>
-    </row>
-    <row r="34" spans="2:3" s="6" customFormat="1" ht="35.6" customHeight="1" x14ac:dyDescent="0.4">
+    </row>
+    <row r="34" spans="2:2" s="6" customFormat="1" ht="35.6" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B34" s="7"/>
-      <c r="C34" s="7"/>
-    </row>
-    <row r="35" spans="2:3" s="6" customFormat="1" ht="39" customHeight="1" x14ac:dyDescent="0.4">
+    </row>
+    <row r="35" spans="2:2" s="6" customFormat="1" ht="39" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B35" s="7"/>
-      <c r="C35" s="7"/>
-    </row>
-    <row r="36" spans="2:3" s="6" customFormat="1" ht="43.75" customHeight="1" x14ac:dyDescent="0.4">
+    </row>
+    <row r="36" spans="2:2" s="6" customFormat="1" ht="43.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B36" s="7"/>
-      <c r="C36" s="7"/>
-    </row>
-    <row r="37" spans="2:3" s="6" customFormat="1" ht="44.15" customHeight="1" x14ac:dyDescent="0.4">
+    </row>
+    <row r="37" spans="2:2" s="6" customFormat="1" ht="44.15" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B37" s="7"/>
-      <c r="C37" s="7"/>
-    </row>
-    <row r="38" spans="2:3" s="6" customFormat="1" ht="48.45" customHeight="1" x14ac:dyDescent="0.4">
+    </row>
+    <row r="38" spans="2:2" s="6" customFormat="1" ht="48.45" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B38" s="7"/>
-      <c r="C38" s="7"/>
-    </row>
-    <row r="39" spans="2:3" s="6" customFormat="1" ht="36" customHeight="1" x14ac:dyDescent="0.4">
+    </row>
+    <row r="39" spans="2:2" s="6" customFormat="1" ht="36" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B39" s="7"/>
-      <c r="C39" s="7"/>
-    </row>
-    <row r="40" spans="2:3" s="6" customFormat="1" ht="41.6" customHeight="1" x14ac:dyDescent="0.4">
+    </row>
+    <row r="40" spans="2:2" s="6" customFormat="1" ht="41.6" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B40" s="7"/>
-      <c r="C40" s="7"/>
-    </row>
-    <row r="41" spans="2:3" s="6" customFormat="1" ht="43.3" customHeight="1" x14ac:dyDescent="0.4">
+    </row>
+    <row r="41" spans="2:2" s="6" customFormat="1" ht="43.3" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B41" s="7"/>
-      <c r="C41" s="7"/>
-    </row>
-    <row r="42" spans="2:3" s="6" customFormat="1" ht="45" customHeight="1" x14ac:dyDescent="0.4">
+    </row>
+    <row r="42" spans="2:2" s="6" customFormat="1" ht="45" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B42" s="7"/>
-      <c r="C42" s="7"/>
-    </row>
-    <row r="43" spans="2:3" s="6" customFormat="1" ht="41.6" customHeight="1" x14ac:dyDescent="0.4">
+    </row>
+    <row r="43" spans="2:2" s="6" customFormat="1" ht="41.6" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B43" s="7"/>
-      <c r="C43" s="7"/>
-    </row>
-    <row r="44" spans="2:3" s="6" customFormat="1" ht="43.3" customHeight="1" x14ac:dyDescent="0.4">
+    </row>
+    <row r="44" spans="2:2" s="6" customFormat="1" ht="43.3" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B44" s="7"/>
-      <c r="C44" s="7"/>
-    </row>
-    <row r="45" spans="2:3" s="6" customFormat="1" ht="39.9" customHeight="1" x14ac:dyDescent="0.4">
+    </row>
+    <row r="45" spans="2:2" s="6" customFormat="1" ht="39.9" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B45" s="7"/>
-      <c r="C45" s="7"/>
-    </row>
-    <row r="46" spans="2:3" s="6" customFormat="1" ht="38.6" customHeight="1" x14ac:dyDescent="0.4">
+    </row>
+    <row r="46" spans="2:2" s="6" customFormat="1" ht="38.6" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B46" s="7"/>
-      <c r="C46" s="7"/>
-    </row>
-    <row r="47" spans="2:3" s="6" customFormat="1" ht="41.15" customHeight="1" x14ac:dyDescent="0.4">
+    </row>
+    <row r="47" spans="2:2" s="6" customFormat="1" ht="41.15" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B47" s="7"/>
-      <c r="C47" s="7"/>
-    </row>
-    <row r="48" spans="2:3" s="6" customFormat="1" ht="41.6" customHeight="1" x14ac:dyDescent="0.4">
+    </row>
+    <row r="48" spans="2:2" s="6" customFormat="1" ht="41.6" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B48" s="7"/>
-      <c r="C48" s="7"/>
-    </row>
-    <row r="49" spans="2:3" s="6" customFormat="1" ht="11.6" customHeight="1" x14ac:dyDescent="0.4">
+    </row>
+    <row r="49" spans="2:2" s="6" customFormat="1" ht="11.6" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B49" s="7"/>
-      <c r="C49" s="7"/>
-    </row>
-    <row r="50" spans="2:3" s="6" customFormat="1" ht="11.6" customHeight="1" x14ac:dyDescent="0.4">
+    </row>
+    <row r="50" spans="2:2" s="6" customFormat="1" ht="11.6" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B50" s="7"/>
-      <c r="C50" s="7"/>
-    </row>
-    <row r="51" spans="2:3" s="6" customFormat="1" ht="11.6" customHeight="1" x14ac:dyDescent="0.4">
+    </row>
+    <row r="51" spans="2:2" s="6" customFormat="1" ht="11.6" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B51" s="7"/>
-      <c r="C51" s="7"/>
-    </row>
-    <row r="52" spans="2:3" s="6" customFormat="1" ht="11.6" customHeight="1" x14ac:dyDescent="0.4">
+    </row>
+    <row r="52" spans="2:2" s="6" customFormat="1" ht="11.6" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B52" s="7"/>
-      <c r="C52" s="7"/>
-    </row>
-    <row r="53" spans="2:3" s="6" customFormat="1" ht="11.6" customHeight="1" x14ac:dyDescent="0.4">
+    </row>
+    <row r="53" spans="2:2" s="6" customFormat="1" ht="11.6" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B53" s="7"/>
-      <c r="C53" s="7"/>
-    </row>
-    <row r="54" spans="2:3" s="6" customFormat="1" ht="11.6" customHeight="1" x14ac:dyDescent="0.4">
+    </row>
+    <row r="54" spans="2:2" s="6" customFormat="1" ht="11.6" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B54" s="7"/>
-      <c r="C54" s="7"/>
-    </row>
-    <row r="55" spans="2:3" s="6" customFormat="1" ht="11.6" customHeight="1" x14ac:dyDescent="0.4">
+    </row>
+    <row r="55" spans="2:2" s="6" customFormat="1" ht="11.6" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B55" s="7"/>
-      <c r="C55" s="7"/>
-    </row>
-    <row r="56" spans="2:3" s="6" customFormat="1" ht="11.6" customHeight="1" x14ac:dyDescent="0.4">
+    </row>
+    <row r="56" spans="2:2" s="6" customFormat="1" ht="11.6" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B56" s="7"/>
-      <c r="C56" s="7"/>
-    </row>
-    <row r="57" spans="2:3" s="6" customFormat="1" ht="11.6" customHeight="1" x14ac:dyDescent="0.4">
+    </row>
+    <row r="57" spans="2:2" s="6" customFormat="1" ht="11.6" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B57" s="7"/>
-      <c r="C57" s="7"/>
-    </row>
-    <row r="58" spans="2:3" s="6" customFormat="1" ht="11.6" customHeight="1" x14ac:dyDescent="0.4">
+    </row>
+    <row r="58" spans="2:2" s="6" customFormat="1" ht="11.6" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B58" s="7"/>
-      <c r="C58" s="7"/>
-    </row>
-    <row r="59" spans="2:3" s="6" customFormat="1" ht="11.6" customHeight="1" x14ac:dyDescent="0.4">
+    </row>
+    <row r="59" spans="2:2" s="6" customFormat="1" ht="11.6" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B59" s="7"/>
-      <c r="C59" s="7"/>
-    </row>
-    <row r="60" spans="2:3" s="6" customFormat="1" ht="11.6" customHeight="1" x14ac:dyDescent="0.4">
+    </row>
+    <row r="60" spans="2:2" s="6" customFormat="1" ht="11.6" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B60" s="7"/>
-      <c r="C60" s="7"/>
-    </row>
-    <row r="61" spans="2:3" s="6" customFormat="1" ht="11.6" customHeight="1" x14ac:dyDescent="0.4">
+    </row>
+    <row r="61" spans="2:2" s="6" customFormat="1" ht="11.6" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B61" s="7"/>
-      <c r="C61" s="7"/>
-    </row>
-    <row r="62" spans="2:3" s="6" customFormat="1" ht="11.6" customHeight="1" x14ac:dyDescent="0.4">
+    </row>
+    <row r="62" spans="2:2" s="6" customFormat="1" ht="11.6" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B62" s="7"/>
-      <c r="C62" s="7"/>
-    </row>
-    <row r="63" spans="2:3" s="6" customFormat="1" ht="11.6" customHeight="1" x14ac:dyDescent="0.4">
+    </row>
+    <row r="63" spans="2:2" s="6" customFormat="1" ht="11.6" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B63" s="7"/>
-      <c r="C63" s="7"/>
-    </row>
-    <row r="64" spans="2:3" ht="11.6" customHeight="1" x14ac:dyDescent="0.4">
+    </row>
+    <row r="64" spans="2:2" ht="11.6" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B64" s="3"/>
-      <c r="C64" s="3"/>
-    </row>
-    <row r="65" spans="2:3" ht="11.6" customHeight="1" x14ac:dyDescent="0.4">
+    </row>
+    <row r="65" spans="2:2" ht="11.6" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B65" s="3"/>
-      <c r="C65" s="3"/>
-    </row>
-    <row r="66" spans="2:3" ht="11.6" customHeight="1" x14ac:dyDescent="0.4">
+    </row>
+    <row r="66" spans="2:2" ht="11.6" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B66" s="3"/>
-      <c r="C66" s="3"/>
-    </row>
-    <row r="67" spans="2:3" ht="11.6" customHeight="1" x14ac:dyDescent="0.4">
+    </row>
+    <row r="67" spans="2:2" ht="11.6" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B67" s="3"/>
-      <c r="C67" s="3"/>
-    </row>
-    <row r="68" spans="2:3" ht="11.6" customHeight="1" x14ac:dyDescent="0.4">
+    </row>
+    <row r="68" spans="2:2" ht="11.6" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B68" s="3"/>
-      <c r="C68" s="3"/>
-    </row>
-    <row r="69" spans="2:3" ht="11.6" customHeight="1" x14ac:dyDescent="0.4">
+    </row>
+    <row r="69" spans="2:2" ht="11.6" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B69" s="3"/>
-      <c r="C69" s="3"/>
-    </row>
-    <row r="70" spans="2:3" ht="11.6" customHeight="1" x14ac:dyDescent="0.4">
+    </row>
+    <row r="70" spans="2:2" ht="11.6" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B70" s="3"/>
-      <c r="C70" s="3"/>
-    </row>
-    <row r="71" spans="2:3" ht="11.6" customHeight="1" x14ac:dyDescent="0.4">
+    </row>
+    <row r="71" spans="2:2" ht="11.6" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B71" s="3"/>
-      <c r="C71" s="3"/>
-    </row>
-    <row r="72" spans="2:3" ht="11.6" customHeight="1" x14ac:dyDescent="0.4">
+    </row>
+    <row r="72" spans="2:2" ht="11.6" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B72" s="3"/>
-      <c r="C72" s="3"/>
-    </row>
-    <row r="73" spans="2:3" ht="11.6" customHeight="1" x14ac:dyDescent="0.4">
+    </row>
+    <row r="73" spans="2:2" ht="11.6" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B73" s="3"/>
-      <c r="C73" s="3"/>
-    </row>
-    <row r="74" spans="2:3" ht="11.6" customHeight="1" x14ac:dyDescent="0.4">
+    </row>
+    <row r="74" spans="2:2" ht="11.6" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B74" s="3"/>
-      <c r="C74" s="3"/>
-    </row>
-    <row r="75" spans="2:3" ht="11.6" customHeight="1" x14ac:dyDescent="0.4">
+    </row>
+    <row r="75" spans="2:2" ht="11.6" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B75" s="3"/>
-      <c r="C75" s="3"/>
-    </row>
-    <row r="76" spans="2:3" ht="11.6" customHeight="1" x14ac:dyDescent="0.4">
+    </row>
+    <row r="76" spans="2:2" ht="11.6" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B76" s="3"/>
-      <c r="C76" s="3"/>
-    </row>
-    <row r="77" spans="2:3" ht="11.6" customHeight="1" x14ac:dyDescent="0.4">
+    </row>
+    <row r="77" spans="2:2" ht="11.6" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B77" s="3"/>
-      <c r="C77" s="3"/>
-    </row>
-    <row r="78" spans="2:3" ht="11.6" customHeight="1" x14ac:dyDescent="0.4">
+    </row>
+    <row r="78" spans="2:2" ht="11.6" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B78" s="3"/>
-      <c r="C78" s="3"/>
-    </row>
-    <row r="79" spans="2:3" x14ac:dyDescent="0.4">
+    </row>
+    <row r="79" spans="2:2" x14ac:dyDescent="0.4">
       <c r="B79" s="3"/>
-      <c r="C79" s="3"/>
-    </row>
-    <row r="80" spans="2:3" x14ac:dyDescent="0.4">
+    </row>
+    <row r="80" spans="2:2" x14ac:dyDescent="0.4">
       <c r="B80" s="3"/>
-      <c r="C80" s="3"/>
-    </row>
-    <row r="81" spans="2:3" x14ac:dyDescent="0.4">
+    </row>
+    <row r="81" spans="2:2" x14ac:dyDescent="0.4">
       <c r="B81" s="3"/>
-      <c r="C81" s="3"/>
-    </row>
-    <row r="82" spans="2:3" x14ac:dyDescent="0.4">
+    </row>
+    <row r="82" spans="2:2" x14ac:dyDescent="0.4">
       <c r="B82" s="3"/>
-      <c r="C82" s="3"/>
-    </row>
-    <row r="83" spans="2:3" x14ac:dyDescent="0.4">
+    </row>
+    <row r="83" spans="2:2" x14ac:dyDescent="0.4">
       <c r="B83" s="3"/>
-      <c r="C83" s="3"/>
-    </row>
-    <row r="84" spans="2:3" x14ac:dyDescent="0.4">
+    </row>
+    <row r="84" spans="2:2" x14ac:dyDescent="0.4">
       <c r="B84" s="3"/>
-      <c r="C84" s="3"/>
-    </row>
-    <row r="85" spans="2:3" x14ac:dyDescent="0.4">
+    </row>
+    <row r="85" spans="2:2" x14ac:dyDescent="0.4">
       <c r="B85" s="3"/>
-      <c r="C85" s="3"/>
-    </row>
-    <row r="86" spans="2:3" x14ac:dyDescent="0.4">
+    </row>
+    <row r="86" spans="2:2" x14ac:dyDescent="0.4">
       <c r="B86" s="3"/>
-      <c r="C86" s="3"/>
-    </row>
-    <row r="87" spans="2:3" x14ac:dyDescent="0.4">
+    </row>
+    <row r="87" spans="2:2" x14ac:dyDescent="0.4">
       <c r="B87" s="3"/>
-      <c r="C87" s="3"/>
-    </row>
-    <row r="88" spans="2:3" x14ac:dyDescent="0.4">
+    </row>
+    <row r="88" spans="2:2" x14ac:dyDescent="0.4">
       <c r="B88" s="3"/>
-      <c r="C88" s="3"/>
-    </row>
-    <row r="89" spans="2:3" x14ac:dyDescent="0.4">
+    </row>
+    <row r="89" spans="2:2" x14ac:dyDescent="0.4">
       <c r="B89" s="3"/>
-      <c r="C89" s="3"/>
-    </row>
-    <row r="90" spans="2:3" x14ac:dyDescent="0.4">
+    </row>
+    <row r="90" spans="2:2" x14ac:dyDescent="0.4">
       <c r="B90" s="3"/>
-      <c r="C90" s="3"/>
-    </row>
-    <row r="91" spans="2:3" x14ac:dyDescent="0.4">
+    </row>
+    <row r="91" spans="2:2" x14ac:dyDescent="0.4">
       <c r="B91" s="3"/>
-      <c r="C91" s="3"/>
-    </row>
-    <row r="92" spans="2:3" x14ac:dyDescent="0.4">
+    </row>
+    <row r="92" spans="2:2" x14ac:dyDescent="0.4">
       <c r="B92" s="3"/>
-      <c r="C92" s="3"/>
-    </row>
-    <row r="93" spans="2:3" x14ac:dyDescent="0.4">
+    </row>
+    <row r="93" spans="2:2" x14ac:dyDescent="0.4">
       <c r="B93" s="3"/>
-      <c r="C93" s="3"/>
-    </row>
-    <row r="94" spans="2:3" x14ac:dyDescent="0.4">
+    </row>
+    <row r="94" spans="2:2" x14ac:dyDescent="0.4">
       <c r="B94" s="3"/>
-      <c r="C94" s="3"/>
-    </row>
-    <row r="95" spans="2:3" x14ac:dyDescent="0.4">
+    </row>
+    <row r="95" spans="2:2" x14ac:dyDescent="0.4">
       <c r="B95" s="3"/>
-      <c r="C95" s="3"/>
-    </row>
-    <row r="96" spans="2:3" x14ac:dyDescent="0.4">
+    </row>
+    <row r="96" spans="2:2" x14ac:dyDescent="0.4">
       <c r="B96" s="3"/>
-      <c r="C96" s="3"/>
-    </row>
-    <row r="97" spans="2:3" x14ac:dyDescent="0.4">
+    </row>
+    <row r="97" spans="2:2" x14ac:dyDescent="0.4">
       <c r="B97" s="3"/>
-      <c r="C97" s="3"/>
-    </row>
-    <row r="98" spans="2:3" x14ac:dyDescent="0.4">
+    </row>
+    <row r="98" spans="2:2" x14ac:dyDescent="0.4">
       <c r="B98" s="3"/>
-      <c r="C98" s="3"/>
-    </row>
-    <row r="99" spans="2:3" x14ac:dyDescent="0.4">
+    </row>
+    <row r="99" spans="2:2" x14ac:dyDescent="0.4">
       <c r="B99" s="3"/>
-      <c r="C99" s="3"/>
-    </row>
-    <row r="100" spans="2:3" x14ac:dyDescent="0.4">
+    </row>
+    <row r="100" spans="2:2" x14ac:dyDescent="0.4">
       <c r="B100" s="3"/>
-      <c r="C100" s="3"/>
-    </row>
-    <row r="101" spans="2:3" x14ac:dyDescent="0.4">
+    </row>
+    <row r="101" spans="2:2" x14ac:dyDescent="0.4">
       <c r="B101" s="3"/>
-      <c r="C101" s="3"/>
-    </row>
-    <row r="102" spans="2:3" x14ac:dyDescent="0.4">
+    </row>
+    <row r="102" spans="2:2" x14ac:dyDescent="0.4">
       <c r="B102" s="3"/>
-      <c r="C102" s="3"/>
-    </row>
-    <row r="103" spans="2:3" x14ac:dyDescent="0.4">
+    </row>
+    <row r="103" spans="2:2" x14ac:dyDescent="0.4">
       <c r="B103" s="3"/>
-      <c r="C103" s="3"/>
-    </row>
-    <row r="104" spans="2:3" x14ac:dyDescent="0.4">
+    </row>
+    <row r="104" spans="2:2" x14ac:dyDescent="0.4">
       <c r="B104" s="3"/>
-      <c r="C104" s="3"/>
-    </row>
-    <row r="105" spans="2:3" x14ac:dyDescent="0.4">
+    </row>
+    <row r="105" spans="2:2" x14ac:dyDescent="0.4">
       <c r="B105" s="3"/>
-      <c r="C105" s="3"/>
-    </row>
-    <row r="106" spans="2:3" x14ac:dyDescent="0.4">
+    </row>
+    <row r="106" spans="2:2" x14ac:dyDescent="0.4">
       <c r="B106" s="3"/>
-      <c r="C106" s="3"/>
-    </row>
-    <row r="107" spans="2:3" x14ac:dyDescent="0.4">
+    </row>
+    <row r="107" spans="2:2" x14ac:dyDescent="0.4">
       <c r="B107" s="3"/>
-      <c r="C107" s="3"/>
-    </row>
-    <row r="108" spans="2:3" x14ac:dyDescent="0.4">
+    </row>
+    <row r="108" spans="2:2" x14ac:dyDescent="0.4">
       <c r="B108" s="3"/>
-      <c r="C108" s="3"/>
-    </row>
-    <row r="109" spans="2:3" x14ac:dyDescent="0.4">
+    </row>
+    <row r="109" spans="2:2" x14ac:dyDescent="0.4">
       <c r="B109" s="3"/>
-      <c r="C109" s="3"/>
-    </row>
-    <row r="110" spans="2:3" x14ac:dyDescent="0.4">
+    </row>
+    <row r="110" spans="2:2" x14ac:dyDescent="0.4">
       <c r="B110" s="3"/>
-      <c r="C110" s="3"/>
-    </row>
-    <row r="111" spans="2:3" x14ac:dyDescent="0.4">
+    </row>
+    <row r="111" spans="2:2" x14ac:dyDescent="0.4">
       <c r="B111" s="3"/>
-      <c r="C111" s="3"/>
     </row>
   </sheetData>
-  <mergeCells count="15">
-    <mergeCell ref="A1:D3"/>
-    <mergeCell ref="A11:D11"/>
-    <mergeCell ref="C9:D9"/>
+  <mergeCells count="9">
+    <mergeCell ref="A1:C3"/>
+    <mergeCell ref="A11:C11"/>
     <mergeCell ref="A5:B5"/>
     <mergeCell ref="A6:B6"/>
     <mergeCell ref="A7:B7"/>
     <mergeCell ref="A8:B8"/>
     <mergeCell ref="A10:B10"/>
-    <mergeCell ref="C5:D5"/>
-    <mergeCell ref="C6:D6"/>
-    <mergeCell ref="C7:D7"/>
-    <mergeCell ref="C8:D8"/>
-    <mergeCell ref="C10:D10"/>
     <mergeCell ref="A9:B9"/>
-    <mergeCell ref="A4:D4"/>
+    <mergeCell ref="A4:C4"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>

--- a/resources/public/template/TemCXLog.xlsx
+++ b/resources/public/template/TemCXLog.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\xampp\htdocs\hospital\resources\public\template\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7030AF01-07DA-4011-8526-2393FB6113B3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{89690832-A237-4CB9-9E45-2B887D07FCDE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-103" yWindow="-103" windowWidth="24892" windowHeight="14914" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="11" uniqueCount="11">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="12" uniqueCount="12">
   <si>
     <t>STT</t>
   </si>
@@ -51,13 +51,16 @@
     <t>Bảng chỉ số xét nghiệm</t>
   </si>
   <si>
-    <t>Thông tin bệnh nhân</t>
-  </si>
-  <si>
     <t>Năm sinh:</t>
   </si>
   <si>
-    <t>Ngày lấy máu - địa chỉ:</t>
+    <t>Số điện thoại:</t>
+  </si>
+  <si>
+    <t>Thông tin xét nghiệm</t>
+  </si>
+  <si>
+    <t>Thời gian - địa chỉ:</t>
   </si>
 </sst>
 </file>
@@ -687,7 +690,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:V111"/>
+  <dimension ref="A1:V112"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
       <selection activeCell="C7" sqref="C7"/>
@@ -706,7 +709,7 @@
   <sheetData>
     <row r="1" spans="1:22" ht="14.6" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A1" s="9" t="s">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="B1" s="10"/>
       <c r="C1" s="11"/>
@@ -778,7 +781,7 @@
       <c r="U3" s="2"/>
       <c r="V3" s="2"/>
     </row>
-    <row r="4" spans="1:22" ht="29.15" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="4" spans="1:22" ht="39.9" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A4" s="25"/>
       <c r="B4" s="26"/>
       <c r="C4" s="27"/>
@@ -802,7 +805,7 @@
       <c r="U4" s="2"/>
       <c r="V4" s="2"/>
     </row>
-    <row r="5" spans="1:22" ht="42.9" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="5" spans="1:22" ht="50.15" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A5" s="21" t="s">
         <v>3</v>
       </c>
@@ -828,7 +831,7 @@
       <c r="U5" s="2"/>
       <c r="V5" s="2"/>
     </row>
-    <row r="6" spans="1:22" ht="52.3" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="6" spans="1:22" ht="53.6" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A6" s="21" t="s">
         <v>9</v>
       </c>
@@ -854,9 +857,9 @@
       <c r="U6" s="2"/>
       <c r="V6" s="2"/>
     </row>
-    <row r="7" spans="1:22" ht="53.6" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="7" spans="1:22" ht="52.3" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A7" s="21" t="s">
-        <v>4</v>
+        <v>8</v>
       </c>
       <c r="B7" s="22"/>
       <c r="C7" s="8"/>
@@ -881,10 +884,10 @@
       <c r="V7" s="2"/>
     </row>
     <row r="8" spans="1:22" ht="53.6" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A8" s="23" t="s">
-        <v>5</v>
+      <c r="A8" s="21" t="s">
+        <v>4</v>
       </c>
-      <c r="B8" s="24"/>
+      <c r="B8" s="22"/>
       <c r="C8" s="8"/>
       <c r="D8" s="2"/>
       <c r="E8" s="2"/>
@@ -906,9 +909,9 @@
       <c r="U8" s="2"/>
       <c r="V8" s="2"/>
     </row>
-    <row r="9" spans="1:22" ht="66" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="9" spans="1:22" ht="53.6" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A9" s="23" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="B9" s="24"/>
       <c r="C9" s="8"/>
@@ -932,9 +935,9 @@
       <c r="U9" s="2"/>
       <c r="V9" s="2"/>
     </row>
-    <row r="10" spans="1:22" ht="66.45" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="10" spans="1:22" ht="66" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A10" s="23" t="s">
-        <v>10</v>
+        <v>6</v>
       </c>
       <c r="B10" s="24"/>
       <c r="C10" s="8"/>
@@ -958,12 +961,12 @@
       <c r="U10" s="2"/>
       <c r="V10" s="2"/>
     </row>
-    <row r="11" spans="1:22" ht="63.45" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A11" s="18" t="s">
-        <v>7</v>
+    <row r="11" spans="1:22" ht="66.45" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="A11" s="23" t="s">
+        <v>11</v>
       </c>
-      <c r="B11" s="19"/>
-      <c r="C11" s="20"/>
+      <c r="B11" s="24"/>
+      <c r="C11" s="8"/>
       <c r="D11" s="2"/>
       <c r="E11" s="2"/>
       <c r="F11" s="2"/>
@@ -984,126 +987,149 @@
       <c r="U11" s="2"/>
       <c r="V11" s="2"/>
     </row>
-    <row r="12" spans="1:22" s="5" customFormat="1" ht="42" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A12" s="4" t="s">
+    <row r="12" spans="1:22" ht="63.45" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="A12" s="18" t="s">
+        <v>7</v>
+      </c>
+      <c r="B12" s="19"/>
+      <c r="C12" s="20"/>
+      <c r="D12" s="2"/>
+      <c r="E12" s="2"/>
+      <c r="F12" s="2"/>
+      <c r="G12" s="2"/>
+      <c r="H12" s="2"/>
+      <c r="I12" s="2"/>
+      <c r="J12" s="2"/>
+      <c r="K12" s="2"/>
+      <c r="L12" s="2"/>
+      <c r="M12" s="2"/>
+      <c r="N12" s="2"/>
+      <c r="O12" s="2"/>
+      <c r="P12" s="2"/>
+      <c r="Q12" s="2"/>
+      <c r="R12" s="2"/>
+      <c r="S12" s="2"/>
+      <c r="T12" s="2"/>
+      <c r="U12" s="2"/>
+      <c r="V12" s="2"/>
+    </row>
+    <row r="13" spans="1:22" s="5" customFormat="1" ht="42" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="A13" s="4" t="s">
         <v>0</v>
       </c>
-      <c r="B12" s="4" t="s">
+      <c r="B13" s="4" t="s">
         <v>1</v>
       </c>
-      <c r="C12" s="4" t="s">
+      <c r="C13" s="4" t="s">
         <v>2</v>
       </c>
     </row>
-    <row r="13" spans="1:22" s="6" customFormat="1" ht="36.9" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="B13" s="7"/>
-    </row>
-    <row r="14" spans="1:22" s="6" customFormat="1" ht="43.3" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="14" spans="1:22" s="6" customFormat="1" ht="36.9" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B14" s="7"/>
     </row>
-    <row r="15" spans="1:22" s="6" customFormat="1" ht="40.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="15" spans="1:22" s="6" customFormat="1" ht="43.3" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B15" s="7"/>
     </row>
-    <row r="16" spans="1:22" s="6" customFormat="1" ht="47.6" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="16" spans="1:22" s="6" customFormat="1" ht="40.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B16" s="7"/>
     </row>
-    <row r="17" spans="2:2" s="6" customFormat="1" ht="40.299999999999997" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="17" spans="2:2" s="6" customFormat="1" ht="47.6" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B17" s="7"/>
     </row>
-    <row r="18" spans="2:2" s="6" customFormat="1" ht="44.15" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="18" spans="2:2" s="6" customFormat="1" ht="40.299999999999997" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B18" s="7"/>
     </row>
-    <row r="19" spans="2:2" s="6" customFormat="1" ht="42" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="19" spans="2:2" s="6" customFormat="1" ht="44.15" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B19" s="7"/>
     </row>
-    <row r="20" spans="2:2" s="6" customFormat="1" ht="39" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="20" spans="2:2" s="6" customFormat="1" ht="42" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B20" s="7"/>
     </row>
-    <row r="21" spans="2:2" s="6" customFormat="1" ht="54.45" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="21" spans="2:2" s="6" customFormat="1" ht="39" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B21" s="7"/>
     </row>
-    <row r="22" spans="2:2" s="6" customFormat="1" ht="52.3" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="22" spans="2:2" s="6" customFormat="1" ht="54.45" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B22" s="7"/>
     </row>
-    <row r="23" spans="2:2" s="6" customFormat="1" ht="39.450000000000003" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="23" spans="2:2" s="6" customFormat="1" ht="52.3" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B23" s="7"/>
     </row>
-    <row r="24" spans="2:2" s="6" customFormat="1" ht="42" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="24" spans="2:2" s="6" customFormat="1" ht="39.450000000000003" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B24" s="7"/>
     </row>
-    <row r="25" spans="2:2" s="6" customFormat="1" ht="46.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="25" spans="2:2" s="6" customFormat="1" ht="42" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B25" s="7"/>
     </row>
-    <row r="26" spans="2:2" s="6" customFormat="1" ht="45.9" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="26" spans="2:2" s="6" customFormat="1" ht="46.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B26" s="7"/>
     </row>
-    <row r="27" spans="2:2" s="6" customFormat="1" ht="53.6" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="27" spans="2:2" s="6" customFormat="1" ht="45.9" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B27" s="7"/>
     </row>
-    <row r="28" spans="2:2" s="6" customFormat="1" ht="44.6" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="28" spans="2:2" s="6" customFormat="1" ht="53.6" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B28" s="7"/>
     </row>
-    <row r="29" spans="2:2" s="6" customFormat="1" ht="45.45" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="29" spans="2:2" s="6" customFormat="1" ht="44.6" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B29" s="7"/>
     </row>
-    <row r="30" spans="2:2" s="6" customFormat="1" ht="48.45" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="30" spans="2:2" s="6" customFormat="1" ht="45.45" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B30" s="7"/>
     </row>
-    <row r="31" spans="2:2" s="6" customFormat="1" ht="41.15" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="31" spans="2:2" s="6" customFormat="1" ht="48.45" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B31" s="7"/>
     </row>
-    <row r="32" spans="2:2" s="6" customFormat="1" ht="41.6" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="32" spans="2:2" s="6" customFormat="1" ht="41.15" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B32" s="7"/>
     </row>
-    <row r="33" spans="2:2" s="6" customFormat="1" ht="42.9" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="33" spans="2:2" s="6" customFormat="1" ht="41.6" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B33" s="7"/>
     </row>
-    <row r="34" spans="2:2" s="6" customFormat="1" ht="35.6" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="34" spans="2:2" s="6" customFormat="1" ht="42.9" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B34" s="7"/>
     </row>
-    <row r="35" spans="2:2" s="6" customFormat="1" ht="39" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="35" spans="2:2" s="6" customFormat="1" ht="35.6" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B35" s="7"/>
     </row>
-    <row r="36" spans="2:2" s="6" customFormat="1" ht="43.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="36" spans="2:2" s="6" customFormat="1" ht="39" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B36" s="7"/>
     </row>
-    <row r="37" spans="2:2" s="6" customFormat="1" ht="44.15" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="37" spans="2:2" s="6" customFormat="1" ht="43.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B37" s="7"/>
     </row>
-    <row r="38" spans="2:2" s="6" customFormat="1" ht="48.45" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="38" spans="2:2" s="6" customFormat="1" ht="44.15" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B38" s="7"/>
     </row>
-    <row r="39" spans="2:2" s="6" customFormat="1" ht="36" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="39" spans="2:2" s="6" customFormat="1" ht="48.45" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B39" s="7"/>
     </row>
-    <row r="40" spans="2:2" s="6" customFormat="1" ht="41.6" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="40" spans="2:2" s="6" customFormat="1" ht="36" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B40" s="7"/>
     </row>
-    <row r="41" spans="2:2" s="6" customFormat="1" ht="43.3" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="41" spans="2:2" s="6" customFormat="1" ht="41.6" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B41" s="7"/>
     </row>
-    <row r="42" spans="2:2" s="6" customFormat="1" ht="45" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="42" spans="2:2" s="6" customFormat="1" ht="43.3" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B42" s="7"/>
     </row>
-    <row r="43" spans="2:2" s="6" customFormat="1" ht="41.6" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="43" spans="2:2" s="6" customFormat="1" ht="45" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B43" s="7"/>
     </row>
-    <row r="44" spans="2:2" s="6" customFormat="1" ht="43.3" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="44" spans="2:2" s="6" customFormat="1" ht="41.6" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B44" s="7"/>
     </row>
-    <row r="45" spans="2:2" s="6" customFormat="1" ht="39.9" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="45" spans="2:2" s="6" customFormat="1" ht="43.3" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B45" s="7"/>
     </row>
-    <row r="46" spans="2:2" s="6" customFormat="1" ht="38.6" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="46" spans="2:2" s="6" customFormat="1" ht="39.9" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B46" s="7"/>
     </row>
-    <row r="47" spans="2:2" s="6" customFormat="1" ht="41.15" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="47" spans="2:2" s="6" customFormat="1" ht="38.6" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B47" s="7"/>
     </row>
-    <row r="48" spans="2:2" s="6" customFormat="1" ht="41.6" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="48" spans="2:2" s="6" customFormat="1" ht="41.15" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B48" s="7"/>
     </row>
-    <row r="49" spans="2:2" s="6" customFormat="1" ht="11.6" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="49" spans="2:2" s="6" customFormat="1" ht="41.6" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B49" s="7"/>
     </row>
     <row r="50" spans="2:2" s="6" customFormat="1" ht="11.6" customHeight="1" x14ac:dyDescent="0.4">
@@ -1148,8 +1174,8 @@
     <row r="63" spans="2:2" s="6" customFormat="1" ht="11.6" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B63" s="7"/>
     </row>
-    <row r="64" spans="2:2" ht="11.6" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="B64" s="3"/>
+    <row r="64" spans="2:2" s="6" customFormat="1" ht="11.6" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="B64" s="7"/>
     </row>
     <row r="65" spans="2:2" ht="11.6" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B65" s="3"/>
@@ -1193,7 +1219,7 @@
     <row r="78" spans="2:2" ht="11.6" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B78" s="3"/>
     </row>
-    <row r="79" spans="2:2" x14ac:dyDescent="0.4">
+    <row r="79" spans="2:2" ht="11.6" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B79" s="3"/>
     </row>
     <row r="80" spans="2:2" x14ac:dyDescent="0.4">
@@ -1292,17 +1318,21 @@
     <row r="111" spans="2:2" x14ac:dyDescent="0.4">
       <c r="B111" s="3"/>
     </row>
+    <row r="112" spans="2:2" x14ac:dyDescent="0.4">
+      <c r="B112" s="3"/>
+    </row>
   </sheetData>
-  <mergeCells count="9">
+  <mergeCells count="10">
     <mergeCell ref="A1:C3"/>
-    <mergeCell ref="A11:C11"/>
+    <mergeCell ref="A12:C12"/>
     <mergeCell ref="A5:B5"/>
-    <mergeCell ref="A6:B6"/>
     <mergeCell ref="A7:B7"/>
     <mergeCell ref="A8:B8"/>
+    <mergeCell ref="A9:B9"/>
+    <mergeCell ref="A11:B11"/>
     <mergeCell ref="A10:B10"/>
-    <mergeCell ref="A9:B9"/>
     <mergeCell ref="A4:C4"/>
+    <mergeCell ref="A6:B6"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>

--- a/resources/public/template/TemCXLog.xlsx
+++ b/resources/public/template/TemCXLog.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="26327"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="26626"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\xampp\htdocs\hospital\resources\public\template\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{89690832-A237-4CB9-9E45-2B887D07FCDE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6D5BD3A1-8CC7-4538-9562-0AA770E21FF7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-103" yWindow="-103" windowWidth="24892" windowHeight="14914" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -67,7 +67,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="12" x14ac:knownFonts="1">
+  <fonts count="13" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -161,6 +161,13 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <sz val="16"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
   <fills count="4">
     <fill>
@@ -326,7 +333,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="28">
+  <cellXfs count="30">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
@@ -408,6 +415,12 @@
     </xf>
     <xf numFmtId="0" fontId="11" fillId="3" borderId="3" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
@@ -692,8 +705,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:V112"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="C7" sqref="C7"/>
+    <sheetView tabSelected="1" topLeftCell="A3" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="C9" sqref="C9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.15234375" defaultRowHeight="14.6" x14ac:dyDescent="0.4"/>
@@ -1024,157 +1037,229 @@
         <v>2</v>
       </c>
     </row>
-    <row r="14" spans="1:22" s="6" customFormat="1" ht="36.9" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="B14" s="7"/>
+    <row r="14" spans="1:22" s="6" customFormat="1" ht="56.15" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="A14" s="28"/>
+      <c r="B14" s="29"/>
+      <c r="C14" s="28"/>
     </row>
     <row r="15" spans="1:22" s="6" customFormat="1" ht="43.3" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="B15" s="7"/>
+      <c r="A15" s="28"/>
+      <c r="B15" s="29"/>
+      <c r="C15" s="28"/>
     </row>
     <row r="16" spans="1:22" s="6" customFormat="1" ht="40.75" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="B16" s="7"/>
-    </row>
-    <row r="17" spans="2:2" s="6" customFormat="1" ht="47.6" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="B17" s="7"/>
-    </row>
-    <row r="18" spans="2:2" s="6" customFormat="1" ht="40.299999999999997" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="B18" s="7"/>
-    </row>
-    <row r="19" spans="2:2" s="6" customFormat="1" ht="44.15" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="B19" s="7"/>
-    </row>
-    <row r="20" spans="2:2" s="6" customFormat="1" ht="42" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="B20" s="7"/>
-    </row>
-    <row r="21" spans="2:2" s="6" customFormat="1" ht="39" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="B21" s="7"/>
-    </row>
-    <row r="22" spans="2:2" s="6" customFormat="1" ht="54.45" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="B22" s="7"/>
-    </row>
-    <row r="23" spans="2:2" s="6" customFormat="1" ht="52.3" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="B23" s="7"/>
-    </row>
-    <row r="24" spans="2:2" s="6" customFormat="1" ht="39.450000000000003" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="B24" s="7"/>
-    </row>
-    <row r="25" spans="2:2" s="6" customFormat="1" ht="42" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="B25" s="7"/>
-    </row>
-    <row r="26" spans="2:2" s="6" customFormat="1" ht="46.75" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="B26" s="7"/>
-    </row>
-    <row r="27" spans="2:2" s="6" customFormat="1" ht="45.9" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="B27" s="7"/>
-    </row>
-    <row r="28" spans="2:2" s="6" customFormat="1" ht="53.6" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="B28" s="7"/>
-    </row>
-    <row r="29" spans="2:2" s="6" customFormat="1" ht="44.6" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="B29" s="7"/>
-    </row>
-    <row r="30" spans="2:2" s="6" customFormat="1" ht="45.45" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="B30" s="7"/>
-    </row>
-    <row r="31" spans="2:2" s="6" customFormat="1" ht="48.45" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="B31" s="7"/>
-    </row>
-    <row r="32" spans="2:2" s="6" customFormat="1" ht="41.15" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="B32" s="7"/>
-    </row>
-    <row r="33" spans="2:2" s="6" customFormat="1" ht="41.6" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="B33" s="7"/>
-    </row>
-    <row r="34" spans="2:2" s="6" customFormat="1" ht="42.9" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="B34" s="7"/>
-    </row>
-    <row r="35" spans="2:2" s="6" customFormat="1" ht="35.6" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="B35" s="7"/>
-    </row>
-    <row r="36" spans="2:2" s="6" customFormat="1" ht="39" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="B36" s="7"/>
-    </row>
-    <row r="37" spans="2:2" s="6" customFormat="1" ht="43.75" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="B37" s="7"/>
-    </row>
-    <row r="38" spans="2:2" s="6" customFormat="1" ht="44.15" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="B38" s="7"/>
-    </row>
-    <row r="39" spans="2:2" s="6" customFormat="1" ht="48.45" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="B39" s="7"/>
-    </row>
-    <row r="40" spans="2:2" s="6" customFormat="1" ht="36" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="B40" s="7"/>
-    </row>
-    <row r="41" spans="2:2" s="6" customFormat="1" ht="41.6" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="B41" s="7"/>
-    </row>
-    <row r="42" spans="2:2" s="6" customFormat="1" ht="43.3" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="B42" s="7"/>
-    </row>
-    <row r="43" spans="2:2" s="6" customFormat="1" ht="45" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="B43" s="7"/>
-    </row>
-    <row r="44" spans="2:2" s="6" customFormat="1" ht="41.6" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="B44" s="7"/>
-    </row>
-    <row r="45" spans="2:2" s="6" customFormat="1" ht="43.3" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="B45" s="7"/>
-    </row>
-    <row r="46" spans="2:2" s="6" customFormat="1" ht="39.9" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="B46" s="7"/>
-    </row>
-    <row r="47" spans="2:2" s="6" customFormat="1" ht="38.6" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="B47" s="7"/>
-    </row>
-    <row r="48" spans="2:2" s="6" customFormat="1" ht="41.15" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="B48" s="7"/>
-    </row>
-    <row r="49" spans="2:2" s="6" customFormat="1" ht="41.6" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="B49" s="7"/>
-    </row>
-    <row r="50" spans="2:2" s="6" customFormat="1" ht="11.6" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="A16" s="28"/>
+      <c r="B16" s="29"/>
+      <c r="C16" s="28"/>
+    </row>
+    <row r="17" spans="1:3" s="6" customFormat="1" ht="47.6" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="A17" s="28"/>
+      <c r="B17" s="29"/>
+      <c r="C17" s="28"/>
+    </row>
+    <row r="18" spans="1:3" s="6" customFormat="1" ht="40.299999999999997" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="A18" s="28"/>
+      <c r="B18" s="29"/>
+      <c r="C18" s="28"/>
+    </row>
+    <row r="19" spans="1:3" s="6" customFormat="1" ht="44.15" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="A19" s="28"/>
+      <c r="B19" s="29"/>
+      <c r="C19" s="28"/>
+    </row>
+    <row r="20" spans="1:3" s="6" customFormat="1" ht="42" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="A20" s="28"/>
+      <c r="B20" s="29"/>
+      <c r="C20" s="28"/>
+    </row>
+    <row r="21" spans="1:3" s="6" customFormat="1" ht="39" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="A21" s="28"/>
+      <c r="B21" s="29"/>
+      <c r="C21" s="28"/>
+    </row>
+    <row r="22" spans="1:3" s="6" customFormat="1" ht="54.45" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="A22" s="28"/>
+      <c r="B22" s="29"/>
+      <c r="C22" s="28"/>
+    </row>
+    <row r="23" spans="1:3" s="6" customFormat="1" ht="52.3" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="A23" s="28"/>
+      <c r="B23" s="29"/>
+      <c r="C23" s="28"/>
+    </row>
+    <row r="24" spans="1:3" s="6" customFormat="1" ht="39.450000000000003" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="A24" s="28"/>
+      <c r="B24" s="29"/>
+      <c r="C24" s="28"/>
+    </row>
+    <row r="25" spans="1:3" s="6" customFormat="1" ht="42" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="A25" s="28"/>
+      <c r="B25" s="29"/>
+      <c r="C25" s="28"/>
+    </row>
+    <row r="26" spans="1:3" s="6" customFormat="1" ht="46.75" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="A26" s="28"/>
+      <c r="B26" s="29"/>
+      <c r="C26" s="28"/>
+    </row>
+    <row r="27" spans="1:3" s="6" customFormat="1" ht="45.9" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="A27" s="28"/>
+      <c r="B27" s="29"/>
+      <c r="C27" s="28"/>
+    </row>
+    <row r="28" spans="1:3" s="6" customFormat="1" ht="53.6" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="A28" s="28"/>
+      <c r="B28" s="29"/>
+      <c r="C28" s="28"/>
+    </row>
+    <row r="29" spans="1:3" s="6" customFormat="1" ht="44.6" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="A29" s="28"/>
+      <c r="B29" s="29"/>
+      <c r="C29" s="28"/>
+    </row>
+    <row r="30" spans="1:3" s="6" customFormat="1" ht="45.45" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="A30" s="28"/>
+      <c r="B30" s="29"/>
+      <c r="C30" s="28"/>
+    </row>
+    <row r="31" spans="1:3" s="6" customFormat="1" ht="48.45" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="A31" s="28"/>
+      <c r="B31" s="29"/>
+      <c r="C31" s="28"/>
+    </row>
+    <row r="32" spans="1:3" s="6" customFormat="1" ht="41.15" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="A32" s="28"/>
+      <c r="B32" s="29"/>
+      <c r="C32" s="28"/>
+    </row>
+    <row r="33" spans="1:3" s="6" customFormat="1" ht="41.6" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="A33" s="28"/>
+      <c r="B33" s="29"/>
+      <c r="C33" s="28"/>
+    </row>
+    <row r="34" spans="1:3" s="6" customFormat="1" ht="42.9" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="A34" s="28"/>
+      <c r="B34" s="29"/>
+      <c r="C34" s="28"/>
+    </row>
+    <row r="35" spans="1:3" s="6" customFormat="1" ht="35.6" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="A35" s="28"/>
+      <c r="B35" s="29"/>
+      <c r="C35" s="28"/>
+    </row>
+    <row r="36" spans="1:3" s="6" customFormat="1" ht="39" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="A36" s="28"/>
+      <c r="B36" s="29"/>
+      <c r="C36" s="28"/>
+    </row>
+    <row r="37" spans="1:3" s="6" customFormat="1" ht="43.75" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="A37" s="28"/>
+      <c r="B37" s="29"/>
+      <c r="C37" s="28"/>
+    </row>
+    <row r="38" spans="1:3" s="6" customFormat="1" ht="44.15" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="A38" s="28"/>
+      <c r="B38" s="29"/>
+      <c r="C38" s="28"/>
+    </row>
+    <row r="39" spans="1:3" s="6" customFormat="1" ht="48.45" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="A39" s="28"/>
+      <c r="B39" s="29"/>
+      <c r="C39" s="28"/>
+    </row>
+    <row r="40" spans="1:3" s="6" customFormat="1" ht="36" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="A40" s="28"/>
+      <c r="B40" s="29"/>
+      <c r="C40" s="28"/>
+    </row>
+    <row r="41" spans="1:3" s="6" customFormat="1" ht="41.6" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="A41" s="28"/>
+      <c r="B41" s="29"/>
+      <c r="C41" s="28"/>
+    </row>
+    <row r="42" spans="1:3" s="6" customFormat="1" ht="43.3" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="A42" s="28"/>
+      <c r="B42" s="29"/>
+      <c r="C42" s="28"/>
+    </row>
+    <row r="43" spans="1:3" s="6" customFormat="1" ht="45" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="A43" s="28"/>
+      <c r="B43" s="29"/>
+      <c r="C43" s="28"/>
+    </row>
+    <row r="44" spans="1:3" s="6" customFormat="1" ht="41.6" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="A44" s="28"/>
+      <c r="B44" s="29"/>
+      <c r="C44" s="28"/>
+    </row>
+    <row r="45" spans="1:3" s="6" customFormat="1" ht="43.3" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="A45" s="28"/>
+      <c r="B45" s="29"/>
+      <c r="C45" s="28"/>
+    </row>
+    <row r="46" spans="1:3" s="6" customFormat="1" ht="39.9" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="A46" s="28"/>
+      <c r="B46" s="29"/>
+      <c r="C46" s="28"/>
+    </row>
+    <row r="47" spans="1:3" s="6" customFormat="1" ht="38.6" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="A47" s="28"/>
+      <c r="B47" s="29"/>
+      <c r="C47" s="28"/>
+    </row>
+    <row r="48" spans="1:3" s="6" customFormat="1" ht="41.15" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="A48" s="28"/>
+      <c r="B48" s="29"/>
+      <c r="C48" s="28"/>
+    </row>
+    <row r="49" spans="1:3" s="6" customFormat="1" ht="41.6" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="A49" s="28"/>
+      <c r="B49" s="29"/>
+      <c r="C49" s="28"/>
+    </row>
+    <row r="50" spans="1:3" s="6" customFormat="1" ht="11.6" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B50" s="7"/>
     </row>
-    <row r="51" spans="2:2" s="6" customFormat="1" ht="11.6" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="51" spans="1:3" s="6" customFormat="1" ht="11.6" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B51" s="7"/>
     </row>
-    <row r="52" spans="2:2" s="6" customFormat="1" ht="11.6" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="52" spans="1:3" s="6" customFormat="1" ht="11.6" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B52" s="7"/>
     </row>
-    <row r="53" spans="2:2" s="6" customFormat="1" ht="11.6" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="53" spans="1:3" s="6" customFormat="1" ht="11.6" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B53" s="7"/>
     </row>
-    <row r="54" spans="2:2" s="6" customFormat="1" ht="11.6" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="54" spans="1:3" s="6" customFormat="1" ht="11.6" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B54" s="7"/>
     </row>
-    <row r="55" spans="2:2" s="6" customFormat="1" ht="11.6" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="55" spans="1:3" s="6" customFormat="1" ht="11.6" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B55" s="7"/>
     </row>
-    <row r="56" spans="2:2" s="6" customFormat="1" ht="11.6" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="56" spans="1:3" s="6" customFormat="1" ht="11.6" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B56" s="7"/>
     </row>
-    <row r="57" spans="2:2" s="6" customFormat="1" ht="11.6" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="57" spans="1:3" s="6" customFormat="1" ht="11.6" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B57" s="7"/>
     </row>
-    <row r="58" spans="2:2" s="6" customFormat="1" ht="11.6" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="58" spans="1:3" s="6" customFormat="1" ht="11.6" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B58" s="7"/>
     </row>
-    <row r="59" spans="2:2" s="6" customFormat="1" ht="11.6" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="59" spans="1:3" s="6" customFormat="1" ht="11.6" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B59" s="7"/>
     </row>
-    <row r="60" spans="2:2" s="6" customFormat="1" ht="11.6" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="60" spans="1:3" s="6" customFormat="1" ht="11.6" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B60" s="7"/>
     </row>
-    <row r="61" spans="2:2" s="6" customFormat="1" ht="11.6" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="61" spans="1:3" s="6" customFormat="1" ht="11.6" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B61" s="7"/>
     </row>
-    <row r="62" spans="2:2" s="6" customFormat="1" ht="11.6" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="62" spans="1:3" s="6" customFormat="1" ht="11.6" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B62" s="7"/>
     </row>
-    <row r="63" spans="2:2" s="6" customFormat="1" ht="11.6" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="63" spans="1:3" s="6" customFormat="1" ht="11.6" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B63" s="7"/>
     </row>
-    <row r="64" spans="2:2" s="6" customFormat="1" ht="11.6" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="64" spans="1:3" s="6" customFormat="1" ht="11.6" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B64" s="7"/>
     </row>
     <row r="65" spans="2:2" ht="11.6" customHeight="1" x14ac:dyDescent="0.4">

--- a/resources/public/template/TemCXLog.xlsx
+++ b/resources/public/template/TemCXLog.xlsx
@@ -1,16 +1,15 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="26626"/>
-  <workbookPr/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
+  <workbookPr defaultThemeVersion="164011"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\xampp\htdocs\hospital\resources\public\template\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\WWW\Hospital\resources\public\template\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6D5BD3A1-8CC7-4538-9562-0AA770E21FF7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-103" yWindow="-103" windowWidth="24892" windowHeight="14914" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-105" yWindow="-105" windowWidth="24885" windowHeight="14910"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -66,7 +65,7 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
   <fonts count="13" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -359,6 +358,12 @@
     <xf numFmtId="0" fontId="6" fillId="3" borderId="3" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="5" fillId="3" borderId="5" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
@@ -415,12 +420,6 @@
     </xf>
     <xf numFmtId="0" fontId="11" fillId="3" borderId="3" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
@@ -702,30 +701,30 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:V112"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A3" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="C9" sqref="C9"/>
+    <sheetView tabSelected="1" topLeftCell="A54" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="B58" sqref="B58"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.15234375" defaultRowHeight="14.6" x14ac:dyDescent="0.4"/>
+  <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="9.3828125" style="1" customWidth="1"/>
-    <col min="2" max="2" width="56.765625" style="1" customWidth="1"/>
-    <col min="3" max="3" width="103.69140625" style="1" customWidth="1"/>
+    <col min="1" max="1" width="9.42578125" style="1" customWidth="1"/>
+    <col min="2" max="2" width="56.7109375" style="1" customWidth="1"/>
+    <col min="3" max="3" width="103.7109375" style="1" customWidth="1"/>
     <col min="4" max="4" width="34" style="1" customWidth="1"/>
-    <col min="5" max="5" width="9.15234375" style="1"/>
-    <col min="6" max="6" width="9.15234375" style="1" customWidth="1"/>
-    <col min="7" max="16384" width="9.15234375" style="1"/>
+    <col min="5" max="5" width="9.140625" style="1"/>
+    <col min="6" max="6" width="9.140625" style="1" customWidth="1"/>
+    <col min="7" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:22" ht="14.6" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A1" s="9" t="s">
+    <row r="1" spans="1:22" ht="14.65" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A1" s="11" t="s">
         <v>10</v>
       </c>
-      <c r="B1" s="10"/>
-      <c r="C1" s="11"/>
+      <c r="B1" s="12"/>
+      <c r="C1" s="13"/>
       <c r="D1" s="2"/>
       <c r="E1" s="2"/>
       <c r="F1" s="2"/>
@@ -746,10 +745,10 @@
       <c r="U1" s="2"/>
       <c r="V1" s="2"/>
     </row>
-    <row r="2" spans="1:22" ht="14.6" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A2" s="12"/>
-      <c r="B2" s="13"/>
-      <c r="C2" s="14"/>
+    <row r="2" spans="1:22" ht="14.65" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A2" s="14"/>
+      <c r="B2" s="15"/>
+      <c r="C2" s="16"/>
       <c r="D2" s="2"/>
       <c r="E2" s="2"/>
       <c r="F2" s="2"/>
@@ -770,10 +769,10 @@
       <c r="U2" s="2"/>
       <c r="V2" s="2"/>
     </row>
-    <row r="3" spans="1:22" ht="14.6" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A3" s="15"/>
-      <c r="B3" s="16"/>
-      <c r="C3" s="17"/>
+    <row r="3" spans="1:22" ht="14.65" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A3" s="17"/>
+      <c r="B3" s="18"/>
+      <c r="C3" s="19"/>
       <c r="D3" s="2"/>
       <c r="E3" s="2"/>
       <c r="F3" s="2"/>
@@ -794,10 +793,10 @@
       <c r="U3" s="2"/>
       <c r="V3" s="2"/>
     </row>
-    <row r="4" spans="1:22" ht="39.9" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A4" s="25"/>
-      <c r="B4" s="26"/>
-      <c r="C4" s="27"/>
+    <row r="4" spans="1:22" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A4" s="27"/>
+      <c r="B4" s="28"/>
+      <c r="C4" s="29"/>
       <c r="D4" s="2"/>
       <c r="E4" s="2"/>
       <c r="F4" s="2"/>
@@ -818,11 +817,11 @@
       <c r="U4" s="2"/>
       <c r="V4" s="2"/>
     </row>
-    <row r="5" spans="1:22" ht="50.15" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A5" s="21" t="s">
+    <row r="5" spans="1:22" ht="50.1" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A5" s="23" t="s">
         <v>3</v>
       </c>
-      <c r="B5" s="22"/>
+      <c r="B5" s="24"/>
       <c r="C5" s="8"/>
       <c r="D5" s="2"/>
       <c r="E5" s="2"/>
@@ -844,11 +843,11 @@
       <c r="U5" s="2"/>
       <c r="V5" s="2"/>
     </row>
-    <row r="6" spans="1:22" ht="53.6" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A6" s="21" t="s">
+    <row r="6" spans="1:22" ht="53.65" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A6" s="23" t="s">
         <v>9</v>
       </c>
-      <c r="B6" s="22"/>
+      <c r="B6" s="24"/>
       <c r="C6" s="8"/>
       <c r="D6" s="2"/>
       <c r="E6" s="2"/>
@@ -870,11 +869,11 @@
       <c r="U6" s="2"/>
       <c r="V6" s="2"/>
     </row>
-    <row r="7" spans="1:22" ht="52.3" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A7" s="21" t="s">
+    <row r="7" spans="1:22" ht="52.35" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A7" s="23" t="s">
         <v>8</v>
       </c>
-      <c r="B7" s="22"/>
+      <c r="B7" s="24"/>
       <c r="C7" s="8"/>
       <c r="D7" s="2"/>
       <c r="E7" s="2"/>
@@ -896,11 +895,11 @@
       <c r="U7" s="2"/>
       <c r="V7" s="2"/>
     </row>
-    <row r="8" spans="1:22" ht="53.6" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A8" s="21" t="s">
+    <row r="8" spans="1:22" ht="53.65" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A8" s="23" t="s">
         <v>4</v>
       </c>
-      <c r="B8" s="22"/>
+      <c r="B8" s="24"/>
       <c r="C8" s="8"/>
       <c r="D8" s="2"/>
       <c r="E8" s="2"/>
@@ -922,11 +921,11 @@
       <c r="U8" s="2"/>
       <c r="V8" s="2"/>
     </row>
-    <row r="9" spans="1:22" ht="53.6" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A9" s="23" t="s">
+    <row r="9" spans="1:22" ht="53.65" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A9" s="25" t="s">
         <v>5</v>
       </c>
-      <c r="B9" s="24"/>
+      <c r="B9" s="26"/>
       <c r="C9" s="8"/>
       <c r="D9" s="2"/>
       <c r="E9" s="2"/>
@@ -948,11 +947,11 @@
       <c r="U9" s="2"/>
       <c r="V9" s="2"/>
     </row>
-    <row r="10" spans="1:22" ht="66" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A10" s="23" t="s">
+    <row r="10" spans="1:22" ht="66" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A10" s="25" t="s">
         <v>6</v>
       </c>
-      <c r="B10" s="24"/>
+      <c r="B10" s="26"/>
       <c r="C10" s="8"/>
       <c r="D10" s="2"/>
       <c r="E10" s="2"/>
@@ -974,11 +973,11 @@
       <c r="U10" s="2"/>
       <c r="V10" s="2"/>
     </row>
-    <row r="11" spans="1:22" ht="66.45" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A11" s="23" t="s">
+    <row r="11" spans="1:22" ht="66.400000000000006" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A11" s="25" t="s">
         <v>11</v>
       </c>
-      <c r="B11" s="24"/>
+      <c r="B11" s="26"/>
       <c r="C11" s="8"/>
       <c r="D11" s="2"/>
       <c r="E11" s="2"/>
@@ -1000,12 +999,12 @@
       <c r="U11" s="2"/>
       <c r="V11" s="2"/>
     </row>
-    <row r="12" spans="1:22" ht="63.45" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A12" s="18" t="s">
+    <row r="12" spans="1:22" ht="63.4" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A12" s="20" t="s">
         <v>7</v>
       </c>
-      <c r="B12" s="19"/>
-      <c r="C12" s="20"/>
+      <c r="B12" s="21"/>
+      <c r="C12" s="22"/>
       <c r="D12" s="2"/>
       <c r="E12" s="2"/>
       <c r="F12" s="2"/>
@@ -1026,7 +1025,7 @@
       <c r="U12" s="2"/>
       <c r="V12" s="2"/>
     </row>
-    <row r="13" spans="1:22" s="5" customFormat="1" ht="42" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="13" spans="1:22" s="5" customFormat="1" ht="42" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A13" s="4" t="s">
         <v>0</v>
       </c>
@@ -1037,373 +1036,373 @@
         <v>2</v>
       </c>
     </row>
-    <row r="14" spans="1:22" s="6" customFormat="1" ht="56.15" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A14" s="28"/>
-      <c r="B14" s="29"/>
-      <c r="C14" s="28"/>
-    </row>
-    <row r="15" spans="1:22" s="6" customFormat="1" ht="43.3" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A15" s="28"/>
-      <c r="B15" s="29"/>
-      <c r="C15" s="28"/>
-    </row>
-    <row r="16" spans="1:22" s="6" customFormat="1" ht="40.75" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A16" s="28"/>
-      <c r="B16" s="29"/>
-      <c r="C16" s="28"/>
-    </row>
-    <row r="17" spans="1:3" s="6" customFormat="1" ht="47.6" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A17" s="28"/>
-      <c r="B17" s="29"/>
-      <c r="C17" s="28"/>
-    </row>
-    <row r="18" spans="1:3" s="6" customFormat="1" ht="40.299999999999997" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A18" s="28"/>
-      <c r="B18" s="29"/>
-      <c r="C18" s="28"/>
-    </row>
-    <row r="19" spans="1:3" s="6" customFormat="1" ht="44.15" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A19" s="28"/>
-      <c r="B19" s="29"/>
-      <c r="C19" s="28"/>
-    </row>
-    <row r="20" spans="1:3" s="6" customFormat="1" ht="42" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A20" s="28"/>
-      <c r="B20" s="29"/>
-      <c r="C20" s="28"/>
-    </row>
-    <row r="21" spans="1:3" s="6" customFormat="1" ht="39" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A21" s="28"/>
-      <c r="B21" s="29"/>
-      <c r="C21" s="28"/>
-    </row>
-    <row r="22" spans="1:3" s="6" customFormat="1" ht="54.45" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A22" s="28"/>
-      <c r="B22" s="29"/>
-      <c r="C22" s="28"/>
-    </row>
-    <row r="23" spans="1:3" s="6" customFormat="1" ht="52.3" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A23" s="28"/>
-      <c r="B23" s="29"/>
-      <c r="C23" s="28"/>
-    </row>
-    <row r="24" spans="1:3" s="6" customFormat="1" ht="39.450000000000003" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A24" s="28"/>
-      <c r="B24" s="29"/>
-      <c r="C24" s="28"/>
-    </row>
-    <row r="25" spans="1:3" s="6" customFormat="1" ht="42" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A25" s="28"/>
-      <c r="B25" s="29"/>
-      <c r="C25" s="28"/>
-    </row>
-    <row r="26" spans="1:3" s="6" customFormat="1" ht="46.75" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A26" s="28"/>
-      <c r="B26" s="29"/>
-      <c r="C26" s="28"/>
-    </row>
-    <row r="27" spans="1:3" s="6" customFormat="1" ht="45.9" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A27" s="28"/>
-      <c r="B27" s="29"/>
-      <c r="C27" s="28"/>
-    </row>
-    <row r="28" spans="1:3" s="6" customFormat="1" ht="53.6" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A28" s="28"/>
-      <c r="B28" s="29"/>
-      <c r="C28" s="28"/>
-    </row>
-    <row r="29" spans="1:3" s="6" customFormat="1" ht="44.6" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A29" s="28"/>
-      <c r="B29" s="29"/>
-      <c r="C29" s="28"/>
-    </row>
-    <row r="30" spans="1:3" s="6" customFormat="1" ht="45.45" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A30" s="28"/>
-      <c r="B30" s="29"/>
-      <c r="C30" s="28"/>
-    </row>
-    <row r="31" spans="1:3" s="6" customFormat="1" ht="48.45" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A31" s="28"/>
-      <c r="B31" s="29"/>
-      <c r="C31" s="28"/>
-    </row>
-    <row r="32" spans="1:3" s="6" customFormat="1" ht="41.15" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A32" s="28"/>
-      <c r="B32" s="29"/>
-      <c r="C32" s="28"/>
-    </row>
-    <row r="33" spans="1:3" s="6" customFormat="1" ht="41.6" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A33" s="28"/>
-      <c r="B33" s="29"/>
-      <c r="C33" s="28"/>
-    </row>
-    <row r="34" spans="1:3" s="6" customFormat="1" ht="42.9" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A34" s="28"/>
-      <c r="B34" s="29"/>
-      <c r="C34" s="28"/>
-    </row>
-    <row r="35" spans="1:3" s="6" customFormat="1" ht="35.6" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A35" s="28"/>
-      <c r="B35" s="29"/>
-      <c r="C35" s="28"/>
-    </row>
-    <row r="36" spans="1:3" s="6" customFormat="1" ht="39" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A36" s="28"/>
-      <c r="B36" s="29"/>
-      <c r="C36" s="28"/>
-    </row>
-    <row r="37" spans="1:3" s="6" customFormat="1" ht="43.75" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A37" s="28"/>
-      <c r="B37" s="29"/>
-      <c r="C37" s="28"/>
-    </row>
-    <row r="38" spans="1:3" s="6" customFormat="1" ht="44.15" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A38" s="28"/>
-      <c r="B38" s="29"/>
-      <c r="C38" s="28"/>
-    </row>
-    <row r="39" spans="1:3" s="6" customFormat="1" ht="48.45" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A39" s="28"/>
-      <c r="B39" s="29"/>
-      <c r="C39" s="28"/>
-    </row>
-    <row r="40" spans="1:3" s="6" customFormat="1" ht="36" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A40" s="28"/>
-      <c r="B40" s="29"/>
-      <c r="C40" s="28"/>
-    </row>
-    <row r="41" spans="1:3" s="6" customFormat="1" ht="41.6" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A41" s="28"/>
-      <c r="B41" s="29"/>
-      <c r="C41" s="28"/>
-    </row>
-    <row r="42" spans="1:3" s="6" customFormat="1" ht="43.3" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A42" s="28"/>
-      <c r="B42" s="29"/>
-      <c r="C42" s="28"/>
-    </row>
-    <row r="43" spans="1:3" s="6" customFormat="1" ht="45" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A43" s="28"/>
-      <c r="B43" s="29"/>
-      <c r="C43" s="28"/>
-    </row>
-    <row r="44" spans="1:3" s="6" customFormat="1" ht="41.6" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A44" s="28"/>
-      <c r="B44" s="29"/>
-      <c r="C44" s="28"/>
-    </row>
-    <row r="45" spans="1:3" s="6" customFormat="1" ht="43.3" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A45" s="28"/>
-      <c r="B45" s="29"/>
-      <c r="C45" s="28"/>
-    </row>
-    <row r="46" spans="1:3" s="6" customFormat="1" ht="39.9" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A46" s="28"/>
-      <c r="B46" s="29"/>
-      <c r="C46" s="28"/>
-    </row>
-    <row r="47" spans="1:3" s="6" customFormat="1" ht="38.6" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A47" s="28"/>
-      <c r="B47" s="29"/>
-      <c r="C47" s="28"/>
-    </row>
-    <row r="48" spans="1:3" s="6" customFormat="1" ht="41.15" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A48" s="28"/>
-      <c r="B48" s="29"/>
-      <c r="C48" s="28"/>
-    </row>
-    <row r="49" spans="1:3" s="6" customFormat="1" ht="41.6" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A49" s="28"/>
-      <c r="B49" s="29"/>
-      <c r="C49" s="28"/>
-    </row>
-    <row r="50" spans="1:3" s="6" customFormat="1" ht="11.6" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="14" spans="1:22" s="6" customFormat="1" ht="56.1" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A14" s="9"/>
+      <c r="B14" s="10"/>
+      <c r="C14" s="9"/>
+    </row>
+    <row r="15" spans="1:22" s="6" customFormat="1" ht="43.35" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A15" s="9"/>
+      <c r="B15" s="10"/>
+      <c r="C15" s="9"/>
+    </row>
+    <row r="16" spans="1:22" s="6" customFormat="1" ht="40.700000000000003" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A16" s="9"/>
+      <c r="B16" s="10"/>
+      <c r="C16" s="9"/>
+    </row>
+    <row r="17" spans="1:3" s="6" customFormat="1" ht="47.65" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A17" s="9"/>
+      <c r="B17" s="10"/>
+      <c r="C17" s="9"/>
+    </row>
+    <row r="18" spans="1:3" s="6" customFormat="1" ht="40.35" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A18" s="9"/>
+      <c r="B18" s="10"/>
+      <c r="C18" s="9"/>
+    </row>
+    <row r="19" spans="1:3" s="6" customFormat="1" ht="44.1" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A19" s="9"/>
+      <c r="B19" s="10"/>
+      <c r="C19" s="9"/>
+    </row>
+    <row r="20" spans="1:3" s="6" customFormat="1" ht="42" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A20" s="9"/>
+      <c r="B20" s="10"/>
+      <c r="C20" s="9"/>
+    </row>
+    <row r="21" spans="1:3" s="6" customFormat="1" ht="39" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A21" s="9"/>
+      <c r="B21" s="10"/>
+      <c r="C21" s="9"/>
+    </row>
+    <row r="22" spans="1:3" s="6" customFormat="1" ht="54.4" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A22" s="9"/>
+      <c r="B22" s="10"/>
+      <c r="C22" s="9"/>
+    </row>
+    <row r="23" spans="1:3" s="6" customFormat="1" ht="52.35" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A23" s="9"/>
+      <c r="B23" s="10"/>
+      <c r="C23" s="9"/>
+    </row>
+    <row r="24" spans="1:3" s="6" customFormat="1" ht="39.4" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A24" s="9"/>
+      <c r="B24" s="10"/>
+      <c r="C24" s="9"/>
+    </row>
+    <row r="25" spans="1:3" s="6" customFormat="1" ht="42" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A25" s="9"/>
+      <c r="B25" s="10"/>
+      <c r="C25" s="9"/>
+    </row>
+    <row r="26" spans="1:3" s="6" customFormat="1" ht="46.7" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A26" s="9"/>
+      <c r="B26" s="10"/>
+      <c r="C26" s="9"/>
+    </row>
+    <row r="27" spans="1:3" s="6" customFormat="1" ht="45.95" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A27" s="9"/>
+      <c r="B27" s="10"/>
+      <c r="C27" s="9"/>
+    </row>
+    <row r="28" spans="1:3" s="6" customFormat="1" ht="53.65" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A28" s="9"/>
+      <c r="B28" s="10"/>
+      <c r="C28" s="9"/>
+    </row>
+    <row r="29" spans="1:3" s="6" customFormat="1" ht="44.65" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A29" s="9"/>
+      <c r="B29" s="10"/>
+      <c r="C29" s="9"/>
+    </row>
+    <row r="30" spans="1:3" s="6" customFormat="1" ht="45.4" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A30" s="9"/>
+      <c r="B30" s="10"/>
+      <c r="C30" s="9"/>
+    </row>
+    <row r="31" spans="1:3" s="6" customFormat="1" ht="48.4" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A31" s="9"/>
+      <c r="B31" s="10"/>
+      <c r="C31" s="9"/>
+    </row>
+    <row r="32" spans="1:3" s="6" customFormat="1" ht="41.1" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A32" s="9"/>
+      <c r="B32" s="10"/>
+      <c r="C32" s="9"/>
+    </row>
+    <row r="33" spans="1:3" s="6" customFormat="1" ht="41.65" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A33" s="9"/>
+      <c r="B33" s="10"/>
+      <c r="C33" s="9"/>
+    </row>
+    <row r="34" spans="1:3" s="6" customFormat="1" ht="42.95" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A34" s="9"/>
+      <c r="B34" s="10"/>
+      <c r="C34" s="9"/>
+    </row>
+    <row r="35" spans="1:3" s="6" customFormat="1" ht="35.65" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A35" s="9"/>
+      <c r="B35" s="10"/>
+      <c r="C35" s="9"/>
+    </row>
+    <row r="36" spans="1:3" s="6" customFormat="1" ht="39" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A36" s="9"/>
+      <c r="B36" s="10"/>
+      <c r="C36" s="9"/>
+    </row>
+    <row r="37" spans="1:3" s="6" customFormat="1" ht="43.7" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A37" s="9"/>
+      <c r="B37" s="10"/>
+      <c r="C37" s="9"/>
+    </row>
+    <row r="38" spans="1:3" s="6" customFormat="1" ht="44.1" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A38" s="9"/>
+      <c r="B38" s="10"/>
+      <c r="C38" s="9"/>
+    </row>
+    <row r="39" spans="1:3" s="6" customFormat="1" ht="48.4" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A39" s="9"/>
+      <c r="B39" s="10"/>
+      <c r="C39" s="9"/>
+    </row>
+    <row r="40" spans="1:3" s="6" customFormat="1" ht="36" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A40" s="9"/>
+      <c r="B40" s="10"/>
+      <c r="C40" s="9"/>
+    </row>
+    <row r="41" spans="1:3" s="6" customFormat="1" ht="41.65" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A41" s="9"/>
+      <c r="B41" s="10"/>
+      <c r="C41" s="9"/>
+    </row>
+    <row r="42" spans="1:3" s="6" customFormat="1" ht="43.35" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A42" s="9"/>
+      <c r="B42" s="10"/>
+      <c r="C42" s="9"/>
+    </row>
+    <row r="43" spans="1:3" s="6" customFormat="1" ht="45" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A43" s="9"/>
+      <c r="B43" s="10"/>
+      <c r="C43" s="9"/>
+    </row>
+    <row r="44" spans="1:3" s="6" customFormat="1" ht="41.65" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A44" s="9"/>
+      <c r="B44" s="10"/>
+      <c r="C44" s="9"/>
+    </row>
+    <row r="45" spans="1:3" s="6" customFormat="1" ht="43.35" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A45" s="9"/>
+      <c r="B45" s="10"/>
+      <c r="C45" s="9"/>
+    </row>
+    <row r="46" spans="1:3" s="6" customFormat="1" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A46" s="9"/>
+      <c r="B46" s="10"/>
+      <c r="C46" s="9"/>
+    </row>
+    <row r="47" spans="1:3" s="6" customFormat="1" ht="38.65" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A47" s="9"/>
+      <c r="B47" s="10"/>
+      <c r="C47" s="9"/>
+    </row>
+    <row r="48" spans="1:3" s="6" customFormat="1" ht="41.1" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A48" s="9"/>
+      <c r="B48" s="10"/>
+      <c r="C48" s="9"/>
+    </row>
+    <row r="49" spans="1:3" s="6" customFormat="1" ht="41.65" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A49" s="9"/>
+      <c r="B49" s="10"/>
+      <c r="C49" s="9"/>
+    </row>
+    <row r="50" spans="1:3" s="6" customFormat="1" ht="31.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B50" s="7"/>
     </row>
-    <row r="51" spans="1:3" s="6" customFormat="1" ht="11.6" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="51" spans="1:3" s="6" customFormat="1" ht="41.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B51" s="7"/>
     </row>
-    <row r="52" spans="1:3" s="6" customFormat="1" ht="11.6" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="52" spans="1:3" s="6" customFormat="1" ht="39" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B52" s="7"/>
     </row>
-    <row r="53" spans="1:3" s="6" customFormat="1" ht="11.6" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="53" spans="1:3" s="6" customFormat="1" ht="33" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B53" s="7"/>
     </row>
-    <row r="54" spans="1:3" s="6" customFormat="1" ht="11.6" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="54" spans="1:3" s="6" customFormat="1" ht="32.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B54" s="7"/>
     </row>
-    <row r="55" spans="1:3" s="6" customFormat="1" ht="11.6" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="55" spans="1:3" s="6" customFormat="1" ht="45" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B55" s="7"/>
     </row>
-    <row r="56" spans="1:3" s="6" customFormat="1" ht="11.6" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="56" spans="1:3" s="6" customFormat="1" ht="37.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B56" s="7"/>
     </row>
-    <row r="57" spans="1:3" s="6" customFormat="1" ht="11.6" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="57" spans="1:3" s="6" customFormat="1" ht="33.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B57" s="7"/>
     </row>
-    <row r="58" spans="1:3" s="6" customFormat="1" ht="11.6" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="58" spans="1:3" s="6" customFormat="1" ht="37.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B58" s="7"/>
     </row>
-    <row r="59" spans="1:3" s="6" customFormat="1" ht="11.6" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="59" spans="1:3" s="6" customFormat="1" ht="30.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B59" s="7"/>
     </row>
-    <row r="60" spans="1:3" s="6" customFormat="1" ht="11.6" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="60" spans="1:3" s="6" customFormat="1" ht="35.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B60" s="7"/>
     </row>
-    <row r="61" spans="1:3" s="6" customFormat="1" ht="11.6" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="61" spans="1:3" s="6" customFormat="1" ht="39.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B61" s="7"/>
     </row>
-    <row r="62" spans="1:3" s="6" customFormat="1" ht="11.6" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="62" spans="1:3" s="6" customFormat="1" ht="11.65" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B62" s="7"/>
     </row>
-    <row r="63" spans="1:3" s="6" customFormat="1" ht="11.6" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="63" spans="1:3" s="6" customFormat="1" ht="11.65" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B63" s="7"/>
     </row>
-    <row r="64" spans="1:3" s="6" customFormat="1" ht="11.6" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="64" spans="1:3" s="6" customFormat="1" ht="11.65" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B64" s="7"/>
     </row>
-    <row r="65" spans="2:2" ht="11.6" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="65" spans="2:2" ht="11.65" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B65" s="3"/>
     </row>
-    <row r="66" spans="2:2" ht="11.6" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="66" spans="2:2" ht="11.65" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B66" s="3"/>
     </row>
-    <row r="67" spans="2:2" ht="11.6" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="67" spans="2:2" ht="11.65" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B67" s="3"/>
     </row>
-    <row r="68" spans="2:2" ht="11.6" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="68" spans="2:2" ht="11.65" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B68" s="3"/>
     </row>
-    <row r="69" spans="2:2" ht="11.6" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="69" spans="2:2" ht="11.65" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B69" s="3"/>
     </row>
-    <row r="70" spans="2:2" ht="11.6" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="70" spans="2:2" ht="11.65" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B70" s="3"/>
     </row>
-    <row r="71" spans="2:2" ht="11.6" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="71" spans="2:2" ht="11.65" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B71" s="3"/>
     </row>
-    <row r="72" spans="2:2" ht="11.6" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="72" spans="2:2" ht="11.65" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B72" s="3"/>
     </row>
-    <row r="73" spans="2:2" ht="11.6" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="73" spans="2:2" ht="11.65" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B73" s="3"/>
     </row>
-    <row r="74" spans="2:2" ht="11.6" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="74" spans="2:2" ht="11.65" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B74" s="3"/>
     </row>
-    <row r="75" spans="2:2" ht="11.6" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="75" spans="2:2" ht="11.65" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B75" s="3"/>
     </row>
-    <row r="76" spans="2:2" ht="11.6" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="76" spans="2:2" ht="11.65" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B76" s="3"/>
     </row>
-    <row r="77" spans="2:2" ht="11.6" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="77" spans="2:2" ht="11.65" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B77" s="3"/>
     </row>
-    <row r="78" spans="2:2" ht="11.6" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="78" spans="2:2" ht="11.65" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B78" s="3"/>
     </row>
-    <row r="79" spans="2:2" ht="11.6" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="79" spans="2:2" ht="11.65" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B79" s="3"/>
     </row>
-    <row r="80" spans="2:2" x14ac:dyDescent="0.4">
+    <row r="80" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B80" s="3"/>
     </row>
-    <row r="81" spans="2:2" x14ac:dyDescent="0.4">
+    <row r="81" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B81" s="3"/>
     </row>
-    <row r="82" spans="2:2" x14ac:dyDescent="0.4">
+    <row r="82" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B82" s="3"/>
     </row>
-    <row r="83" spans="2:2" x14ac:dyDescent="0.4">
+    <row r="83" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B83" s="3"/>
     </row>
-    <row r="84" spans="2:2" x14ac:dyDescent="0.4">
+    <row r="84" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B84" s="3"/>
     </row>
-    <row r="85" spans="2:2" x14ac:dyDescent="0.4">
+    <row r="85" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B85" s="3"/>
     </row>
-    <row r="86" spans="2:2" x14ac:dyDescent="0.4">
+    <row r="86" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B86" s="3"/>
     </row>
-    <row r="87" spans="2:2" x14ac:dyDescent="0.4">
+    <row r="87" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B87" s="3"/>
     </row>
-    <row r="88" spans="2:2" x14ac:dyDescent="0.4">
+    <row r="88" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B88" s="3"/>
     </row>
-    <row r="89" spans="2:2" x14ac:dyDescent="0.4">
+    <row r="89" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B89" s="3"/>
     </row>
-    <row r="90" spans="2:2" x14ac:dyDescent="0.4">
+    <row r="90" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B90" s="3"/>
     </row>
-    <row r="91" spans="2:2" x14ac:dyDescent="0.4">
+    <row r="91" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B91" s="3"/>
     </row>
-    <row r="92" spans="2:2" x14ac:dyDescent="0.4">
+    <row r="92" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B92" s="3"/>
     </row>
-    <row r="93" spans="2:2" x14ac:dyDescent="0.4">
+    <row r="93" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B93" s="3"/>
     </row>
-    <row r="94" spans="2:2" x14ac:dyDescent="0.4">
+    <row r="94" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B94" s="3"/>
     </row>
-    <row r="95" spans="2:2" x14ac:dyDescent="0.4">
+    <row r="95" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B95" s="3"/>
     </row>
-    <row r="96" spans="2:2" x14ac:dyDescent="0.4">
+    <row r="96" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B96" s="3"/>
     </row>
-    <row r="97" spans="2:2" x14ac:dyDescent="0.4">
+    <row r="97" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B97" s="3"/>
     </row>
-    <row r="98" spans="2:2" x14ac:dyDescent="0.4">
+    <row r="98" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B98" s="3"/>
     </row>
-    <row r="99" spans="2:2" x14ac:dyDescent="0.4">
+    <row r="99" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B99" s="3"/>
     </row>
-    <row r="100" spans="2:2" x14ac:dyDescent="0.4">
+    <row r="100" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B100" s="3"/>
     </row>
-    <row r="101" spans="2:2" x14ac:dyDescent="0.4">
+    <row r="101" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B101" s="3"/>
     </row>
-    <row r="102" spans="2:2" x14ac:dyDescent="0.4">
+    <row r="102" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B102" s="3"/>
     </row>
-    <row r="103" spans="2:2" x14ac:dyDescent="0.4">
+    <row r="103" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B103" s="3"/>
     </row>
-    <row r="104" spans="2:2" x14ac:dyDescent="0.4">
+    <row r="104" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B104" s="3"/>
     </row>
-    <row r="105" spans="2:2" x14ac:dyDescent="0.4">
+    <row r="105" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B105" s="3"/>
     </row>
-    <row r="106" spans="2:2" x14ac:dyDescent="0.4">
+    <row r="106" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B106" s="3"/>
     </row>
-    <row r="107" spans="2:2" x14ac:dyDescent="0.4">
+    <row r="107" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B107" s="3"/>
     </row>
-    <row r="108" spans="2:2" x14ac:dyDescent="0.4">
+    <row r="108" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B108" s="3"/>
     </row>
-    <row r="109" spans="2:2" x14ac:dyDescent="0.4">
+    <row r="109" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B109" s="3"/>
     </row>
-    <row r="110" spans="2:2" x14ac:dyDescent="0.4">
+    <row r="110" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B110" s="3"/>
     </row>
-    <row r="111" spans="2:2" x14ac:dyDescent="0.4">
+    <row r="111" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B111" s="3"/>
     </row>
-    <row r="112" spans="2:2" x14ac:dyDescent="0.4">
+    <row r="112" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B112" s="3"/>
     </row>
   </sheetData>

--- a/resources/public/template/TemCXLog.xlsx
+++ b/resources/public/template/TemCXLog.xlsx
@@ -704,8 +704,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:V112"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A54" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="B58" sqref="B58"/>
+    <sheetView tabSelected="1" topLeftCell="A53" zoomScale="55" zoomScaleNormal="55" workbookViewId="0">
+      <selection activeCell="D64" sqref="D64"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1131,134 +1131,183 @@
       <c r="B32" s="10"/>
       <c r="C32" s="9"/>
     </row>
-    <row r="33" spans="1:3" s="6" customFormat="1" ht="41.65" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:4" s="6" customFormat="1" ht="41.65" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A33" s="9"/>
       <c r="B33" s="10"/>
       <c r="C33" s="9"/>
     </row>
-    <row r="34" spans="1:3" s="6" customFormat="1" ht="42.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:4" s="6" customFormat="1" ht="42.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A34" s="9"/>
       <c r="B34" s="10"/>
       <c r="C34" s="9"/>
     </row>
-    <row r="35" spans="1:3" s="6" customFormat="1" ht="35.65" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:4" s="6" customFormat="1" ht="35.65" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A35" s="9"/>
       <c r="B35" s="10"/>
       <c r="C35" s="9"/>
     </row>
-    <row r="36" spans="1:3" s="6" customFormat="1" ht="39" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:4" s="6" customFormat="1" ht="39" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A36" s="9"/>
       <c r="B36" s="10"/>
       <c r="C36" s="9"/>
     </row>
-    <row r="37" spans="1:3" s="6" customFormat="1" ht="43.7" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:4" s="6" customFormat="1" ht="43.7" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A37" s="9"/>
       <c r="B37" s="10"/>
       <c r="C37" s="9"/>
-    </row>
-    <row r="38" spans="1:3" s="6" customFormat="1" ht="44.1" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="D37" s="9"/>
+    </row>
+    <row r="38" spans="1:4" s="6" customFormat="1" ht="44.1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A38" s="9"/>
       <c r="B38" s="10"/>
       <c r="C38" s="9"/>
-    </row>
-    <row r="39" spans="1:3" s="6" customFormat="1" ht="48.4" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="D38" s="9"/>
+    </row>
+    <row r="39" spans="1:4" s="6" customFormat="1" ht="48.4" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A39" s="9"/>
       <c r="B39" s="10"/>
       <c r="C39" s="9"/>
-    </row>
-    <row r="40" spans="1:3" s="6" customFormat="1" ht="36" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="D39" s="9"/>
+    </row>
+    <row r="40" spans="1:4" s="6" customFormat="1" ht="36" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A40" s="9"/>
       <c r="B40" s="10"/>
       <c r="C40" s="9"/>
-    </row>
-    <row r="41" spans="1:3" s="6" customFormat="1" ht="41.65" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="D40" s="9"/>
+    </row>
+    <row r="41" spans="1:4" s="6" customFormat="1" ht="41.65" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A41" s="9"/>
       <c r="B41" s="10"/>
       <c r="C41" s="9"/>
-    </row>
-    <row r="42" spans="1:3" s="6" customFormat="1" ht="43.35" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="D41" s="9"/>
+    </row>
+    <row r="42" spans="1:4" s="6" customFormat="1" ht="43.35" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A42" s="9"/>
       <c r="B42" s="10"/>
       <c r="C42" s="9"/>
-    </row>
-    <row r="43" spans="1:3" s="6" customFormat="1" ht="45" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="D42" s="9"/>
+    </row>
+    <row r="43" spans="1:4" s="6" customFormat="1" ht="45" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A43" s="9"/>
       <c r="B43" s="10"/>
       <c r="C43" s="9"/>
-    </row>
-    <row r="44" spans="1:3" s="6" customFormat="1" ht="41.65" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="D43" s="9"/>
+    </row>
+    <row r="44" spans="1:4" s="6" customFormat="1" ht="41.65" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A44" s="9"/>
       <c r="B44" s="10"/>
       <c r="C44" s="9"/>
-    </row>
-    <row r="45" spans="1:3" s="6" customFormat="1" ht="43.35" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="D44" s="9"/>
+    </row>
+    <row r="45" spans="1:4" s="6" customFormat="1" ht="43.35" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A45" s="9"/>
       <c r="B45" s="10"/>
       <c r="C45" s="9"/>
-    </row>
-    <row r="46" spans="1:3" s="6" customFormat="1" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="D45" s="9"/>
+    </row>
+    <row r="46" spans="1:4" s="6" customFormat="1" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A46" s="9"/>
       <c r="B46" s="10"/>
       <c r="C46" s="9"/>
-    </row>
-    <row r="47" spans="1:3" s="6" customFormat="1" ht="38.65" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="D46" s="9"/>
+    </row>
+    <row r="47" spans="1:4" s="6" customFormat="1" ht="38.65" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A47" s="9"/>
       <c r="B47" s="10"/>
       <c r="C47" s="9"/>
-    </row>
-    <row r="48" spans="1:3" s="6" customFormat="1" ht="41.1" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="D47" s="9"/>
+    </row>
+    <row r="48" spans="1:4" s="6" customFormat="1" ht="41.1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A48" s="9"/>
       <c r="B48" s="10"/>
       <c r="C48" s="9"/>
-    </row>
-    <row r="49" spans="1:3" s="6" customFormat="1" ht="41.65" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="D48" s="9"/>
+    </row>
+    <row r="49" spans="1:4" s="6" customFormat="1" ht="41.65" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A49" s="9"/>
       <c r="B49" s="10"/>
       <c r="C49" s="9"/>
-    </row>
-    <row r="50" spans="1:3" s="6" customFormat="1" ht="31.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B50" s="7"/>
-    </row>
-    <row r="51" spans="1:3" s="6" customFormat="1" ht="41.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B51" s="7"/>
-    </row>
-    <row r="52" spans="1:3" s="6" customFormat="1" ht="39" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B52" s="7"/>
-    </row>
-    <row r="53" spans="1:3" s="6" customFormat="1" ht="33" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B53" s="7"/>
-    </row>
-    <row r="54" spans="1:3" s="6" customFormat="1" ht="32.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B54" s="7"/>
-    </row>
-    <row r="55" spans="1:3" s="6" customFormat="1" ht="45" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B55" s="7"/>
-    </row>
-    <row r="56" spans="1:3" s="6" customFormat="1" ht="37.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B56" s="7"/>
-    </row>
-    <row r="57" spans="1:3" s="6" customFormat="1" ht="33.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B57" s="7"/>
-    </row>
-    <row r="58" spans="1:3" s="6" customFormat="1" ht="37.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B58" s="7"/>
-    </row>
-    <row r="59" spans="1:3" s="6" customFormat="1" ht="30.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B59" s="7"/>
-    </row>
-    <row r="60" spans="1:3" s="6" customFormat="1" ht="35.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B60" s="7"/>
-    </row>
-    <row r="61" spans="1:3" s="6" customFormat="1" ht="39.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B61" s="7"/>
-    </row>
-    <row r="62" spans="1:3" s="6" customFormat="1" ht="11.65" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="D49" s="9"/>
+    </row>
+    <row r="50" spans="1:4" s="6" customFormat="1" ht="31.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A50" s="9"/>
+      <c r="B50" s="10"/>
+      <c r="C50" s="9"/>
+      <c r="D50" s="9"/>
+    </row>
+    <row r="51" spans="1:4" s="6" customFormat="1" ht="41.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A51" s="9"/>
+      <c r="B51" s="10"/>
+      <c r="C51" s="9"/>
+      <c r="D51" s="9"/>
+    </row>
+    <row r="52" spans="1:4" s="6" customFormat="1" ht="39" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A52" s="9"/>
+      <c r="B52" s="10"/>
+      <c r="C52" s="9"/>
+      <c r="D52" s="9"/>
+    </row>
+    <row r="53" spans="1:4" s="6" customFormat="1" ht="33" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A53" s="9"/>
+      <c r="B53" s="10"/>
+      <c r="C53" s="9"/>
+      <c r="D53" s="9"/>
+    </row>
+    <row r="54" spans="1:4" s="6" customFormat="1" ht="32.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A54" s="9"/>
+      <c r="B54" s="10"/>
+      <c r="C54" s="9"/>
+      <c r="D54" s="9"/>
+    </row>
+    <row r="55" spans="1:4" s="6" customFormat="1" ht="45" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A55" s="9"/>
+      <c r="B55" s="10"/>
+      <c r="C55" s="9"/>
+      <c r="D55" s="9"/>
+    </row>
+    <row r="56" spans="1:4" s="6" customFormat="1" ht="37.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A56" s="9"/>
+      <c r="B56" s="10"/>
+      <c r="C56" s="9"/>
+      <c r="D56" s="9"/>
+    </row>
+    <row r="57" spans="1:4" s="6" customFormat="1" ht="33.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A57" s="9"/>
+      <c r="B57" s="10"/>
+      <c r="C57" s="9"/>
+      <c r="D57" s="9"/>
+    </row>
+    <row r="58" spans="1:4" s="6" customFormat="1" ht="37.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A58" s="9"/>
+      <c r="B58" s="10"/>
+      <c r="C58" s="9"/>
+      <c r="D58" s="9"/>
+    </row>
+    <row r="59" spans="1:4" s="6" customFormat="1" ht="30.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A59" s="9"/>
+      <c r="B59" s="10"/>
+      <c r="C59" s="9"/>
+      <c r="D59" s="9"/>
+    </row>
+    <row r="60" spans="1:4" s="6" customFormat="1" ht="35.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A60" s="9"/>
+      <c r="B60" s="10"/>
+      <c r="C60" s="9"/>
+      <c r="D60" s="9"/>
+    </row>
+    <row r="61" spans="1:4" s="6" customFormat="1" ht="39.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A61" s="9"/>
+      <c r="B61" s="10"/>
+      <c r="C61" s="9"/>
+      <c r="D61" s="9"/>
+    </row>
+    <row r="62" spans="1:4" s="6" customFormat="1" ht="11.65" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B62" s="7"/>
     </row>
-    <row r="63" spans="1:3" s="6" customFormat="1" ht="11.65" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="63" spans="1:4" s="6" customFormat="1" ht="11.65" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B63" s="7"/>
     </row>
-    <row r="64" spans="1:3" s="6" customFormat="1" ht="11.65" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="64" spans="1:4" s="6" customFormat="1" ht="11.65" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B64" s="7"/>
     </row>
     <row r="65" spans="2:2" ht="11.65" customHeight="1" x14ac:dyDescent="0.25">

--- a/resources/public/template/TemCXLog.xlsx
+++ b/resources/public/template/TemCXLog.xlsx
@@ -1,23 +1,35 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
-  <workbookPr defaultThemeVersion="164011"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="26911"/>
+  <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\WWW\Hospital\resources\public\template\"/>
     </mc:Choice>
   </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{7C99D389-6AC6-4B07-8DB8-2194228C6604}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-105" yWindow="-105" windowWidth="24885" windowHeight="14910"/>
+    <workbookView xWindow="-105" yWindow="-105" windowWidth="24885" windowHeight="14910" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="162913"/>
+  <calcPr calcId="191028"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
+    </ext>
+    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
+      <xcalcf:calcFeatures>
+        <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:Single"/>
+        <xcalcf:feature name="microsoft.com:FV"/>
+        <xcalcf:feature name="microsoft.com:CNMTM"/>
+        <xcalcf:feature name="microsoft.com:LET_WF"/>
+        <xcalcf:feature name="microsoft.com:LAMBDA_WF"/>
+        <xcalcf:feature name="microsoft.com:ARRAYTEXT_WF"/>
+      </xcalcf:calcFeatures>
     </ext>
   </extLst>
 </workbook>
@@ -26,16 +38,16 @@
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
 <sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="12" uniqueCount="12">
   <si>
-    <t>STT</t>
-  </si>
-  <si>
-    <t>Mã chỉ số</t>
-  </si>
-  <si>
-    <t>Tên chỉ số</t>
+    <t>Thông tin xét nghiệm</t>
   </si>
   <si>
     <t>Họ và Tên:</t>
+  </si>
+  <si>
+    <t>Số điện thoại:</t>
+  </si>
+  <si>
+    <t>Năm sinh:</t>
   </si>
   <si>
     <t>Giới tính:</t>
@@ -47,26 +59,26 @@
     <t>Mã bác sĩ:</t>
   </si>
   <si>
+    <t>Thời gian - địa chỉ:</t>
+  </si>
+  <si>
     <t>Bảng chỉ số xét nghiệm</t>
   </si>
   <si>
-    <t>Năm sinh:</t>
+    <t>STT</t>
   </si>
   <si>
-    <t>Số điện thoại:</t>
+    <t>Mã chỉ số</t>
   </si>
   <si>
-    <t>Thông tin xét nghiệm</t>
-  </si>
-  <si>
-    <t>Thời gian - địa chỉ:</t>
+    <t>Tên chỉ số</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
-  <fonts count="13" x14ac:knownFonts="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+  <fonts count="16">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -167,6 +179,31 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <b/>
+      <i/>
+      <sz val="24"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="24"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <i/>
+      <sz val="24"/>
+      <color theme="7"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
   <fills count="4">
     <fill>
@@ -332,7 +369,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="30">
+  <cellXfs count="33">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
@@ -419,6 +456,15 @@
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="11" fillId="3" borderId="3" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="3" borderId="2" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="3" borderId="4" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="3" borderId="3" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
@@ -701,14 +747,14 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:V112"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+  <dimension ref="A1:V113"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A53" zoomScale="55" zoomScaleNormal="55" workbookViewId="0">
-      <selection activeCell="D64" sqref="D64"/>
+    <sheetView tabSelected="1" topLeftCell="A4" zoomScale="55" zoomScaleNormal="55" workbookViewId="0">
+      <selection activeCell="G12" sqref="G12"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="15"/>
   <cols>
     <col min="1" max="1" width="9.42578125" style="1" customWidth="1"/>
     <col min="2" max="2" width="56.7109375" style="1" customWidth="1"/>
@@ -719,9 +765,9 @@
     <col min="7" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:22" ht="14.65" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:22" ht="14.65" customHeight="1">
       <c r="A1" s="11" t="s">
-        <v>10</v>
+        <v>0</v>
       </c>
       <c r="B1" s="12"/>
       <c r="C1" s="13"/>
@@ -745,7 +791,7 @@
       <c r="U1" s="2"/>
       <c r="V1" s="2"/>
     </row>
-    <row r="2" spans="1:22" ht="14.65" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:22" ht="14.65" customHeight="1">
       <c r="A2" s="14"/>
       <c r="B2" s="15"/>
       <c r="C2" s="16"/>
@@ -769,7 +815,7 @@
       <c r="U2" s="2"/>
       <c r="V2" s="2"/>
     </row>
-    <row r="3" spans="1:22" ht="14.65" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:22" ht="14.65" customHeight="1">
       <c r="A3" s="17"/>
       <c r="B3" s="18"/>
       <c r="C3" s="19"/>
@@ -793,7 +839,7 @@
       <c r="U3" s="2"/>
       <c r="V3" s="2"/>
     </row>
-    <row r="4" spans="1:22" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:22" ht="39.950000000000003" customHeight="1">
       <c r="A4" s="27"/>
       <c r="B4" s="28"/>
       <c r="C4" s="29"/>
@@ -817,9 +863,9 @@
       <c r="U4" s="2"/>
       <c r="V4" s="2"/>
     </row>
-    <row r="5" spans="1:22" ht="50.1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:22" ht="50.1" customHeight="1">
       <c r="A5" s="23" t="s">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="B5" s="24"/>
       <c r="C5" s="8"/>
@@ -843,9 +889,9 @@
       <c r="U5" s="2"/>
       <c r="V5" s="2"/>
     </row>
-    <row r="6" spans="1:22" ht="53.65" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:22" ht="53.65" customHeight="1">
       <c r="A6" s="23" t="s">
-        <v>9</v>
+        <v>2</v>
       </c>
       <c r="B6" s="24"/>
       <c r="C6" s="8"/>
@@ -869,9 +915,9 @@
       <c r="U6" s="2"/>
       <c r="V6" s="2"/>
     </row>
-    <row r="7" spans="1:22" ht="52.35" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:22" ht="52.35" customHeight="1">
       <c r="A7" s="23" t="s">
-        <v>8</v>
+        <v>3</v>
       </c>
       <c r="B7" s="24"/>
       <c r="C7" s="8"/>
@@ -895,7 +941,7 @@
       <c r="U7" s="2"/>
       <c r="V7" s="2"/>
     </row>
-    <row r="8" spans="1:22" ht="53.65" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:22" ht="53.65" customHeight="1">
       <c r="A8" s="23" t="s">
         <v>4</v>
       </c>
@@ -921,7 +967,7 @@
       <c r="U8" s="2"/>
       <c r="V8" s="2"/>
     </row>
-    <row r="9" spans="1:22" ht="53.65" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:22" ht="53.65" customHeight="1">
       <c r="A9" s="25" t="s">
         <v>5</v>
       </c>
@@ -947,7 +993,7 @@
       <c r="U9" s="2"/>
       <c r="V9" s="2"/>
     </row>
-    <row r="10" spans="1:22" ht="66" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:22" ht="66" customHeight="1">
       <c r="A10" s="25" t="s">
         <v>6</v>
       </c>
@@ -973,9 +1019,9 @@
       <c r="U10" s="2"/>
       <c r="V10" s="2"/>
     </row>
-    <row r="11" spans="1:22" ht="66.400000000000006" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:22" ht="66.400000000000006" customHeight="1">
       <c r="A11" s="25" t="s">
-        <v>11</v>
+        <v>7</v>
       </c>
       <c r="B11" s="26"/>
       <c r="C11" s="8"/>
@@ -999,9 +1045,9 @@
       <c r="U11" s="2"/>
       <c r="V11" s="2"/>
     </row>
-    <row r="12" spans="1:22" ht="63.4" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:22" ht="63.4" customHeight="1">
       <c r="A12" s="20" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="B12" s="21"/>
       <c r="C12" s="22"/>
@@ -1025,437 +1071,462 @@
       <c r="U12" s="2"/>
       <c r="V12" s="2"/>
     </row>
-    <row r="13" spans="1:22" s="5" customFormat="1" ht="42" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A13" s="4" t="s">
-        <v>0</v>
+    <row r="13" spans="1:22" ht="63.4" customHeight="1">
+      <c r="A13" s="30"/>
+      <c r="B13" s="31"/>
+      <c r="C13" s="32"/>
+      <c r="D13" s="2"/>
+      <c r="E13" s="2"/>
+      <c r="F13" s="2"/>
+      <c r="G13" s="2"/>
+      <c r="H13" s="2"/>
+      <c r="I13" s="2"/>
+      <c r="J13" s="2"/>
+      <c r="K13" s="2"/>
+      <c r="L13" s="2"/>
+      <c r="M13" s="2"/>
+      <c r="N13" s="2"/>
+      <c r="O13" s="2"/>
+      <c r="P13" s="2"/>
+      <c r="Q13" s="2"/>
+      <c r="R13" s="2"/>
+      <c r="S13" s="2"/>
+      <c r="T13" s="2"/>
+      <c r="U13" s="2"/>
+      <c r="V13" s="2"/>
+    </row>
+    <row r="14" spans="1:22" s="5" customFormat="1" ht="42" customHeight="1">
+      <c r="A14" s="4" t="s">
+        <v>9</v>
       </c>
-      <c r="B13" s="4" t="s">
-        <v>1</v>
+      <c r="B14" s="4" t="s">
+        <v>10</v>
       </c>
-      <c r="C13" s="4" t="s">
-        <v>2</v>
+      <c r="C14" s="4" t="s">
+        <v>11</v>
       </c>
     </row>
-    <row r="14" spans="1:22" s="6" customFormat="1" ht="56.1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A14" s="9"/>
-      <c r="B14" s="10"/>
-      <c r="C14" s="9"/>
-    </row>
-    <row r="15" spans="1:22" s="6" customFormat="1" ht="43.35" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:22" s="6" customFormat="1" ht="56.1" customHeight="1">
       <c r="A15" s="9"/>
       <c r="B15" s="10"/>
       <c r="C15" s="9"/>
     </row>
-    <row r="16" spans="1:22" s="6" customFormat="1" ht="40.700000000000003" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:22" s="6" customFormat="1" ht="43.35" customHeight="1">
       <c r="A16" s="9"/>
       <c r="B16" s="10"/>
       <c r="C16" s="9"/>
     </row>
-    <row r="17" spans="1:3" s="6" customFormat="1" ht="47.65" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:3" s="6" customFormat="1" ht="40.700000000000003" customHeight="1">
       <c r="A17" s="9"/>
       <c r="B17" s="10"/>
       <c r="C17" s="9"/>
     </row>
-    <row r="18" spans="1:3" s="6" customFormat="1" ht="40.35" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:3" s="6" customFormat="1" ht="47.65" customHeight="1">
       <c r="A18" s="9"/>
       <c r="B18" s="10"/>
       <c r="C18" s="9"/>
     </row>
-    <row r="19" spans="1:3" s="6" customFormat="1" ht="44.1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:3" s="6" customFormat="1" ht="40.35" customHeight="1">
       <c r="A19" s="9"/>
       <c r="B19" s="10"/>
       <c r="C19" s="9"/>
     </row>
-    <row r="20" spans="1:3" s="6" customFormat="1" ht="42" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:3" s="6" customFormat="1" ht="44.1" customHeight="1">
       <c r="A20" s="9"/>
       <c r="B20" s="10"/>
       <c r="C20" s="9"/>
     </row>
-    <row r="21" spans="1:3" s="6" customFormat="1" ht="39" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:3" s="6" customFormat="1" ht="42" customHeight="1">
       <c r="A21" s="9"/>
       <c r="B21" s="10"/>
       <c r="C21" s="9"/>
     </row>
-    <row r="22" spans="1:3" s="6" customFormat="1" ht="54.4" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:3" s="6" customFormat="1" ht="39" customHeight="1">
       <c r="A22" s="9"/>
       <c r="B22" s="10"/>
       <c r="C22" s="9"/>
     </row>
-    <row r="23" spans="1:3" s="6" customFormat="1" ht="52.35" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:3" s="6" customFormat="1" ht="54.4" customHeight="1">
       <c r="A23" s="9"/>
       <c r="B23" s="10"/>
       <c r="C23" s="9"/>
     </row>
-    <row r="24" spans="1:3" s="6" customFormat="1" ht="39.4" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:3" s="6" customFormat="1" ht="52.35" customHeight="1">
       <c r="A24" s="9"/>
       <c r="B24" s="10"/>
       <c r="C24" s="9"/>
     </row>
-    <row r="25" spans="1:3" s="6" customFormat="1" ht="42" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:3" s="6" customFormat="1" ht="39.4" customHeight="1">
       <c r="A25" s="9"/>
       <c r="B25" s="10"/>
       <c r="C25" s="9"/>
     </row>
-    <row r="26" spans="1:3" s="6" customFormat="1" ht="46.7" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:3" s="6" customFormat="1" ht="42" customHeight="1">
       <c r="A26" s="9"/>
       <c r="B26" s="10"/>
       <c r="C26" s="9"/>
     </row>
-    <row r="27" spans="1:3" s="6" customFormat="1" ht="45.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:3" s="6" customFormat="1" ht="46.7" customHeight="1">
       <c r="A27" s="9"/>
       <c r="B27" s="10"/>
       <c r="C27" s="9"/>
     </row>
-    <row r="28" spans="1:3" s="6" customFormat="1" ht="53.65" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:3" s="6" customFormat="1" ht="45.95" customHeight="1">
       <c r="A28" s="9"/>
       <c r="B28" s="10"/>
       <c r="C28" s="9"/>
     </row>
-    <row r="29" spans="1:3" s="6" customFormat="1" ht="44.65" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:3" s="6" customFormat="1" ht="53.65" customHeight="1">
       <c r="A29" s="9"/>
       <c r="B29" s="10"/>
       <c r="C29" s="9"/>
     </row>
-    <row r="30" spans="1:3" s="6" customFormat="1" ht="45.4" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:3" s="6" customFormat="1" ht="44.65" customHeight="1">
       <c r="A30" s="9"/>
       <c r="B30" s="10"/>
       <c r="C30" s="9"/>
     </row>
-    <row r="31" spans="1:3" s="6" customFormat="1" ht="48.4" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:3" s="6" customFormat="1" ht="45.4" customHeight="1">
       <c r="A31" s="9"/>
       <c r="B31" s="10"/>
       <c r="C31" s="9"/>
     </row>
-    <row r="32" spans="1:3" s="6" customFormat="1" ht="41.1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:3" s="6" customFormat="1" ht="48.4" customHeight="1">
       <c r="A32" s="9"/>
       <c r="B32" s="10"/>
       <c r="C32" s="9"/>
     </row>
-    <row r="33" spans="1:4" s="6" customFormat="1" ht="41.65" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:4" s="6" customFormat="1" ht="41.1" customHeight="1">
       <c r="A33" s="9"/>
       <c r="B33" s="10"/>
       <c r="C33" s="9"/>
     </row>
-    <row r="34" spans="1:4" s="6" customFormat="1" ht="42.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:4" s="6" customFormat="1" ht="41.65" customHeight="1">
       <c r="A34" s="9"/>
       <c r="B34" s="10"/>
       <c r="C34" s="9"/>
     </row>
-    <row r="35" spans="1:4" s="6" customFormat="1" ht="35.65" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:4" s="6" customFormat="1" ht="42.95" customHeight="1">
       <c r="A35" s="9"/>
       <c r="B35" s="10"/>
       <c r="C35" s="9"/>
     </row>
-    <row r="36" spans="1:4" s="6" customFormat="1" ht="39" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:4" s="6" customFormat="1" ht="35.65" customHeight="1">
       <c r="A36" s="9"/>
       <c r="B36" s="10"/>
       <c r="C36" s="9"/>
     </row>
-    <row r="37" spans="1:4" s="6" customFormat="1" ht="43.7" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:4" s="6" customFormat="1" ht="39" customHeight="1">
       <c r="A37" s="9"/>
       <c r="B37" s="10"/>
       <c r="C37" s="9"/>
-      <c r="D37" s="9"/>
-    </row>
-    <row r="38" spans="1:4" s="6" customFormat="1" ht="44.1" customHeight="1" x14ac:dyDescent="0.25">
+    </row>
+    <row r="38" spans="1:4" s="6" customFormat="1" ht="43.7" customHeight="1">
       <c r="A38" s="9"/>
       <c r="B38" s="10"/>
       <c r="C38" s="9"/>
       <c r="D38" s="9"/>
     </row>
-    <row r="39" spans="1:4" s="6" customFormat="1" ht="48.4" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:4" s="6" customFormat="1" ht="44.1" customHeight="1">
       <c r="A39" s="9"/>
       <c r="B39" s="10"/>
       <c r="C39" s="9"/>
       <c r="D39" s="9"/>
     </row>
-    <row r="40" spans="1:4" s="6" customFormat="1" ht="36" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:4" s="6" customFormat="1" ht="48.4" customHeight="1">
       <c r="A40" s="9"/>
       <c r="B40" s="10"/>
       <c r="C40" s="9"/>
       <c r="D40" s="9"/>
     </row>
-    <row r="41" spans="1:4" s="6" customFormat="1" ht="41.65" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:4" s="6" customFormat="1" ht="36" customHeight="1">
       <c r="A41" s="9"/>
       <c r="B41" s="10"/>
       <c r="C41" s="9"/>
       <c r="D41" s="9"/>
     </row>
-    <row r="42" spans="1:4" s="6" customFormat="1" ht="43.35" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:4" s="6" customFormat="1" ht="41.65" customHeight="1">
       <c r="A42" s="9"/>
       <c r="B42" s="10"/>
       <c r="C42" s="9"/>
       <c r="D42" s="9"/>
     </row>
-    <row r="43" spans="1:4" s="6" customFormat="1" ht="45" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:4" s="6" customFormat="1" ht="43.35" customHeight="1">
       <c r="A43" s="9"/>
       <c r="B43" s="10"/>
       <c r="C43" s="9"/>
       <c r="D43" s="9"/>
     </row>
-    <row r="44" spans="1:4" s="6" customFormat="1" ht="41.65" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="44" spans="1:4" s="6" customFormat="1" ht="45" customHeight="1">
       <c r="A44" s="9"/>
       <c r="B44" s="10"/>
       <c r="C44" s="9"/>
       <c r="D44" s="9"/>
     </row>
-    <row r="45" spans="1:4" s="6" customFormat="1" ht="43.35" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="45" spans="1:4" s="6" customFormat="1" ht="41.65" customHeight="1">
       <c r="A45" s="9"/>
       <c r="B45" s="10"/>
       <c r="C45" s="9"/>
       <c r="D45" s="9"/>
     </row>
-    <row r="46" spans="1:4" s="6" customFormat="1" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="46" spans="1:4" s="6" customFormat="1" ht="43.35" customHeight="1">
       <c r="A46" s="9"/>
       <c r="B46" s="10"/>
       <c r="C46" s="9"/>
       <c r="D46" s="9"/>
     </row>
-    <row r="47" spans="1:4" s="6" customFormat="1" ht="38.65" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="47" spans="1:4" s="6" customFormat="1" ht="39.950000000000003" customHeight="1">
       <c r="A47" s="9"/>
       <c r="B47" s="10"/>
       <c r="C47" s="9"/>
       <c r="D47" s="9"/>
     </row>
-    <row r="48" spans="1:4" s="6" customFormat="1" ht="41.1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="48" spans="1:4" s="6" customFormat="1" ht="38.65" customHeight="1">
       <c r="A48" s="9"/>
       <c r="B48" s="10"/>
       <c r="C48" s="9"/>
       <c r="D48" s="9"/>
     </row>
-    <row r="49" spans="1:4" s="6" customFormat="1" ht="41.65" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="49" spans="1:4" s="6" customFormat="1" ht="41.1" customHeight="1">
       <c r="A49" s="9"/>
       <c r="B49" s="10"/>
       <c r="C49" s="9"/>
       <c r="D49" s="9"/>
     </row>
-    <row r="50" spans="1:4" s="6" customFormat="1" ht="31.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="50" spans="1:4" s="6" customFormat="1" ht="41.65" customHeight="1">
       <c r="A50" s="9"/>
       <c r="B50" s="10"/>
       <c r="C50" s="9"/>
       <c r="D50" s="9"/>
     </row>
-    <row r="51" spans="1:4" s="6" customFormat="1" ht="41.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="51" spans="1:4" s="6" customFormat="1" ht="31.5" customHeight="1">
       <c r="A51" s="9"/>
       <c r="B51" s="10"/>
       <c r="C51" s="9"/>
       <c r="D51" s="9"/>
     </row>
-    <row r="52" spans="1:4" s="6" customFormat="1" ht="39" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="52" spans="1:4" s="6" customFormat="1" ht="41.25" customHeight="1">
       <c r="A52" s="9"/>
       <c r="B52" s="10"/>
       <c r="C52" s="9"/>
       <c r="D52" s="9"/>
     </row>
-    <row r="53" spans="1:4" s="6" customFormat="1" ht="33" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="53" spans="1:4" s="6" customFormat="1" ht="39" customHeight="1">
       <c r="A53" s="9"/>
       <c r="B53" s="10"/>
       <c r="C53" s="9"/>
       <c r="D53" s="9"/>
     </row>
-    <row r="54" spans="1:4" s="6" customFormat="1" ht="32.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="54" spans="1:4" s="6" customFormat="1" ht="33" customHeight="1">
       <c r="A54" s="9"/>
       <c r="B54" s="10"/>
       <c r="C54" s="9"/>
       <c r="D54" s="9"/>
     </row>
-    <row r="55" spans="1:4" s="6" customFormat="1" ht="45" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="55" spans="1:4" s="6" customFormat="1" ht="32.25" customHeight="1">
       <c r="A55" s="9"/>
       <c r="B55" s="10"/>
       <c r="C55" s="9"/>
       <c r="D55" s="9"/>
     </row>
-    <row r="56" spans="1:4" s="6" customFormat="1" ht="37.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="56" spans="1:4" s="6" customFormat="1" ht="45" customHeight="1">
       <c r="A56" s="9"/>
       <c r="B56" s="10"/>
       <c r="C56" s="9"/>
       <c r="D56" s="9"/>
     </row>
-    <row r="57" spans="1:4" s="6" customFormat="1" ht="33.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="57" spans="1:4" s="6" customFormat="1" ht="37.5" customHeight="1">
       <c r="A57" s="9"/>
       <c r="B57" s="10"/>
       <c r="C57" s="9"/>
       <c r="D57" s="9"/>
     </row>
-    <row r="58" spans="1:4" s="6" customFormat="1" ht="37.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="58" spans="1:4" s="6" customFormat="1" ht="33.75" customHeight="1">
       <c r="A58" s="9"/>
       <c r="B58" s="10"/>
       <c r="C58" s="9"/>
       <c r="D58" s="9"/>
     </row>
-    <row r="59" spans="1:4" s="6" customFormat="1" ht="30.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="59" spans="1:4" s="6" customFormat="1" ht="37.5" customHeight="1">
       <c r="A59" s="9"/>
       <c r="B59" s="10"/>
       <c r="C59" s="9"/>
       <c r="D59" s="9"/>
     </row>
-    <row r="60" spans="1:4" s="6" customFormat="1" ht="35.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="60" spans="1:4" s="6" customFormat="1" ht="30.75" customHeight="1">
       <c r="A60" s="9"/>
       <c r="B60" s="10"/>
       <c r="C60" s="9"/>
       <c r="D60" s="9"/>
     </row>
-    <row r="61" spans="1:4" s="6" customFormat="1" ht="39.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="61" spans="1:4" s="6" customFormat="1" ht="35.25" customHeight="1">
       <c r="A61" s="9"/>
       <c r="B61" s="10"/>
       <c r="C61" s="9"/>
       <c r="D61" s="9"/>
     </row>
-    <row r="62" spans="1:4" s="6" customFormat="1" ht="11.65" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B62" s="7"/>
-    </row>
-    <row r="63" spans="1:4" s="6" customFormat="1" ht="11.65" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="62" spans="1:4" s="6" customFormat="1" ht="39.75" customHeight="1">
+      <c r="A62" s="9"/>
+      <c r="B62" s="10"/>
+      <c r="C62" s="9"/>
+      <c r="D62" s="9"/>
+    </row>
+    <row r="63" spans="1:4" s="6" customFormat="1" ht="11.65" customHeight="1">
       <c r="B63" s="7"/>
     </row>
-    <row r="64" spans="1:4" s="6" customFormat="1" ht="11.65" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="64" spans="1:4" s="6" customFormat="1" ht="11.65" customHeight="1">
       <c r="B64" s="7"/>
     </row>
-    <row r="65" spans="2:2" ht="11.65" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B65" s="3"/>
-    </row>
-    <row r="66" spans="2:2" ht="11.65" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="65" spans="2:2" s="6" customFormat="1" ht="11.65" customHeight="1">
+      <c r="B65" s="7"/>
+    </row>
+    <row r="66" spans="2:2" ht="11.65" customHeight="1">
       <c r="B66" s="3"/>
     </row>
-    <row r="67" spans="2:2" ht="11.65" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="67" spans="2:2" ht="11.65" customHeight="1">
       <c r="B67" s="3"/>
     </row>
-    <row r="68" spans="2:2" ht="11.65" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="68" spans="2:2" ht="11.65" customHeight="1">
       <c r="B68" s="3"/>
     </row>
-    <row r="69" spans="2:2" ht="11.65" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="69" spans="2:2" ht="11.65" customHeight="1">
       <c r="B69" s="3"/>
     </row>
-    <row r="70" spans="2:2" ht="11.65" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="70" spans="2:2" ht="11.65" customHeight="1">
       <c r="B70" s="3"/>
     </row>
-    <row r="71" spans="2:2" ht="11.65" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="71" spans="2:2" ht="11.65" customHeight="1">
       <c r="B71" s="3"/>
     </row>
-    <row r="72" spans="2:2" ht="11.65" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="72" spans="2:2" ht="11.65" customHeight="1">
       <c r="B72" s="3"/>
     </row>
-    <row r="73" spans="2:2" ht="11.65" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="73" spans="2:2" ht="11.65" customHeight="1">
       <c r="B73" s="3"/>
     </row>
-    <row r="74" spans="2:2" ht="11.65" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="74" spans="2:2" ht="11.65" customHeight="1">
       <c r="B74" s="3"/>
     </row>
-    <row r="75" spans="2:2" ht="11.65" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="75" spans="2:2" ht="11.65" customHeight="1">
       <c r="B75" s="3"/>
     </row>
-    <row r="76" spans="2:2" ht="11.65" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="76" spans="2:2" ht="11.65" customHeight="1">
       <c r="B76" s="3"/>
     </row>
-    <row r="77" spans="2:2" ht="11.65" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="77" spans="2:2" ht="11.65" customHeight="1">
       <c r="B77" s="3"/>
     </row>
-    <row r="78" spans="2:2" ht="11.65" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="78" spans="2:2" ht="11.65" customHeight="1">
       <c r="B78" s="3"/>
     </row>
-    <row r="79" spans="2:2" ht="11.65" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="79" spans="2:2" ht="11.65" customHeight="1">
       <c r="B79" s="3"/>
     </row>
-    <row r="80" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="80" spans="2:2" ht="11.65" customHeight="1">
       <c r="B80" s="3"/>
     </row>
-    <row r="81" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="81" spans="2:2">
       <c r="B81" s="3"/>
     </row>
-    <row r="82" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="82" spans="2:2">
       <c r="B82" s="3"/>
     </row>
-    <row r="83" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="83" spans="2:2">
       <c r="B83" s="3"/>
     </row>
-    <row r="84" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="84" spans="2:2">
       <c r="B84" s="3"/>
     </row>
-    <row r="85" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="85" spans="2:2">
       <c r="B85" s="3"/>
     </row>
-    <row r="86" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="86" spans="2:2">
       <c r="B86" s="3"/>
     </row>
-    <row r="87" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="87" spans="2:2">
       <c r="B87" s="3"/>
     </row>
-    <row r="88" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="88" spans="2:2">
       <c r="B88" s="3"/>
     </row>
-    <row r="89" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="89" spans="2:2">
       <c r="B89" s="3"/>
     </row>
-    <row r="90" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="90" spans="2:2">
       <c r="B90" s="3"/>
     </row>
-    <row r="91" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="91" spans="2:2">
       <c r="B91" s="3"/>
     </row>
-    <row r="92" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="92" spans="2:2">
       <c r="B92" s="3"/>
     </row>
-    <row r="93" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="93" spans="2:2">
       <c r="B93" s="3"/>
     </row>
-    <row r="94" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="94" spans="2:2">
       <c r="B94" s="3"/>
     </row>
-    <row r="95" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="95" spans="2:2">
       <c r="B95" s="3"/>
     </row>
-    <row r="96" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="96" spans="2:2">
       <c r="B96" s="3"/>
     </row>
-    <row r="97" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="97" spans="2:2">
       <c r="B97" s="3"/>
     </row>
-    <row r="98" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="98" spans="2:2">
       <c r="B98" s="3"/>
     </row>
-    <row r="99" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="99" spans="2:2">
       <c r="B99" s="3"/>
     </row>
-    <row r="100" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="100" spans="2:2">
       <c r="B100" s="3"/>
     </row>
-    <row r="101" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="101" spans="2:2">
       <c r="B101" s="3"/>
     </row>
-    <row r="102" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="102" spans="2:2">
       <c r="B102" s="3"/>
     </row>
-    <row r="103" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="103" spans="2:2">
       <c r="B103" s="3"/>
     </row>
-    <row r="104" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="104" spans="2:2">
       <c r="B104" s="3"/>
     </row>
-    <row r="105" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="105" spans="2:2">
       <c r="B105" s="3"/>
     </row>
-    <row r="106" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="106" spans="2:2">
       <c r="B106" s="3"/>
     </row>
-    <row r="107" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="107" spans="2:2">
       <c r="B107" s="3"/>
     </row>
-    <row r="108" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="108" spans="2:2">
       <c r="B108" s="3"/>
     </row>
-    <row r="109" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="109" spans="2:2">
       <c r="B109" s="3"/>
     </row>
-    <row r="110" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="110" spans="2:2">
       <c r="B110" s="3"/>
     </row>
-    <row r="111" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="111" spans="2:2">
       <c r="B111" s="3"/>
     </row>
-    <row r="112" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="112" spans="2:2">
       <c r="B112" s="3"/>
     </row>
+    <row r="113" spans="2:2">
+      <c r="B113" s="3"/>
+    </row>
   </sheetData>
-  <mergeCells count="10">
+  <mergeCells count="11">
+    <mergeCell ref="A13:B13"/>
     <mergeCell ref="A1:C3"/>
     <mergeCell ref="A12:C12"/>
     <mergeCell ref="A5:B5"/>
